--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V218"/>
+  <dimension ref="A1:W218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,11 @@
           <t>WARNING</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -627,12 +632,15 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
         <v>10</v>
       </c>
+      <c r="W2" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -725,13 +733,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -825,13 +836,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -921,13 +935,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>6</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1017,13 +1034,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>8</v>
       </c>
       <c r="V6" t="n">
         <v>7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1113,13 +1133,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>6</v>
       </c>
       <c r="V7" t="n">
         <v>6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1209,13 +1232,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1331,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>7</v>
       </c>
       <c r="V9" t="n">
         <v>5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1401,13 +1430,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>6</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1497,11 +1529,14 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
         <v>10</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -1591,13 +1626,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1687,13 +1725,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1783,13 +1824,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>7</v>
       </c>
       <c r="V14" t="n">
         <v>11</v>
+      </c>
+      <c r="W14" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1887,6 +1931,9 @@
       <c r="V15" t="n">
         <v>11</v>
       </c>
+      <c r="W15" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1975,13 +2022,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
         <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>7</v>
+      </c>
+      <c r="W16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2071,13 +2121,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
         <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2167,11 +2220,14 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="n">
         <v>8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2261,13 +2317,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2361,13 +2420,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2457,13 +2519,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2553,11 +2618,14 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="n">
         <v>6</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2647,13 +2715,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
         <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>11</v>
+      </c>
+      <c r="W23" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -2747,13 +2818,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2843,13 +2917,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
         <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2939,13 +3016,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>7</v>
+      </c>
+      <c r="W26" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -3039,13 +3119,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -3139,6 +3222,9 @@
       <c r="V28" t="n">
         <v>8</v>
       </c>
+      <c r="W28" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3227,13 +3313,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
         <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>8</v>
+      </c>
+      <c r="W29" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -3323,13 +3412,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U30" t="n">
         <v>8</v>
       </c>
       <c r="V30" t="n">
         <v>5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -3419,11 +3511,14 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="n">
         <v>7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -3517,13 +3612,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>8</v>
       </c>
       <c r="V32" t="n">
         <v>12</v>
+      </c>
+      <c r="W32" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -3613,13 +3711,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
         <v>7</v>
       </c>
       <c r="V33" t="n">
         <v>12</v>
+      </c>
+      <c r="W33" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -3713,13 +3814,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>4</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -3809,11 +3913,14 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
         <v>8</v>
+      </c>
+      <c r="W35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3903,13 +4010,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U36" t="n">
         <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>10</v>
+      </c>
+      <c r="W36" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -3999,13 +4109,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
         <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -4095,13 +4208,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U38" t="n">
         <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>7</v>
+      </c>
+      <c r="W38" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -4191,13 +4307,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
         <v>1</v>
       </c>
       <c r="V39" t="n">
         <v>11</v>
+      </c>
+      <c r="W39" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -4287,13 +4406,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
         <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>8</v>
+      </c>
+      <c r="W40" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -4383,13 +4505,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
         <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>10</v>
+      </c>
+      <c r="W41" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -4479,13 +4604,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
         <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>8</v>
+      </c>
+      <c r="W42" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -4575,13 +4703,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U43" t="n">
         <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -4671,11 +4802,14 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="n">
         <v>6</v>
+      </c>
+      <c r="W44" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -4765,13 +4899,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
         <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>9</v>
+      </c>
+      <c r="W45" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -4865,13 +5002,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
         <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>3</v>
+      </c>
+      <c r="W46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -4961,13 +5101,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
         <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>11</v>
+      </c>
+      <c r="W47" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -5057,13 +5200,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U48" t="n">
         <v>9</v>
       </c>
       <c r="V48" t="n">
         <v>4</v>
+      </c>
+      <c r="W48" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -5153,13 +5299,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
         <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>8</v>
+      </c>
+      <c r="W49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -5249,13 +5398,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
         <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>10</v>
+      </c>
+      <c r="W50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -5345,13 +5497,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U51" t="n">
         <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>4</v>
+      </c>
+      <c r="W51" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -5445,13 +5600,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
         <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>3</v>
+      </c>
+      <c r="W52" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -5549,6 +5707,9 @@
       <c r="V53" t="n">
         <v>10</v>
       </c>
+      <c r="W53" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5637,13 +5798,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
         <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>8</v>
+      </c>
+      <c r="W54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -5733,11 +5897,14 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="n">
         <v>6</v>
+      </c>
+      <c r="W55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -5827,13 +5994,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
         <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>7</v>
+      </c>
+      <c r="W56" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -5923,13 +6093,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
         <v>1</v>
       </c>
       <c r="V57" t="n">
         <v>8</v>
+      </c>
+      <c r="W57" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -6027,6 +6200,9 @@
       <c r="V58" t="n">
         <v>2</v>
       </c>
+      <c r="W58" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6115,11 +6291,14 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="n">
         <v>5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -6213,13 +6392,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60" t="n">
         <v>1</v>
       </c>
       <c r="V60" t="n">
         <v>3</v>
+      </c>
+      <c r="W60" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -6313,13 +6495,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
         <v>2</v>
       </c>
       <c r="V61" t="n">
         <v>5</v>
+      </c>
+      <c r="W61" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -6409,13 +6594,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U62" t="n">
         <v>1</v>
       </c>
       <c r="V62" t="n">
         <v>7</v>
+      </c>
+      <c r="W62" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -6505,13 +6693,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
         <v>1</v>
       </c>
       <c r="V63" t="n">
         <v>4</v>
+      </c>
+      <c r="W63" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -6601,13 +6792,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U64" t="n">
         <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>6</v>
+      </c>
+      <c r="W64" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -6701,13 +6895,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
         <v>2</v>
       </c>
       <c r="V65" t="n">
         <v>4</v>
+      </c>
+      <c r="W65" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -6797,13 +6994,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U66" t="n">
         <v>3</v>
       </c>
       <c r="V66" t="n">
         <v>6</v>
+      </c>
+      <c r="W66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -6893,11 +7093,14 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="n">
         <v>8</v>
+      </c>
+      <c r="W67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -6987,13 +7190,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U68" t="n">
         <v>1</v>
       </c>
       <c r="V68" t="n">
         <v>10</v>
+      </c>
+      <c r="W68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -7083,13 +7289,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
         <v>2</v>
       </c>
       <c r="V69" t="n">
         <v>17</v>
+      </c>
+      <c r="W69" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -7183,13 +7392,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U70" t="n">
         <v>1</v>
       </c>
       <c r="V70" t="n">
         <v>8</v>
+      </c>
+      <c r="W70" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -7283,13 +7495,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U71" t="n">
         <v>2</v>
       </c>
       <c r="V71" t="n">
         <v>4</v>
+      </c>
+      <c r="W71" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -7379,13 +7594,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U72" t="n">
         <v>1</v>
       </c>
       <c r="V72" t="n">
         <v>11</v>
+      </c>
+      <c r="W72" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -7475,13 +7693,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U73" t="n">
         <v>1</v>
       </c>
       <c r="V73" t="n">
         <v>5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -7571,13 +7792,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U74" t="n">
         <v>1</v>
       </c>
       <c r="V74" t="n">
         <v>8</v>
+      </c>
+      <c r="W74" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="75">
@@ -7667,11 +7891,14 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="n">
         <v>8</v>
+      </c>
+      <c r="W75" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -7765,11 +7992,14 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
         <v>9</v>
+      </c>
+      <c r="W76" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="77">
@@ -7859,13 +8089,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U77" t="n">
         <v>1</v>
       </c>
       <c r="V77" t="n">
         <v>6</v>
+      </c>
+      <c r="W77" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -7959,13 +8192,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U78" t="n">
         <v>1</v>
       </c>
       <c r="V78" t="n">
         <v>3</v>
+      </c>
+      <c r="W78" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -8055,13 +8291,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U79" t="n">
         <v>1</v>
       </c>
       <c r="V79" t="n">
         <v>5</v>
+      </c>
+      <c r="W79" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -8151,13 +8390,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U80" t="n">
         <v>1</v>
       </c>
       <c r="V80" t="n">
         <v>8</v>
+      </c>
+      <c r="W80" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="81">
@@ -8247,13 +8489,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U81" t="n">
         <v>1</v>
       </c>
       <c r="V81" t="n">
         <v>4</v>
+      </c>
+      <c r="W81" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -8347,13 +8592,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U82" t="n">
         <v>1</v>
       </c>
       <c r="V82" t="n">
         <v>10</v>
+      </c>
+      <c r="W82" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -8443,11 +8691,14 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="n">
         <v>15</v>
+      </c>
+      <c r="W83" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="84">
@@ -8537,13 +8788,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U84" t="n">
         <v>1</v>
       </c>
       <c r="V84" t="n">
         <v>6</v>
+      </c>
+      <c r="W84" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="85">
@@ -8633,13 +8887,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U85" t="n">
         <v>2</v>
       </c>
       <c r="V85" t="n">
         <v>4</v>
+      </c>
+      <c r="W85" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -8729,13 +8986,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U86" t="n">
         <v>1</v>
       </c>
       <c r="V86" t="n">
         <v>8</v>
+      </c>
+      <c r="W86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -8825,13 +9085,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U87" t="n">
         <v>1</v>
       </c>
       <c r="V87" t="n">
         <v>4</v>
+      </c>
+      <c r="W87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -8925,11 +9188,14 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="n">
         <v>8</v>
+      </c>
+      <c r="W88" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -9023,13 +9289,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U89" t="n">
         <v>2</v>
       </c>
       <c r="V89" t="n">
         <v>2</v>
+      </c>
+      <c r="W89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -9119,11 +9388,14 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="n">
         <v>6</v>
+      </c>
+      <c r="W90" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -9213,13 +9485,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U91" t="n">
         <v>1</v>
       </c>
       <c r="V91" t="n">
         <v>7</v>
+      </c>
+      <c r="W91" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -9313,13 +9588,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U92" t="n">
         <v>1</v>
       </c>
       <c r="V92" t="n">
         <v>11</v>
+      </c>
+      <c r="W92" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -9409,13 +9687,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U93" t="n">
         <v>7</v>
       </c>
       <c r="V93" t="n">
         <v>6</v>
+      </c>
+      <c r="W93" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -9505,13 +9786,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U94" t="n">
         <v>1</v>
       </c>
       <c r="V94" t="n">
         <v>9</v>
+      </c>
+      <c r="W94" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -9601,13 +9885,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U95" t="n">
         <v>1</v>
       </c>
       <c r="V95" t="n">
         <v>4</v>
+      </c>
+      <c r="W95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -9697,13 +9984,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U96" t="n">
         <v>1</v>
       </c>
       <c r="V96" t="n">
         <v>8</v>
+      </c>
+      <c r="W96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -9793,13 +10083,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U97" t="n">
         <v>1</v>
       </c>
       <c r="V97" t="n">
         <v>7</v>
+      </c>
+      <c r="W97" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -9889,13 +10182,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U98" t="n">
         <v>1</v>
       </c>
       <c r="V98" t="n">
         <v>8</v>
+      </c>
+      <c r="W98" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -9989,13 +10285,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U99" t="n">
         <v>2</v>
       </c>
       <c r="V99" t="n">
         <v>4</v>
+      </c>
+      <c r="W99" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -10089,13 +10388,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U100" t="n">
         <v>2</v>
       </c>
       <c r="V100" t="n">
         <v>2</v>
+      </c>
+      <c r="W100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -10185,13 +10487,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U101" t="n">
         <v>1</v>
       </c>
       <c r="V101" t="n">
         <v>10</v>
+      </c>
+      <c r="W101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -10285,13 +10590,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U102" t="n">
         <v>1</v>
       </c>
       <c r="V102" t="n">
         <v>2</v>
+      </c>
+      <c r="W102" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="103">
@@ -10385,11 +10693,14 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="n">
         <v>10</v>
+      </c>
+      <c r="W103" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -10479,13 +10790,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U104" t="n">
         <v>1</v>
       </c>
       <c r="V104" t="n">
         <v>8</v>
+      </c>
+      <c r="W104" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -10575,13 +10889,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U105" t="n">
         <v>5</v>
       </c>
       <c r="V105" t="n">
         <v>9</v>
+      </c>
+      <c r="W105" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="106">
@@ -10671,13 +10988,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U106" t="n">
         <v>1</v>
       </c>
       <c r="V106" t="n">
         <v>11</v>
+      </c>
+      <c r="W106" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -10767,13 +11087,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U107" t="n">
         <v>1</v>
       </c>
       <c r="V107" t="n">
         <v>10</v>
+      </c>
+      <c r="W107" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -10863,13 +11186,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U108" t="n">
         <v>1</v>
       </c>
       <c r="V108" t="n">
         <v>3</v>
+      </c>
+      <c r="W108" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -10959,13 +11285,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U109" t="n">
         <v>1</v>
       </c>
       <c r="V109" t="n">
         <v>2</v>
+      </c>
+      <c r="W109" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="110">
@@ -11055,13 +11384,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U110" t="n">
         <v>1</v>
       </c>
       <c r="V110" t="n">
         <v>5</v>
+      </c>
+      <c r="W110" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="111">
@@ -11151,13 +11483,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U111" t="n">
         <v>1</v>
       </c>
       <c r="V111" t="n">
         <v>6</v>
+      </c>
+      <c r="W111" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -11247,13 +11582,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U112" t="n">
         <v>5</v>
       </c>
       <c r="V112" t="n">
         <v>3</v>
+      </c>
+      <c r="W112" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -11343,13 +11681,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U113" t="n">
         <v>1</v>
       </c>
       <c r="V113" t="n">
         <v>5</v>
+      </c>
+      <c r="W113" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="114">
@@ -11439,13 +11780,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U114" t="n">
         <v>1</v>
       </c>
       <c r="V114" t="n">
         <v>7</v>
+      </c>
+      <c r="W114" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -11535,11 +11879,14 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="n">
         <v>10</v>
+      </c>
+      <c r="W115" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="116">
@@ -11629,13 +11976,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U116" t="n">
         <v>1</v>
       </c>
       <c r="V116" t="n">
         <v>8</v>
+      </c>
+      <c r="W116" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -11725,13 +12075,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U117" t="n">
         <v>1</v>
       </c>
       <c r="V117" t="n">
         <v>6</v>
+      </c>
+      <c r="W117" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="118">
@@ -11825,13 +12178,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U118" t="n">
         <v>2</v>
       </c>
       <c r="V118" t="n">
         <v>4</v>
+      </c>
+      <c r="W118" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -11921,11 +12277,14 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="n">
         <v>11</v>
+      </c>
+      <c r="W119" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -12015,13 +12374,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U120" t="n">
         <v>1</v>
       </c>
       <c r="V120" t="n">
         <v>8</v>
+      </c>
+      <c r="W120" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -12111,11 +12473,14 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="n">
         <v>8</v>
+      </c>
+      <c r="W121" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -12209,13 +12574,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U122" t="n">
         <v>1</v>
       </c>
       <c r="V122" t="n">
         <v>4</v>
+      </c>
+      <c r="W122" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -12305,13 +12673,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U123" t="n">
         <v>1</v>
       </c>
       <c r="V123" t="n">
         <v>8</v>
+      </c>
+      <c r="W123" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="124">
@@ -12401,13 +12772,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U124" t="n">
         <v>1</v>
       </c>
       <c r="V124" t="n">
         <v>8</v>
+      </c>
+      <c r="W124" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="125">
@@ -12497,13 +12871,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U125" t="n">
         <v>1</v>
       </c>
       <c r="V125" t="n">
         <v>8</v>
+      </c>
+      <c r="W125" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="126">
@@ -12597,13 +12974,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U126" t="n">
         <v>1</v>
       </c>
       <c r="V126" t="n">
         <v>10</v>
+      </c>
+      <c r="W126" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="127">
@@ -12693,13 +13073,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U127" t="n">
         <v>1</v>
       </c>
       <c r="V127" t="n">
         <v>7</v>
+      </c>
+      <c r="W127" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="128">
@@ -12797,6 +13180,9 @@
       <c r="V128" t="n">
         <v>4</v>
       </c>
+      <c r="W128" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -12885,13 +13271,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U129" t="n">
         <v>4</v>
       </c>
       <c r="V129" t="n">
         <v>7</v>
+      </c>
+      <c r="W129" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="130">
@@ -12981,13 +13370,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U130" t="n">
         <v>1</v>
       </c>
       <c r="V130" t="n">
         <v>8</v>
+      </c>
+      <c r="W130" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="131">
@@ -13077,11 +13469,14 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="n">
         <v>4</v>
+      </c>
+      <c r="W131" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="132">
@@ -13175,13 +13570,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U132" t="n">
         <v>1</v>
       </c>
       <c r="V132" t="n">
         <v>2</v>
+      </c>
+      <c r="W132" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -13271,13 +13669,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U133" t="n">
         <v>1</v>
       </c>
       <c r="V133" t="n">
         <v>11</v>
+      </c>
+      <c r="W133" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="134">
@@ -13367,11 +13768,14 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="n">
         <v>6</v>
+      </c>
+      <c r="W134" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -13461,13 +13865,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U135" t="n">
         <v>3</v>
       </c>
       <c r="V135" t="n">
         <v>4</v>
+      </c>
+      <c r="W135" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="136">
@@ -13561,13 +13968,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U136" t="n">
         <v>2</v>
       </c>
       <c r="V136" t="n">
         <v>2</v>
+      </c>
+      <c r="W136" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -13657,13 +14067,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U137" t="n">
         <v>1</v>
       </c>
       <c r="V137" t="n">
         <v>7</v>
+      </c>
+      <c r="W137" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -13753,13 +14166,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U138" t="n">
         <v>1</v>
       </c>
       <c r="V138" t="n">
         <v>8</v>
+      </c>
+      <c r="W138" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="139">
@@ -13849,13 +14265,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U139" t="n">
         <v>1</v>
       </c>
       <c r="V139" t="n">
         <v>7</v>
+      </c>
+      <c r="W139" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -13949,13 +14368,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U140" t="n">
         <v>1</v>
       </c>
       <c r="V140" t="n">
         <v>10</v>
+      </c>
+      <c r="W140" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="141">
@@ -14045,13 +14467,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U141" t="n">
         <v>1</v>
       </c>
       <c r="V141" t="n">
         <v>13</v>
+      </c>
+      <c r="W141" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="142">
@@ -14153,6 +14578,9 @@
       <c r="V142" t="n">
         <v>2</v>
       </c>
+      <c r="W142" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -14241,13 +14669,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U143" t="n">
         <v>4</v>
       </c>
       <c r="V143" t="n">
         <v>6</v>
+      </c>
+      <c r="W143" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="144">
@@ -14337,13 +14768,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U144" t="n">
         <v>4</v>
       </c>
       <c r="V144" t="n">
         <v>5</v>
+      </c>
+      <c r="W144" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="145">
@@ -14433,13 +14867,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U145" t="n">
         <v>1</v>
       </c>
       <c r="V145" t="n">
         <v>4</v>
+      </c>
+      <c r="W145" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="146">
@@ -14529,11 +14966,14 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="n">
         <v>15</v>
+      </c>
+      <c r="W146" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="147">
@@ -14623,13 +15063,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U147" t="n">
         <v>1</v>
       </c>
       <c r="V147" t="n">
         <v>24</v>
+      </c>
+      <c r="W147" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="148">
@@ -14719,13 +15162,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U148" t="n">
         <v>1</v>
       </c>
       <c r="V148" t="n">
         <v>11</v>
+      </c>
+      <c r="W148" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="149">
@@ -14815,13 +15261,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U149" t="n">
         <v>3</v>
       </c>
       <c r="V149" t="n">
         <v>8</v>
+      </c>
+      <c r="W149" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="150">
@@ -14911,11 +15360,14 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="n">
         <v>10</v>
+      </c>
+      <c r="W150" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="151">
@@ -15005,13 +15457,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U151" t="n">
         <v>3</v>
       </c>
       <c r="V151" t="n">
         <v>6</v>
+      </c>
+      <c r="W151" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="152">
@@ -15101,13 +15556,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U152" t="n">
         <v>1</v>
       </c>
       <c r="V152" t="n">
         <v>8</v>
+      </c>
+      <c r="W152" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -15197,13 +15655,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U153" t="n">
         <v>1</v>
       </c>
       <c r="V153" t="n">
         <v>10</v>
+      </c>
+      <c r="W153" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="154">
@@ -15301,6 +15762,9 @@
       <c r="V154" t="n">
         <v>3</v>
       </c>
+      <c r="W154" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -15389,13 +15853,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U155" t="n">
         <v>2</v>
       </c>
       <c r="V155" t="n">
         <v>6</v>
+      </c>
+      <c r="W155" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="156">
@@ -15485,13 +15952,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U156" t="n">
         <v>1</v>
       </c>
       <c r="V156" t="n">
         <v>8</v>
+      </c>
+      <c r="W156" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="157">
@@ -15585,11 +16055,14 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="n">
         <v>6</v>
+      </c>
+      <c r="W157" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="158">
@@ -15679,11 +16152,14 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="n">
         <v>11</v>
+      </c>
+      <c r="W158" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="159">
@@ -15773,11 +16249,14 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="n">
         <v>8</v>
+      </c>
+      <c r="W159" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -15867,13 +16346,16 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U160" t="n">
         <v>1</v>
       </c>
       <c r="V160" t="n">
         <v>7</v>
+      </c>
+      <c r="W160" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="161">
@@ -15963,13 +16445,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U161" t="n">
         <v>1</v>
       </c>
       <c r="V161" t="n">
         <v>6</v>
+      </c>
+      <c r="W161" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="162">
@@ -16059,13 +16544,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U162" t="n">
         <v>1</v>
       </c>
       <c r="V162" t="n">
         <v>11</v>
+      </c>
+      <c r="W162" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="163">
@@ -16155,13 +16643,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U163" t="n">
         <v>2</v>
       </c>
       <c r="V163" t="n">
         <v>13</v>
+      </c>
+      <c r="W163" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="164">
@@ -16251,13 +16742,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U164" t="n">
         <v>2</v>
       </c>
       <c r="V164" t="n">
         <v>10</v>
+      </c>
+      <c r="W164" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -16347,13 +16841,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U165" t="n">
         <v>5</v>
       </c>
       <c r="V165" t="n">
         <v>11</v>
+      </c>
+      <c r="W165" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="166">
@@ -16443,13 +16940,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U166" t="n">
         <v>1</v>
       </c>
       <c r="V166" t="n">
         <v>8</v>
+      </c>
+      <c r="W166" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="167">
@@ -16539,13 +17039,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U167" t="n">
         <v>1</v>
       </c>
       <c r="V167" t="n">
         <v>6</v>
+      </c>
+      <c r="W167" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="168">
@@ -16635,11 +17138,14 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="n">
         <v>8</v>
+      </c>
+      <c r="W168" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="169">
@@ -16729,11 +17235,14 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="n">
         <v>4</v>
+      </c>
+      <c r="W169" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="170">
@@ -16827,6 +17336,9 @@
       <c r="V170" t="n">
         <v>9</v>
       </c>
+      <c r="W170" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -16915,13 +17427,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U171" t="n">
         <v>3</v>
       </c>
       <c r="V171" t="n">
         <v>7</v>
+      </c>
+      <c r="W171" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -17019,6 +17534,9 @@
       <c r="V172" t="n">
         <v>5</v>
       </c>
+      <c r="W172" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -17111,11 +17629,14 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="n">
         <v>10</v>
+      </c>
+      <c r="W173" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="174">
@@ -17205,13 +17726,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U174" t="n">
         <v>2</v>
       </c>
       <c r="V174" t="n">
         <v>5</v>
+      </c>
+      <c r="W174" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -17301,13 +17825,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U175" t="n">
         <v>1</v>
       </c>
       <c r="V175" t="n">
         <v>9</v>
+      </c>
+      <c r="W175" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="176">
@@ -17397,13 +17924,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U176" t="n">
         <v>3</v>
       </c>
       <c r="V176" t="n">
         <v>6</v>
+      </c>
+      <c r="W176" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="177">
@@ -17493,13 +18023,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U177" t="n">
         <v>2</v>
       </c>
       <c r="V177" t="n">
         <v>6</v>
+      </c>
+      <c r="W177" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="178">
@@ -17589,11 +18122,14 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="n">
         <v>7</v>
+      </c>
+      <c r="W178" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -17683,13 +18219,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U179" t="n">
         <v>1</v>
       </c>
       <c r="V179" t="n">
         <v>8</v>
+      </c>
+      <c r="W179" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="180">
@@ -17779,13 +18318,16 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U180" t="n">
         <v>1</v>
       </c>
       <c r="V180" t="n">
         <v>9</v>
+      </c>
+      <c r="W180" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="181">
@@ -17875,13 +18417,16 @@
         </is>
       </c>
       <c r="T181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U181" t="n">
         <v>1</v>
       </c>
       <c r="V181" t="n">
         <v>7</v>
+      </c>
+      <c r="W181" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -17971,13 +18516,16 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U182" t="n">
         <v>1</v>
       </c>
       <c r="V182" t="n">
         <v>5</v>
+      </c>
+      <c r="W182" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="183">
@@ -18075,6 +18623,9 @@
       <c r="V183" t="n">
         <v>2</v>
       </c>
+      <c r="W183" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -18163,11 +18714,14 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="n">
         <v>11</v>
+      </c>
+      <c r="W184" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="185">
@@ -18257,13 +18811,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U185" t="n">
         <v>1</v>
       </c>
       <c r="V185" t="n">
         <v>6</v>
+      </c>
+      <c r="W185" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="186">
@@ -18353,13 +18910,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U186" t="n">
         <v>3</v>
       </c>
       <c r="V186" t="n">
         <v>9</v>
+      </c>
+      <c r="W186" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="187">
@@ -18449,13 +19009,16 @@
         </is>
       </c>
       <c r="T187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U187" t="n">
         <v>2</v>
       </c>
       <c r="V187" t="n">
         <v>12</v>
+      </c>
+      <c r="W187" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="188">
@@ -18545,13 +19108,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U188" t="n">
         <v>2</v>
       </c>
       <c r="V188" t="n">
         <v>7</v>
+      </c>
+      <c r="W188" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="189">
@@ -18641,11 +19207,14 @@
         </is>
       </c>
       <c r="T189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="n">
         <v>8</v>
+      </c>
+      <c r="W189" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="190">
@@ -18735,13 +19304,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U190" t="n">
         <v>1</v>
       </c>
       <c r="V190" t="n">
         <v>7</v>
+      </c>
+      <c r="W190" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="191">
@@ -18831,13 +19403,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U191" t="n">
         <v>1</v>
       </c>
       <c r="V191" t="n">
         <v>8</v>
+      </c>
+      <c r="W191" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="192">
@@ -18927,13 +19502,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U192" t="n">
         <v>1</v>
       </c>
       <c r="V192" t="n">
         <v>7</v>
+      </c>
+      <c r="W192" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -19023,11 +19601,14 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="n">
         <v>8</v>
+      </c>
+      <c r="W193" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="194">
@@ -19117,13 +19698,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U194" t="n">
         <v>1</v>
       </c>
       <c r="V194" t="n">
         <v>9</v>
+      </c>
+      <c r="W194" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="195">
@@ -19213,13 +19797,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U195" t="n">
         <v>11</v>
       </c>
       <c r="V195" t="n">
         <v>5</v>
+      </c>
+      <c r="W195" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="196">
@@ -19309,13 +19896,16 @@
         </is>
       </c>
       <c r="T196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U196" t="n">
         <v>3</v>
       </c>
       <c r="V196" t="n">
         <v>5</v>
+      </c>
+      <c r="W196" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="197">
@@ -19405,13 +19995,16 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U197" t="n">
         <v>1</v>
       </c>
       <c r="V197" t="n">
         <v>4</v>
+      </c>
+      <c r="W197" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -19509,6 +20102,9 @@
       <c r="V198" t="n">
         <v>7</v>
       </c>
+      <c r="W198" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -19597,13 +20193,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U199" t="n">
         <v>1</v>
       </c>
       <c r="V199" t="n">
         <v>6</v>
+      </c>
+      <c r="W199" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="200">
@@ -19693,11 +20292,14 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="n">
         <v>8</v>
+      </c>
+      <c r="W200" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="201">
@@ -19787,13 +20389,16 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U201" t="n">
         <v>10</v>
       </c>
       <c r="V201" t="n">
         <v>4</v>
+      </c>
+      <c r="W201" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="202">
@@ -19883,13 +20488,16 @@
         </is>
       </c>
       <c r="T202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U202" t="n">
         <v>6</v>
       </c>
       <c r="V202" t="n">
         <v>6</v>
+      </c>
+      <c r="W202" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="203">
@@ -19991,6 +20599,9 @@
       <c r="V203" t="n">
         <v>4</v>
       </c>
+      <c r="W203" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -20079,13 +20690,16 @@
         </is>
       </c>
       <c r="T204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U204" t="n">
         <v>3</v>
       </c>
       <c r="V204" t="n">
         <v>8</v>
+      </c>
+      <c r="W204" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="205">
@@ -20175,13 +20789,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U205" t="n">
         <v>1</v>
       </c>
       <c r="V205" t="n">
         <v>5</v>
+      </c>
+      <c r="W205" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="206">
@@ -20271,13 +20888,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U206" t="n">
         <v>1</v>
       </c>
       <c r="V206" t="n">
         <v>4</v>
+      </c>
+      <c r="W206" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="207">
@@ -20375,6 +20995,9 @@
       <c r="V207" t="n">
         <v>8</v>
       </c>
+      <c r="W207" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -20463,13 +21086,16 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U208" t="n">
         <v>1</v>
       </c>
       <c r="V208" t="n">
         <v>4</v>
+      </c>
+      <c r="W208" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="209">
@@ -20567,6 +21193,9 @@
       <c r="V209" t="n">
         <v>11</v>
       </c>
+      <c r="W209" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -20655,13 +21284,16 @@
         </is>
       </c>
       <c r="T210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U210" t="n">
         <v>1</v>
       </c>
       <c r="V210" t="n">
         <v>5</v>
+      </c>
+      <c r="W210" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="211">
@@ -20751,11 +21383,14 @@
         </is>
       </c>
       <c r="T211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="n">
         <v>8</v>
+      </c>
+      <c r="W211" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="212">
@@ -20845,11 +21480,14 @@
         </is>
       </c>
       <c r="T212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="n">
         <v>8</v>
+      </c>
+      <c r="W212" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="213">
@@ -20939,13 +21577,16 @@
         </is>
       </c>
       <c r="T213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U213" t="n">
         <v>1</v>
       </c>
       <c r="V213" t="n">
         <v>8</v>
+      </c>
+      <c r="W213" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="214">
@@ -21035,13 +21676,16 @@
         </is>
       </c>
       <c r="T214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U214" t="n">
         <v>3</v>
       </c>
       <c r="V214" t="n">
         <v>12</v>
+      </c>
+      <c r="W214" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="215">
@@ -21139,6 +21783,9 @@
       <c r="V215" t="n">
         <v>5</v>
       </c>
+      <c r="W215" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -21231,13 +21878,16 @@
         </is>
       </c>
       <c r="T216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U216" t="n">
         <v>1</v>
       </c>
       <c r="V216" t="n">
         <v>10</v>
+      </c>
+      <c r="W216" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="217">
@@ -21331,13 +21981,16 @@
         </is>
       </c>
       <c r="T217" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U217" t="n">
         <v>1</v>
       </c>
       <c r="V217" t="n">
         <v>2</v>
+      </c>
+      <c r="W217" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="218">
@@ -21431,13 +22084,16 @@
         </is>
       </c>
       <c r="T218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U218" t="n">
         <v>1</v>
       </c>
       <c r="V218" t="n">
         <v>2</v>
+      </c>
+      <c r="W218" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -21775,7 +21775,7 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U215" t="n">
         <v>7</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="W215" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U53" t="n">
         <v>6</v>
@@ -5708,7 +5708,7 @@
         <v>10</v>
       </c>
       <c r="W53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U85" t="n">
         <v>2</v>
@@ -8896,7 +8896,7 @@
         <v>4</v>
       </c>
       <c r="W85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -10285,7 +10285,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U99" t="n">
         <v>2</v>
@@ -10294,7 +10294,7 @@
         <v>4</v>
       </c>
       <c r="W99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -14067,7 +14067,7 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U137" t="n">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>7</v>
       </c>
       <c r="W137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
@@ -18516,7 +18516,7 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U182" t="n">
         <v>1</v>
@@ -18525,7 +18525,7 @@
         <v>5</v>
       </c>
       <c r="W182" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U192" t="n">
         <v>1</v>
@@ -19511,7 +19511,7 @@
         <v>7</v>
       </c>
       <c r="W192" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193">
@@ -21185,7 +21185,7 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U209" t="n">
         <v>1</v>
@@ -21194,7 +21194,7 @@
         <v>11</v>
       </c>
       <c r="W209" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210">

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -21185,7 +21185,7 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U209" t="n">
         <v>1</v>
@@ -21194,7 +21194,7 @@
         <v>11</v>
       </c>
       <c r="W209" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210">
@@ -21775,7 +21775,7 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U215" t="n">
         <v>7</v>
@@ -21784,7 +21784,7 @@
         <v>5</v>
       </c>
       <c r="W215" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -632,14 +632,14 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
@@ -845,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>8</v>
@@ -1043,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="W6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>6</v>
@@ -1142,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="W7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1331,13 +1331,13 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>7</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W9" t="n">
         <v>14</v>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
@@ -1439,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1529,11 +1529,11 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W11" t="n">
         <v>13</v>
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -1635,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="W12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>7</v>
@@ -1833,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="W14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1923,13 +1923,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W15" t="n">
         <v>14</v>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>1</v>
@@ -2031,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2220,14 +2220,14 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="n">
         <v>8</v>
       </c>
       <c r="W18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W19" t="n">
         <v>8</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
@@ -2429,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
@@ -2528,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2618,14 +2618,14 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="n">
         <v>6</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>1</v>
@@ -2724,7 +2724,7 @@
         <v>11</v>
       </c>
       <c r="W23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
         <v>2</v>
@@ -2827,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>1</v>
@@ -2926,7 +2926,7 @@
         <v>5</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
         <v>5</v>
@@ -3025,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="W26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
@@ -3128,7 +3128,7 @@
         <v>4</v>
       </c>
       <c r="W27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -3313,13 +3313,13 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
         <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W29" t="n">
         <v>11</v>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U30" t="n">
         <v>8</v>
@@ -3421,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="W30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -3511,14 +3511,14 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="n">
         <v>7</v>
       </c>
       <c r="W31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
         <v>8</v>
@@ -3621,7 +3621,7 @@
         <v>12</v>
       </c>
       <c r="W32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -3711,13 +3711,13 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
         <v>7</v>
       </c>
       <c r="V33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W33" t="n">
         <v>21</v>
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
@@ -3823,7 +3823,7 @@
         <v>4</v>
       </c>
       <c r="W34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -3913,14 +3913,14 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
         <v>8</v>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -4010,13 +4010,13 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U36" t="n">
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W36" t="n">
         <v>13</v>
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
         <v>3</v>
@@ -4118,7 +4118,7 @@
         <v>5</v>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
         <v>3</v>
@@ -4217,7 +4217,7 @@
         <v>7</v>
       </c>
       <c r="W38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W39" t="n">
         <v>14</v>
@@ -4406,13 +4406,13 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
         <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W40" t="n">
         <v>14</v>
@@ -4505,7 +4505,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
         <v>1</v>
@@ -4514,7 +4514,7 @@
         <v>10</v>
       </c>
       <c r="W41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -4604,13 +4604,13 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W42" t="n">
         <v>11</v>
@@ -4703,13 +4703,13 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U43" t="n">
         <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W43" t="n">
         <v>9</v>
@@ -4802,11 +4802,11 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W44" t="n">
         <v>8</v>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U45" t="n">
         <v>3</v>
@@ -4908,7 +4908,7 @@
         <v>9</v>
       </c>
       <c r="W45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U46" t="n">
         <v>1</v>
@@ -5011,7 +5011,7 @@
         <v>3</v>
       </c>
       <c r="W46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U47" t="n">
         <v>1</v>
@@ -5110,7 +5110,7 @@
         <v>11</v>
       </c>
       <c r="W47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -5200,13 +5200,13 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U48" t="n">
         <v>9</v>
       </c>
       <c r="V48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W48" t="n">
         <v>15</v>
@@ -5299,13 +5299,13 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
         <v>3</v>
       </c>
       <c r="V49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W49" t="n">
         <v>13</v>
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
         <v>1</v>
@@ -5407,7 +5407,7 @@
         <v>10</v>
       </c>
       <c r="W50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -5497,13 +5497,13 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
         <v>3</v>
       </c>
       <c r="V51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W51" t="n">
         <v>9</v>
@@ -5600,7 +5600,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
         <v>2</v>
@@ -5609,7 +5609,7 @@
         <v>3</v>
       </c>
       <c r="W52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
         <v>6</v>
@@ -5708,7 +5708,7 @@
         <v>10</v>
       </c>
       <c r="W53" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
         <v>1</v>
@@ -5807,7 +5807,7 @@
         <v>8</v>
       </c>
       <c r="W54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -5897,11 +5897,11 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W55" t="n">
         <v>8</v>
@@ -5994,13 +5994,13 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
         <v>3</v>
       </c>
       <c r="V56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W56" t="n">
         <v>12</v>
@@ -6093,13 +6093,13 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
         <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W57" t="n">
         <v>11</v>
@@ -6198,10 +6198,10 @@
         <v>5</v>
       </c>
       <c r="V58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -6291,11 +6291,11 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W59" t="n">
         <v>7</v>
@@ -6392,13 +6392,13 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U60" t="n">
         <v>1</v>
       </c>
       <c r="V60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W60" t="n">
         <v>6</v>
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U61" t="n">
         <v>2</v>
@@ -6504,7 +6504,7 @@
         <v>5</v>
       </c>
       <c r="W61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U62" t="n">
         <v>1</v>
@@ -6603,7 +6603,7 @@
         <v>7</v>
       </c>
       <c r="W62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -6693,13 +6693,13 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
         <v>1</v>
       </c>
       <c r="V63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W63" t="n">
         <v>7</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U64" t="n">
         <v>3</v>
       </c>
       <c r="V64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W64" t="n">
         <v>11</v>
@@ -6895,7 +6895,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U65" t="n">
         <v>2</v>
@@ -6904,7 +6904,7 @@
         <v>4</v>
       </c>
       <c r="W65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -6994,13 +6994,13 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U66" t="n">
         <v>3</v>
       </c>
       <c r="V66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W66" t="n">
         <v>12</v>
@@ -7093,14 +7093,14 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="n">
         <v>8</v>
       </c>
       <c r="W67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -7190,7 +7190,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>10</v>
       </c>
       <c r="W68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -7289,7 +7289,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U69" t="n">
         <v>2</v>
@@ -7298,7 +7298,7 @@
         <v>17</v>
       </c>
       <c r="W69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
         <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W70" t="n">
         <v>11</v>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
         <v>2</v>
@@ -7504,7 +7504,7 @@
         <v>4</v>
       </c>
       <c r="W71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -7594,13 +7594,13 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
         <v>1</v>
       </c>
       <c r="V72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W72" t="n">
         <v>14</v>
@@ -7693,13 +7693,13 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
         <v>1</v>
       </c>
       <c r="V73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W73" t="n">
         <v>8</v>
@@ -7792,13 +7792,13 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
         <v>1</v>
       </c>
       <c r="V74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W74" t="n">
         <v>11</v>
@@ -7891,11 +7891,11 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W75" t="n">
         <v>10</v>
@@ -7992,11 +7992,11 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W76" t="n">
         <v>11</v>
@@ -8089,13 +8089,13 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U77" t="n">
         <v>1</v>
       </c>
       <c r="V77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W77" t="n">
         <v>9</v>
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U78" t="n">
         <v>1</v>
@@ -8201,7 +8201,7 @@
         <v>3</v>
       </c>
       <c r="W78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -8291,13 +8291,13 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U79" t="n">
         <v>1</v>
       </c>
       <c r="V79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W79" t="n">
         <v>8</v>
@@ -8390,13 +8390,13 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U80" t="n">
         <v>1</v>
       </c>
       <c r="V80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W80" t="n">
         <v>11</v>
@@ -8489,13 +8489,13 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U81" t="n">
         <v>1</v>
       </c>
       <c r="V81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W81" t="n">
         <v>7</v>
@@ -8592,13 +8592,13 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U82" t="n">
         <v>1</v>
       </c>
       <c r="V82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W82" t="n">
         <v>13</v>
@@ -8691,14 +8691,14 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="n">
         <v>15</v>
       </c>
       <c r="W83" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -8788,13 +8788,13 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U84" t="n">
         <v>1</v>
       </c>
       <c r="V84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W84" t="n">
         <v>9</v>
@@ -8986,7 +8986,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U86" t="n">
         <v>1</v>
@@ -8995,7 +8995,7 @@
         <v>8</v>
       </c>
       <c r="W86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -9085,13 +9085,13 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U87" t="n">
         <v>1</v>
       </c>
       <c r="V87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W87" t="n">
         <v>7</v>
@@ -9188,11 +9188,11 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W88" t="n">
         <v>10</v>
@@ -9289,7 +9289,7 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U89" t="n">
         <v>2</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="W89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -9388,11 +9388,11 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W90" t="n">
         <v>8</v>
@@ -9485,7 +9485,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U91" t="n">
         <v>1</v>
@@ -9494,7 +9494,7 @@
         <v>7</v>
       </c>
       <c r="W91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -9588,13 +9588,13 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U92" t="n">
         <v>1</v>
       </c>
       <c r="V92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W92" t="n">
         <v>14</v>
@@ -9687,13 +9687,13 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U93" t="n">
         <v>7</v>
       </c>
       <c r="V93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W93" t="n">
         <v>15</v>
@@ -9786,7 +9786,7 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U94" t="n">
         <v>1</v>
@@ -9795,7 +9795,7 @@
         <v>9</v>
       </c>
       <c r="W94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -9885,13 +9885,13 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U95" t="n">
         <v>1</v>
       </c>
       <c r="V95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W95" t="n">
         <v>7</v>
@@ -9984,7 +9984,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U96" t="n">
         <v>1</v>
@@ -9993,7 +9993,7 @@
         <v>8</v>
       </c>
       <c r="W96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -10083,13 +10083,13 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U97" t="n">
         <v>1</v>
       </c>
       <c r="V97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W97" t="n">
         <v>10</v>
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U98" t="n">
         <v>1</v>
@@ -10191,7 +10191,7 @@
         <v>8</v>
       </c>
       <c r="W98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -10388,7 +10388,7 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U100" t="n">
         <v>2</v>
@@ -10397,7 +10397,7 @@
         <v>2</v>
       </c>
       <c r="W100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U101" t="n">
         <v>1</v>
@@ -10496,7 +10496,7 @@
         <v>10</v>
       </c>
       <c r="W101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -10590,7 +10590,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U102" t="n">
         <v>1</v>
@@ -10599,7 +10599,7 @@
         <v>2</v>
       </c>
       <c r="W102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -10693,14 +10693,14 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="n">
         <v>10</v>
       </c>
       <c r="W103" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
@@ -10790,13 +10790,13 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U104" t="n">
         <v>1</v>
       </c>
       <c r="V104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W104" t="n">
         <v>11</v>
@@ -10889,13 +10889,13 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U105" t="n">
         <v>5</v>
       </c>
       <c r="V105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W105" t="n">
         <v>17</v>
@@ -10988,7 +10988,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U106" t="n">
         <v>1</v>
@@ -10997,7 +10997,7 @@
         <v>11</v>
       </c>
       <c r="W106" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -11087,13 +11087,13 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U107" t="n">
         <v>1</v>
       </c>
       <c r="V107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W107" t="n">
         <v>13</v>
@@ -11186,13 +11186,13 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U108" t="n">
         <v>1</v>
       </c>
       <c r="V108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W108" t="n">
         <v>6</v>
@@ -11285,13 +11285,13 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U109" t="n">
         <v>1</v>
       </c>
       <c r="V109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W109" t="n">
         <v>7</v>
@@ -11384,13 +11384,13 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U110" t="n">
         <v>1</v>
       </c>
       <c r="V110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W110" t="n">
         <v>8</v>
@@ -11483,13 +11483,13 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U111" t="n">
         <v>1</v>
       </c>
       <c r="V111" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W111" t="n">
         <v>12</v>
@@ -11582,13 +11582,13 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U112" t="n">
         <v>5</v>
       </c>
       <c r="V112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W112" t="n">
         <v>10</v>
@@ -11681,13 +11681,13 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U113" t="n">
         <v>1</v>
       </c>
       <c r="V113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W113" t="n">
         <v>8</v>
@@ -11780,7 +11780,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U114" t="n">
         <v>1</v>
@@ -11789,7 +11789,7 @@
         <v>7</v>
       </c>
       <c r="W114" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
@@ -11879,14 +11879,14 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="n">
         <v>10</v>
       </c>
       <c r="W115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
@@ -11976,13 +11976,13 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U116" t="n">
         <v>1</v>
       </c>
       <c r="V116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W116" t="n">
         <v>11</v>
@@ -12075,13 +12075,13 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U117" t="n">
         <v>1</v>
       </c>
       <c r="V117" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W117" t="n">
         <v>9</v>
@@ -12178,7 +12178,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U118" t="n">
         <v>2</v>
@@ -12187,7 +12187,7 @@
         <v>4</v>
       </c>
       <c r="W118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
@@ -12277,14 +12277,14 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="n">
         <v>11</v>
       </c>
       <c r="W119" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -12374,7 +12374,7 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U120" t="n">
         <v>1</v>
@@ -12383,7 +12383,7 @@
         <v>8</v>
       </c>
       <c r="W120" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -12473,14 +12473,14 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="n">
         <v>8</v>
       </c>
       <c r="W121" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -12574,7 +12574,7 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U122" t="n">
         <v>1</v>
@@ -12583,7 +12583,7 @@
         <v>4</v>
       </c>
       <c r="W122" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -12673,13 +12673,13 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U123" t="n">
         <v>1</v>
       </c>
       <c r="V123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W123" t="n">
         <v>11</v>
@@ -12772,13 +12772,13 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U124" t="n">
         <v>1</v>
       </c>
       <c r="V124" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W124" t="n">
         <v>11</v>
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U125" t="n">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>8</v>
       </c>
       <c r="W125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -12974,13 +12974,13 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U126" t="n">
         <v>1</v>
       </c>
       <c r="V126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W126" t="n">
         <v>13</v>
@@ -13073,7 +13073,7 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U127" t="n">
         <v>1</v>
@@ -13082,7 +13082,7 @@
         <v>7</v>
       </c>
       <c r="W127" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
@@ -13178,10 +13178,10 @@
         <v>3</v>
       </c>
       <c r="V128" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
@@ -13271,13 +13271,13 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U129" t="n">
         <v>4</v>
       </c>
       <c r="V129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W129" t="n">
         <v>14</v>
@@ -13370,13 +13370,13 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U130" t="n">
         <v>1</v>
       </c>
       <c r="V130" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W130" t="n">
         <v>11</v>
@@ -13469,11 +13469,11 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W131" t="n">
         <v>6</v>
@@ -13570,7 +13570,7 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U132" t="n">
         <v>1</v>
@@ -13579,7 +13579,7 @@
         <v>2</v>
       </c>
       <c r="W132" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -13669,7 +13669,7 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U133" t="n">
         <v>1</v>
@@ -13678,7 +13678,7 @@
         <v>11</v>
       </c>
       <c r="W133" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134">
@@ -13768,11 +13768,11 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W134" t="n">
         <v>8</v>
@@ -13865,16 +13865,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U135" t="n">
         <v>3</v>
       </c>
       <c r="V135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W135" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -13968,7 +13968,7 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U136" t="n">
         <v>2</v>
@@ -13977,7 +13977,7 @@
         <v>2</v>
       </c>
       <c r="W136" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137">
@@ -14067,7 +14067,7 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U137" t="n">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>7</v>
       </c>
       <c r="W137" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
@@ -14166,7 +14166,7 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U138" t="n">
         <v>1</v>
@@ -14175,7 +14175,7 @@
         <v>8</v>
       </c>
       <c r="W138" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
@@ -14265,13 +14265,13 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U139" t="n">
         <v>1</v>
       </c>
       <c r="V139" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W139" t="n">
         <v>10</v>
@@ -14368,13 +14368,13 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U140" t="n">
         <v>1</v>
       </c>
       <c r="V140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W140" t="n">
         <v>14</v>
@@ -14467,7 +14467,7 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U141" t="n">
         <v>1</v>
@@ -14476,7 +14476,7 @@
         <v>13</v>
       </c>
       <c r="W141" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
@@ -14576,10 +14576,10 @@
         <v>3</v>
       </c>
       <c r="V142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W142" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -14669,7 +14669,7 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U143" t="n">
         <v>4</v>
@@ -14678,7 +14678,7 @@
         <v>6</v>
       </c>
       <c r="W143" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -14768,7 +14768,7 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U144" t="n">
         <v>4</v>
@@ -14777,7 +14777,7 @@
         <v>5</v>
       </c>
       <c r="W144" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -14867,13 +14867,13 @@
         </is>
       </c>
       <c r="T145" t="n">
+        <v>4</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1</v>
+      </c>
+      <c r="V145" t="n">
         <v>5</v>
-      </c>
-      <c r="U145" t="n">
-        <v>1</v>
-      </c>
-      <c r="V145" t="n">
-        <v>4</v>
       </c>
       <c r="W145" t="n">
         <v>10</v>
@@ -14966,14 +14966,14 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="n">
         <v>15</v>
       </c>
       <c r="W146" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
@@ -15063,7 +15063,7 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U147" t="n">
         <v>1</v>
@@ -15072,7 +15072,7 @@
         <v>24</v>
       </c>
       <c r="W147" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148">
@@ -15162,7 +15162,7 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U148" t="n">
         <v>1</v>
@@ -15171,7 +15171,7 @@
         <v>11</v>
       </c>
       <c r="W148" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
@@ -15261,13 +15261,13 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U149" t="n">
         <v>3</v>
       </c>
       <c r="V149" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W149" t="n">
         <v>13</v>
@@ -15360,14 +15360,14 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="n">
         <v>10</v>
       </c>
       <c r="W150" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
@@ -15457,13 +15457,13 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U151" t="n">
         <v>3</v>
       </c>
       <c r="V151" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W151" t="n">
         <v>11</v>
@@ -15556,13 +15556,13 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U152" t="n">
         <v>1</v>
       </c>
       <c r="V152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W152" t="n">
         <v>11</v>
@@ -15655,7 +15655,7 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U153" t="n">
         <v>1</v>
@@ -15664,7 +15664,7 @@
         <v>10</v>
       </c>
       <c r="W153" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154">
@@ -15760,10 +15760,10 @@
         <v>2</v>
       </c>
       <c r="V154" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W154" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155">
@@ -15853,13 +15853,13 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U155" t="n">
         <v>2</v>
       </c>
       <c r="V155" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W155" t="n">
         <v>10</v>
@@ -15952,7 +15952,7 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U156" t="n">
         <v>1</v>
@@ -15961,7 +15961,7 @@
         <v>8</v>
       </c>
       <c r="W156" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
@@ -16055,11 +16055,11 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W157" t="n">
         <v>9</v>
@@ -16152,14 +16152,14 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="n">
         <v>11</v>
       </c>
       <c r="W158" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159">
@@ -16249,14 +16249,14 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="n">
         <v>8</v>
       </c>
       <c r="W159" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U160" t="n">
         <v>1</v>
@@ -16355,7 +16355,7 @@
         <v>7</v>
       </c>
       <c r="W160" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
@@ -16445,13 +16445,13 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U161" t="n">
         <v>1</v>
       </c>
       <c r="V161" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W161" t="n">
         <v>9</v>
@@ -16544,7 +16544,7 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U162" t="n">
         <v>1</v>
@@ -16553,7 +16553,7 @@
         <v>11</v>
       </c>
       <c r="W162" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U163" t="n">
         <v>2</v>
@@ -16652,7 +16652,7 @@
         <v>13</v>
       </c>
       <c r="W163" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164">
@@ -16742,7 +16742,7 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U164" t="n">
         <v>2</v>
@@ -16751,7 +16751,7 @@
         <v>10</v>
       </c>
       <c r="W164" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
@@ -16841,13 +16841,13 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U165" t="n">
         <v>5</v>
       </c>
       <c r="V165" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W165" t="n">
         <v>18</v>
@@ -16940,13 +16940,13 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U166" t="n">
         <v>1</v>
       </c>
       <c r="V166" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W166" t="n">
         <v>11</v>
@@ -17039,13 +17039,13 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U167" t="n">
         <v>1</v>
       </c>
       <c r="V167" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W167" t="n">
         <v>9</v>
@@ -17138,11 +17138,11 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W168" t="n">
         <v>10</v>
@@ -17235,11 +17235,11 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W169" t="n">
         <v>6</v>
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U171" t="n">
         <v>3</v>
@@ -17436,7 +17436,7 @@
         <v>7</v>
       </c>
       <c r="W171" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172">
@@ -17532,10 +17532,10 @@
         <v>1</v>
       </c>
       <c r="V172" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W172" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173">
@@ -17629,11 +17629,11 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W173" t="n">
         <v>13</v>
@@ -17726,13 +17726,13 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U174" t="n">
         <v>2</v>
       </c>
       <c r="V174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W174" t="n">
         <v>10</v>
@@ -17825,7 +17825,7 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U175" t="n">
         <v>1</v>
@@ -17834,7 +17834,7 @@
         <v>9</v>
       </c>
       <c r="W175" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176">
@@ -17924,13 +17924,13 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U176" t="n">
         <v>3</v>
       </c>
       <c r="V176" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W176" t="n">
         <v>11</v>
@@ -18023,13 +18023,13 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U177" t="n">
         <v>2</v>
       </c>
       <c r="V177" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W177" t="n">
         <v>10</v>
@@ -18122,11 +18122,11 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W178" t="n">
         <v>10</v>
@@ -18219,13 +18219,13 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U179" t="n">
         <v>1</v>
       </c>
       <c r="V179" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W179" t="n">
         <v>11</v>
@@ -18318,7 +18318,7 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U180" t="n">
         <v>1</v>
@@ -18327,7 +18327,7 @@
         <v>9</v>
       </c>
       <c r="W180" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181">
@@ -18417,7 +18417,7 @@
         </is>
       </c>
       <c r="T181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U181" t="n">
         <v>1</v>
@@ -18426,7 +18426,7 @@
         <v>7</v>
       </c>
       <c r="W181" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
@@ -18516,7 +18516,7 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U182" t="n">
         <v>1</v>
@@ -18525,7 +18525,7 @@
         <v>5</v>
       </c>
       <c r="W182" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
@@ -18621,10 +18621,10 @@
         <v>4</v>
       </c>
       <c r="V183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W183" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
@@ -18714,14 +18714,14 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="n">
         <v>11</v>
       </c>
       <c r="W184" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185">
@@ -18811,13 +18811,13 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U185" t="n">
         <v>1</v>
       </c>
       <c r="V185" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W185" t="n">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U186" t="n">
         <v>3</v>
@@ -18919,7 +18919,7 @@
         <v>9</v>
       </c>
       <c r="W186" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
@@ -19009,7 +19009,7 @@
         </is>
       </c>
       <c r="T187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U187" t="n">
         <v>2</v>
@@ -19018,7 +19018,7 @@
         <v>12</v>
       </c>
       <c r="W187" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188">
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U188" t="n">
         <v>2</v>
@@ -19117,7 +19117,7 @@
         <v>7</v>
       </c>
       <c r="W188" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
@@ -19207,14 +19207,14 @@
         </is>
       </c>
       <c r="T189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="n">
         <v>8</v>
       </c>
       <c r="W189" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
@@ -19304,13 +19304,13 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U190" t="n">
         <v>1</v>
       </c>
       <c r="V190" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W190" t="n">
         <v>10</v>
@@ -19403,13 +19403,13 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U191" t="n">
         <v>1</v>
       </c>
       <c r="V191" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W191" t="n">
         <v>11</v>
@@ -19502,16 +19502,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U192" t="n">
         <v>1</v>
       </c>
       <c r="V192" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W192" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -19601,14 +19601,14 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="n">
         <v>8</v>
       </c>
       <c r="W193" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194">
@@ -19698,13 +19698,13 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U194" t="n">
         <v>1</v>
       </c>
       <c r="V194" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W194" t="n">
         <v>12</v>
@@ -19797,13 +19797,13 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U195" t="n">
         <v>11</v>
       </c>
       <c r="V195" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W195" t="n">
         <v>19</v>
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="T196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U196" t="n">
         <v>3</v>
@@ -19905,7 +19905,7 @@
         <v>5</v>
       </c>
       <c r="W196" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197">
@@ -19995,13 +19995,13 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U197" t="n">
         <v>1</v>
       </c>
       <c r="V197" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W197" t="n">
         <v>7</v>
@@ -20094,13 +20094,13 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U198" t="n">
         <v>3</v>
       </c>
       <c r="V198" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W198" t="n">
         <v>12</v>
@@ -20193,13 +20193,13 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U199" t="n">
         <v>1</v>
       </c>
       <c r="V199" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W199" t="n">
         <v>9</v>
@@ -20292,11 +20292,11 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W200" t="n">
         <v>10</v>
@@ -20389,13 +20389,13 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U201" t="n">
         <v>10</v>
       </c>
       <c r="V201" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W201" t="n">
         <v>17</v>
@@ -20488,7 +20488,7 @@
         </is>
       </c>
       <c r="T202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U202" t="n">
         <v>6</v>
@@ -20497,7 +20497,7 @@
         <v>6</v>
       </c>
       <c r="W202" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -20591,7 +20591,7 @@
         </is>
       </c>
       <c r="T203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U203" t="n">
         <v>1</v>
@@ -20600,7 +20600,7 @@
         <v>4</v>
       </c>
       <c r="W203" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204">
@@ -20690,13 +20690,13 @@
         </is>
       </c>
       <c r="T204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U204" t="n">
         <v>3</v>
       </c>
       <c r="V204" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W204" t="n">
         <v>13</v>
@@ -20789,13 +20789,13 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U205" t="n">
         <v>1</v>
       </c>
       <c r="V205" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W205" t="n">
         <v>8</v>
@@ -20888,13 +20888,13 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U206" t="n">
         <v>1</v>
       </c>
       <c r="V206" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W206" t="n">
         <v>7</v>
@@ -21086,7 +21086,7 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U208" t="n">
         <v>1</v>
@@ -21095,7 +21095,7 @@
         <v>4</v>
       </c>
       <c r="W208" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209">
@@ -21185,13 +21185,13 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U209" t="n">
         <v>1</v>
       </c>
       <c r="V209" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W209" t="n">
         <v>14</v>
@@ -21284,13 +21284,13 @@
         </is>
       </c>
       <c r="T210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U210" t="n">
         <v>1</v>
       </c>
       <c r="V210" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W210" t="n">
         <v>8</v>
@@ -21383,14 +21383,14 @@
         </is>
       </c>
       <c r="T211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="n">
         <v>8</v>
       </c>
       <c r="W211" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212">
@@ -21480,14 +21480,14 @@
         </is>
       </c>
       <c r="T212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="n">
         <v>8</v>
       </c>
       <c r="W212" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
@@ -21577,13 +21577,13 @@
         </is>
       </c>
       <c r="T213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U213" t="n">
         <v>1</v>
       </c>
       <c r="V213" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W213" t="n">
         <v>11</v>
@@ -21676,7 +21676,7 @@
         </is>
       </c>
       <c r="T214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U214" t="n">
         <v>3</v>
@@ -21685,7 +21685,7 @@
         <v>12</v>
       </c>
       <c r="W214" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215">
@@ -21775,13 +21775,13 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U215" t="n">
         <v>7</v>
       </c>
       <c r="V215" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W215" t="n">
         <v>14</v>
@@ -21878,13 +21878,13 @@
         </is>
       </c>
       <c r="T216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U216" t="n">
         <v>1</v>
       </c>
       <c r="V216" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W216" t="n">
         <v>14</v>
@@ -21981,7 +21981,7 @@
         </is>
       </c>
       <c r="T217" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U217" t="n">
         <v>1</v>
@@ -21990,7 +21990,7 @@
         <v>2</v>
       </c>
       <c r="W217" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218">
@@ -22084,7 +22084,7 @@
         </is>
       </c>
       <c r="T218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U218" t="n">
         <v>1</v>
@@ -22093,7 +22093,7 @@
         <v>2</v>
       </c>
       <c r="W218" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U53" t="n">
         <v>6</v>
@@ -5708,7 +5708,7 @@
         <v>10</v>
       </c>
       <c r="W53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -10285,7 +10285,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U99" t="n">
         <v>2</v>
@@ -10294,7 +10294,7 @@
         <v>4</v>
       </c>
       <c r="W99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
@@ -14067,7 +14067,7 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U137" t="n">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>7</v>
       </c>
       <c r="W137" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -18516,7 +18516,7 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U182" t="n">
         <v>1</v>
@@ -18525,7 +18525,7 @@
         <v>5</v>
       </c>
       <c r="W182" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183">

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
         <v>6</v>
@@ -5708,7 +5708,7 @@
         <v>10</v>
       </c>
       <c r="W53" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -10285,7 +10285,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U99" t="n">
         <v>2</v>
@@ -10294,7 +10294,7 @@
         <v>4</v>
       </c>
       <c r="W99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -14067,7 +14067,7 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U137" t="n">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>7</v>
       </c>
       <c r="W137" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
@@ -18516,7 +18516,7 @@
         </is>
       </c>
       <c r="T182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U182" t="n">
         <v>1</v>
@@ -18525,7 +18525,7 @@
         <v>5</v>
       </c>
       <c r="W182" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
@@ -21185,7 +21185,7 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U209" t="n">
         <v>1</v>
@@ -21194,7 +21194,7 @@
         <v>12</v>
       </c>
       <c r="W209" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210">
@@ -21775,7 +21775,7 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U215" t="n">
         <v>7</v>
@@ -21784,7 +21784,7 @@
         <v>6</v>
       </c>
       <c r="W215" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -582,7 +582,11 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Airborne Coastal Observatory</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>completed</t>
@@ -628,18 +632,16 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2023-11-09T06:12:57.696114</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-14T16:30:17.830979</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -729,20 +731,20 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2024-03-06T17:30:23.153580</t>
+          <t>2024-03-14T17:00:38.080694</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -832,17 +834,17 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:05.520687</t>
+          <t>2024-03-14T17:30:16.789360</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -885,7 +887,11 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Nearshore</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -931,7 +937,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:07.521663</t>
+          <t>2024-03-14T17:30:24.698844</t>
         </is>
       </c>
       <c r="T5" t="n">
@@ -941,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +990,11 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Watersheds</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1030,20 +1040,18 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:09.830728</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-14T17:30:27.306180</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1083,7 +1091,11 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Watersheds</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1129,20 +1141,20 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:11.829079</t>
+          <t>2024-03-14T17:30:22.224772</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1923,7 +1935,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>1</v>
@@ -1932,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="W15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -2420,7 +2432,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
@@ -2429,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2818,7 +2830,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>2</v>
@@ -2827,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -3119,7 +3131,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
@@ -3128,7 +3140,7 @@
         <v>4</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -3611,9 +3623,7 @@
           <t>2023-11-09T06:14:08.614004</t>
         </is>
       </c>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
         <v>8</v>
       </c>
@@ -3621,7 +3631,7 @@
         <v>12</v>
       </c>
       <c r="W32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -3814,7 +3824,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
@@ -3823,7 +3833,7 @@
         <v>4</v>
       </c>
       <c r="W34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -3913,14 +3923,14 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
         <v>8</v>
       </c>
       <c r="W35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -4505,7 +4515,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
         <v>1</v>
@@ -4514,7 +4524,7 @@
         <v>10</v>
       </c>
       <c r="W41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -5002,7 +5012,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
         <v>1</v>
@@ -5011,7 +5021,7 @@
         <v>3</v>
       </c>
       <c r="W46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -5600,7 +5610,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
         <v>2</v>
@@ -5609,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="W52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -6391,9 +6401,7 @@
           <t>2024-02-05T18:10:12.317757</t>
         </is>
       </c>
-      <c r="T60" t="n">
-        <v>1</v>
-      </c>
+      <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
         <v>1</v>
       </c>
@@ -6401,7 +6409,7 @@
         <v>4</v>
       </c>
       <c r="W60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -6495,7 +6503,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
         <v>2</v>
@@ -6504,7 +6512,7 @@
         <v>5</v>
       </c>
       <c r="W61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -6895,7 +6903,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
         <v>2</v>
@@ -6904,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="W65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -7391,9 +7399,7 @@
           <t>2023-11-09T06:15:41.026397</t>
         </is>
       </c>
-      <c r="T70" t="n">
-        <v>1</v>
-      </c>
+      <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
         <v>1</v>
       </c>
@@ -7401,7 +7407,7 @@
         <v>9</v>
       </c>
       <c r="W70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -7494,9 +7500,7 @@
           <t>2024-01-18T18:46:25.686597</t>
         </is>
       </c>
-      <c r="T71" t="n">
-        <v>1</v>
-      </c>
+      <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
         <v>2</v>
       </c>
@@ -7504,7 +7508,7 @@
         <v>4</v>
       </c>
       <c r="W71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -7841,7 +7845,11 @@
       <c r="H75" t="b">
         <v>0</v>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Oceanography</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>onGoing</t>
@@ -7887,18 +7895,16 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>2023-11-09T06:15:52.512618</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-14T17:30:19.720436</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W75" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -7991,15 +7997,13 @@
           <t>2024-01-18T18:46:33.219170</t>
         </is>
       </c>
-      <c r="T76" t="n">
-        <v>1</v>
-      </c>
+      <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
         <v>10</v>
       </c>
       <c r="W76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -8191,9 +8195,7 @@
           <t>2023-11-09T06:15:59.715007</t>
         </is>
       </c>
-      <c r="T78" t="n">
-        <v>1</v>
-      </c>
+      <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
         <v>1</v>
       </c>
@@ -8201,7 +8203,7 @@
         <v>3</v>
       </c>
       <c r="W78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -8591,9 +8593,7 @@
           <t>2023-11-09T06:16:08.807624</t>
         </is>
       </c>
-      <c r="T82" t="n">
-        <v>1</v>
-      </c>
+      <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
         <v>1</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>11</v>
       </c>
       <c r="W82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -8986,7 +8986,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U86" t="n">
         <v>1</v>
@@ -8995,7 +8995,7 @@
         <v>8</v>
       </c>
       <c r="W86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -9187,15 +9187,13 @@
           <t>2023-11-09T06:16:24.825983</t>
         </is>
       </c>
-      <c r="T88" t="n">
-        <v>1</v>
-      </c>
+      <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="n">
         <v>9</v>
       </c>
       <c r="W88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -9289,7 +9287,7 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U89" t="n">
         <v>2</v>
@@ -9298,7 +9296,7 @@
         <v>2</v>
       </c>
       <c r="W89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -9587,9 +9585,7 @@
           <t>2023-11-09T06:16:38.779610</t>
         </is>
       </c>
-      <c r="T92" t="n">
-        <v>1</v>
-      </c>
+      <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
         <v>1</v>
       </c>
@@ -9597,7 +9593,7 @@
         <v>12</v>
       </c>
       <c r="W92" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
@@ -10285,7 +10281,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U99" t="n">
         <v>2</v>
@@ -10294,7 +10290,7 @@
         <v>4</v>
       </c>
       <c r="W99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -10589,9 +10585,7 @@
           <t>2023-11-09T06:17:03.029321</t>
         </is>
       </c>
-      <c r="T102" t="n">
-        <v>1</v>
-      </c>
+      <c r="T102" t="inlineStr"/>
       <c r="U102" t="n">
         <v>1</v>
       </c>
@@ -10599,7 +10593,7 @@
         <v>2</v>
       </c>
       <c r="W102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -10692,15 +10686,13 @@
           <t>2023-11-09T06:17:06.401994</t>
         </is>
       </c>
-      <c r="T103" t="n">
-        <v>1</v>
-      </c>
+      <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="n">
         <v>10</v>
       </c>
       <c r="W103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -12178,7 +12170,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U118" t="n">
         <v>2</v>
@@ -12187,7 +12179,7 @@
         <v>4</v>
       </c>
       <c r="W118" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -12573,9 +12565,7 @@
           <t>2024-01-18T18:46:53.880788</t>
         </is>
       </c>
-      <c r="T122" t="n">
-        <v>1</v>
-      </c>
+      <c r="T122" t="inlineStr"/>
       <c r="U122" t="n">
         <v>1</v>
       </c>
@@ -12583,7 +12573,7 @@
         <v>4</v>
       </c>
       <c r="W122" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
@@ -12973,9 +12963,7 @@
           <t>2023-11-09T06:18:00.431832</t>
         </is>
       </c>
-      <c r="T126" t="n">
-        <v>1</v>
-      </c>
+      <c r="T126" t="inlineStr"/>
       <c r="U126" t="n">
         <v>1</v>
       </c>
@@ -12983,7 +12971,7 @@
         <v>11</v>
       </c>
       <c r="W126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
@@ -13569,9 +13557,7 @@
           <t>2023-11-09T06:18:16.907286</t>
         </is>
       </c>
-      <c r="T132" t="n">
-        <v>1</v>
-      </c>
+      <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
         <v>1</v>
       </c>
@@ -13579,7 +13565,7 @@
         <v>2</v>
       </c>
       <c r="W132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -13968,7 +13954,7 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U136" t="n">
         <v>2</v>
@@ -13977,7 +13963,7 @@
         <v>2</v>
       </c>
       <c r="W136" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
@@ -14368,7 +14354,7 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U140" t="n">
         <v>1</v>
@@ -14377,7 +14363,7 @@
         <v>11</v>
       </c>
       <c r="W140" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141">
@@ -14570,7 +14556,7 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U142" t="n">
         <v>3</v>
@@ -14579,7 +14565,7 @@
         <v>3</v>
       </c>
       <c r="W142" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
@@ -16055,14 +16041,14 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="n">
         <v>7</v>
       </c>
       <c r="W157" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
@@ -17629,14 +17615,14 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="n">
         <v>11</v>
       </c>
       <c r="W173" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
@@ -18417,7 +18403,7 @@
         </is>
       </c>
       <c r="T181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U181" t="n">
         <v>1</v>
@@ -18426,7 +18412,7 @@
         <v>7</v>
       </c>
       <c r="W181" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -20094,7 +20080,7 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U198" t="n">
         <v>3</v>
@@ -20103,7 +20089,7 @@
         <v>8</v>
       </c>
       <c r="W198" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199">
@@ -21878,7 +21864,7 @@
         </is>
       </c>
       <c r="T216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U216" t="n">
         <v>1</v>
@@ -21887,7 +21873,7 @@
         <v>11</v>
       </c>
       <c r="W216" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
@@ -21981,7 +21967,7 @@
         </is>
       </c>
       <c r="T217" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U217" t="n">
         <v>1</v>
@@ -21990,7 +21976,7 @@
         <v>2</v>
       </c>
       <c r="W217" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
@@ -22083,9 +22069,7 @@
           <t>2024-01-18T18:46:22.405471</t>
         </is>
       </c>
-      <c r="T218" t="n">
-        <v>1</v>
-      </c>
+      <c r="T218" t="inlineStr"/>
       <c r="U218" t="n">
         <v>1</v>
       </c>
@@ -22093,7 +22077,7 @@
         <v>2</v>
       </c>
       <c r="W218" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Watersheds</t>
+          <t>Watersheds, Geospatial</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1141,20 +1141,20 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2024-03-14T17:30:22.224772</t>
+          <t>2024-03-14T18:00:30.489308</t>
         </is>
       </c>
       <c r="T7" t="n">
         <v>1</v>
       </c>
       <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
         <v>5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>4</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1194,7 +1194,11 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Geospatial, Airborne Coastal Observatory</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1240,7 +1244,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:14.524578</t>
+          <t>2024-03-14T18:00:18.919921</t>
         </is>
       </c>
       <c r="T8" t="n">
@@ -1250,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1297,11 @@
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Nearshore, Geospatial</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1339,20 +1347,18 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:16.814781</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-14T18:00:22.189899</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1935,7 +1941,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>1</v>
@@ -1944,7 +1950,7 @@
         <v>12</v>
       </c>
       <c r="W15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -3923,14 +3929,14 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
         <v>8</v>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -4515,7 +4521,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
         <v>1</v>
@@ -4524,7 +4530,7 @@
         <v>10</v>
       </c>
       <c r="W41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -7852,7 +7858,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>onGoing</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -7895,7 +7901,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>2024-03-14T17:30:19.720436</t>
+          <t>2024-03-14T18:00:25.292234</t>
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
@@ -7994,16 +8000,16 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>2024-01-18T18:46:33.219170</t>
+          <t>2024-03-14T18:00:27.623146</t>
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W76" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -10384,7 +10390,7 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U100" t="n">
         <v>2</v>
@@ -10393,7 +10399,7 @@
         <v>2</v>
       </c>
       <c r="W100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -18403,7 +18409,7 @@
         </is>
       </c>
       <c r="T181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U181" t="n">
         <v>1</v>
@@ -18412,7 +18418,7 @@
         <v>7</v>
       </c>
       <c r="W181" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
@@ -20080,7 +20086,7 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U198" t="n">
         <v>3</v>
@@ -20089,7 +20095,7 @@
         <v>8</v>
       </c>
       <c r="W198" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199">
@@ -20576,9 +20582,7 @@
           <t>2023-11-09T06:21:36.715463</t>
         </is>
       </c>
-      <c r="T203" t="n">
-        <v>1</v>
-      </c>
+      <c r="T203" t="inlineStr"/>
       <c r="U203" t="n">
         <v>1</v>
       </c>
@@ -20586,7 +20590,7 @@
         <v>4</v>
       </c>
       <c r="W203" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
@@ -21171,7 +21175,7 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U209" t="n">
         <v>1</v>
@@ -21180,7 +21184,7 @@
         <v>12</v>
       </c>
       <c r="W209" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210">
@@ -21761,7 +21765,7 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U215" t="n">
         <v>7</v>
@@ -21770,7 +21774,7 @@
         <v>6</v>
       </c>
       <c r="W215" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U86" t="n">
         <v>1</v>
@@ -9001,7 +9001,7 @@
         <v>8</v>
       </c>
       <c r="W86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -1604,7 +1604,11 @@
       <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Watersheds, Geospatial</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1650,20 +1654,18 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:23.994924</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-14T21:00:46.279277</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
         <v>3</v>
       </c>
-      <c r="V12" t="n">
-        <v>11</v>
-      </c>
       <c r="W12" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1703,7 +1705,11 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Oceanography</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1749,20 +1755,18 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2024-01-18T18:46:37.826181</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-14T21:00:40.498095</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1802,7 +1806,11 @@
       <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Watersheds</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>onGoing</t>
@@ -1848,20 +1856,18 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:28.432889</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-14T21:00:43.286909</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="W14" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1947,7 +1953,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:30.496576</t>
+          <t>2024-03-14T21:30:17.116308</t>
         </is>
       </c>
       <c r="T15" t="n">
@@ -1957,10 +1963,10 @@
         <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2000,7 +2006,11 @@
       <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Watersheds</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>onGoing</t>
@@ -2046,20 +2056,18 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:32.580876</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-14T21:30:20.314692</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2099,7 +2107,11 @@
       <c r="H17" t="b">
         <v>0</v>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Geospatial</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2135,7 +2147,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>other, marineTurtlesBirdsMammalsAbundanceAndDistribution</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2145,20 +2157,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:34.518233</t>
+          <t>2024-03-14T21:30:22.612231</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2198,7 +2210,11 @@
       <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Geospatial</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2244,7 +2260,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:37.597448</t>
+          <t>2024-03-14T22:00:19.207617</t>
         </is>
       </c>
       <c r="T18" t="n">
@@ -2254,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2297,7 +2313,11 @@
       <c r="H19" t="b">
         <v>0</v>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Oceanography</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2319,7 +2339,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2343,20 +2363,18 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:39.222840</t>
-        </is>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-14T22:00:22.177109</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
         <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2418,7 +2436,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Hakai Geospatial</t>
+          <t>Hakai Institute</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -2446,20 +2464,20 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:41.580190</t>
+          <t>2024-03-14T22:00:16.001629</t>
         </is>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2499,7 +2517,11 @@
       <c r="H21" t="b">
         <v>0</v>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Geospatial, Nearshore</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2535,7 +2557,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>other, macroalgalCanopyCoverAndComposition</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2545,7 +2567,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:43.626495</t>
+          <t>2024-03-14T22:30:19.704168</t>
         </is>
       </c>
       <c r="T21" t="n">
@@ -2555,10 +2577,10 @@
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2598,7 +2620,11 @@
       <c r="H22" t="b">
         <v>0</v>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Geospatial</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2644,7 +2670,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:45.930259</t>
+          <t>2024-03-14T22:30:17.134585</t>
         </is>
       </c>
       <c r="T22" t="n">
@@ -2654,10 +2680,10 @@
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2697,7 +2723,11 @@
       <c r="H23" t="b">
         <v>0</v>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Geospatial, Nearshore</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2743,7 +2773,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:48.317828</t>
+          <t>2024-03-14T23:00:37.409592</t>
         </is>
       </c>
       <c r="T23" t="n">
@@ -2753,10 +2783,10 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="W23" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -2818,7 +2848,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Hakai Geospatial</t>
+          <t>Hakai Institute</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2846,20 +2876,20 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:50.331912</t>
+          <t>2024-03-14T23:00:40.134970</t>
         </is>
       </c>
       <c r="T24" t="n">
         <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2899,7 +2929,11 @@
       <c r="H25" t="b">
         <v>0</v>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Oceanography</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>completed</t>
@@ -2945,20 +2979,18 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:52.517743</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-14T23:00:33.828279</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2998,7 +3030,11 @@
       <c r="H26" t="b">
         <v>0</v>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Geospatial, Watersheds</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3044,20 +3080,18 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:54.597923</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-14T23:30:15.278114</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W26" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -3119,7 +3153,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Hakai Geospatial</t>
+          <t>Hakai Institute</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -3147,20 +3181,20 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:56.386690</t>
+          <t>2024-03-14T23:00:42.877625</t>
         </is>
       </c>
       <c r="T27" t="n">
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -3200,7 +3234,11 @@
       <c r="H28" t="b">
         <v>0</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Watersheds</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3242,20 +3280,20 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2023-11-09T06:13:58.384438</t>
+          <t>2024-03-14T23:30:25.511349</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -3295,7 +3333,11 @@
       <c r="H29" t="b">
         <v>0</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Geospatial</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3341,7 +3383,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:00.222940</t>
+          <t>2024-03-14T23:30:23.288687</t>
         </is>
       </c>
       <c r="T29" t="n">
@@ -3351,10 +3393,10 @@
         <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W29" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -3394,7 +3436,11 @@
       <c r="H30" t="b">
         <v>0</v>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Watersheds</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3440,20 +3486,20 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:02.426320</t>
+          <t>2024-03-14T23:30:17.780478</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -3493,7 +3539,11 @@
       <c r="H31" t="b">
         <v>0</v>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Airborne Coastal Observatory</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3539,7 +3589,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:05.228851</t>
+          <t>2024-03-14T23:30:20.499593</t>
         </is>
       </c>
       <c r="T31" t="n">
@@ -3549,10 +3599,10 @@
         <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -18867,7 +18917,7 @@
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>2024-03-14T20:30:38.094456</t>
+          <t>2024-03-14T21:00:37.791377</t>
         </is>
       </c>
       <c r="T185" t="inlineStr"/>
@@ -18875,10 +18925,10 @@
         <v>3</v>
       </c>
       <c r="V185" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W185" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186">
@@ -19975,9 +20025,7 @@
           <t>2024-03-14T20:30:40.923051</t>
         </is>
       </c>
-      <c r="T196" t="n">
-        <v>1</v>
-      </c>
+      <c r="T196" t="inlineStr"/>
       <c r="U196" t="n">
         <v>3</v>
       </c>
@@ -19985,7 +20033,7 @@
         <v>4</v>
       </c>
       <c r="W196" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
@@ -20482,9 +20530,7 @@
           <t>2024-03-14T20:00:38.424770</t>
         </is>
       </c>
-      <c r="T201" t="n">
-        <v>1</v>
-      </c>
+      <c r="T201" t="inlineStr"/>
       <c r="U201" t="n">
         <v>2</v>
       </c>
@@ -20492,7 +20538,7 @@
         <v>2</v>
       </c>
       <c r="W201" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
@@ -21091,7 +21137,7 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U207" t="n">
         <v>1</v>
@@ -21100,7 +21146,7 @@
         <v>4</v>
       </c>
       <c r="W207" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208">

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -21137,7 +21137,7 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U207" t="n">
         <v>1</v>
@@ -21146,7 +21146,7 @@
         <v>4</v>
       </c>
       <c r="W207" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
@@ -22250,7 +22250,7 @@
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>2024-03-14T19:30:19.791281</t>
+          <t>2024-03-15T14:30:16.526958</t>
         </is>
       </c>
       <c r="T218" t="inlineStr"/>
@@ -22258,10 +22258,10 @@
         <v>1</v>
       </c>
       <c r="V218" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W218" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -736,9 +736,7 @@
           <t>2024-03-14T19:31:01.305403</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
         <v>2</v>
       </c>
@@ -746,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2160,9 +2158,7 @@
           <t>2024-03-14T21:30:22.612231</t>
         </is>
       </c>
-      <c r="T17" t="n">
-        <v>1</v>
-      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
         <v>2</v>
       </c>
@@ -2170,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -3490,7 +3486,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>3</v>
@@ -3499,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -17630,7 +17626,7 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U172" t="n">
         <v>3</v>
@@ -17639,7 +17635,7 @@
         <v>6</v>
       </c>
       <c r="W172" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
@@ -20328,9 +20324,7 @@
           <t>2024-03-14T20:00:22.026653</t>
         </is>
       </c>
-      <c r="T199" t="n">
-        <v>1</v>
-      </c>
+      <c r="T199" t="inlineStr"/>
       <c r="U199" t="n">
         <v>6</v>
       </c>
@@ -20338,7 +20332,7 @@
         <v>2</v>
       </c>
       <c r="W199" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
@@ -21137,7 +21131,7 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U207" t="n">
         <v>1</v>
@@ -21146,7 +21140,7 @@
         <v>4</v>
       </c>
       <c r="W207" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208">
@@ -21742,9 +21736,7 @@
           <t>2024-03-14T19:30:57.531816</t>
         </is>
       </c>
-      <c r="T213" t="n">
-        <v>1</v>
-      </c>
+      <c r="T213" t="inlineStr"/>
       <c r="U213" t="n">
         <v>7</v>
       </c>
@@ -21752,7 +21744,7 @@
         <v>3</v>
       </c>
       <c r="W213" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214">
@@ -21949,7 +21941,7 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U215" t="n">
         <v>1</v>
@@ -21958,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="W215" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W218"/>
+  <dimension ref="A1:W219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,22 +526,22 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>ERROR</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>sum</t>
         </is>
       </c>
     </row>
@@ -635,16 +635,16 @@
           <t>2024-03-14T19:30:43.788899</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>4</v>
-      </c>
-      <c r="W2" t="n">
         <v>5</v>
       </c>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -736,16 +736,16 @@
           <t>2024-03-14T19:31:01.305403</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
-      </c>
-      <c r="W3" t="n">
         <v>6</v>
       </c>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Hakai Geospatial</t>
+          <t>Hakai Institute</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -834,21 +834,19 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2024-03-14T19:30:32.093568</t>
+          <t>2024-03-15T20:30:16.716891</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -937,21 +935,19 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2024-03-14T20:30:49.710751</t>
+          <t>2024-03-15T20:30:29.197619</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1043,16 +1039,16 @@
           <t>2024-03-14T17:30:27.306180</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
         <v>4</v>
       </c>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1145,16 +1141,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1244,20 +1240,20 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2024-03-14T19:30:25.796259</t>
+          <t>2024-03-15T21:00:40.893746</t>
         </is>
       </c>
       <c r="T8" t="n">
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1350,16 +1346,16 @@
           <t>2024-03-14T18:30:24.982757</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>4</v>
+      </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="n">
         <v>6</v>
       </c>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1451,16 +1447,16 @@
           <t>2024-03-14T19:30:54.426502</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
-      </c>
-      <c r="W10" t="n">
         <v>6</v>
       </c>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1549,21 +1545,19 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2024-03-14T19:30:22.311512</t>
+          <t>2024-03-15T21:00:34.988844</t>
         </is>
       </c>
       <c r="T11" t="n">
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1655,16 +1649,16 @@
           <t>2024-03-14T21:00:46.279277</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
-      </c>
-      <c r="W12" t="n">
         <v>5</v>
       </c>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1756,16 +1750,16 @@
           <t>2024-03-14T21:00:40.498095</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
       <c r="U13" t="n">
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
         <v>4</v>
       </c>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1857,16 +1851,16 @@
           <t>2024-03-14T21:00:43.286909</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>5</v>
+      </c>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
-      </c>
-      <c r="W14" t="n">
         <v>9</v>
       </c>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1905,7 +1899,11 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Oceanography</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>onGoing</t>
@@ -1951,21 +1949,19 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2024-03-14T21:30:17.116308</t>
+          <t>2024-03-15T20:30:18.878382</t>
         </is>
       </c>
       <c r="T15" t="n">
         <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2057,16 +2053,16 @@
           <t>2024-03-14T21:30:20.314692</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
-      </c>
-      <c r="W16" t="n">
         <v>3</v>
       </c>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2158,16 +2154,16 @@
           <t>2024-03-14T21:30:22.612231</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
       <c r="U17" t="n">
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
-      </c>
-      <c r="W17" t="n">
         <v>4</v>
       </c>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2256,21 +2252,19 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2024-03-14T22:00:19.207617</t>
+          <t>2024-03-15T21:00:49.907550</t>
         </is>
       </c>
       <c r="T18" t="n">
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2362,16 +2356,16 @@
           <t>2024-03-14T22:00:22.177109</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
       <c r="U19" t="n">
         <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
-      </c>
-      <c r="W19" t="n">
         <v>4</v>
       </c>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2460,21 +2454,19 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2024-03-14T22:00:16.001629</t>
+          <t>2024-03-15T21:00:44.016887</t>
         </is>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
-      </c>
-      <c r="W20" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2563,20 +2555,20 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2024-03-14T22:30:19.704168</t>
+          <t>2024-03-15T21:00:46.518499</t>
         </is>
       </c>
       <c r="T21" t="n">
         <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2666,21 +2658,19 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2024-03-14T22:30:17.134585</t>
+          <t>2024-03-15T21:00:38.288990</t>
         </is>
       </c>
       <c r="T22" t="n">
         <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
-      </c>
-      <c r="W22" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2769,21 +2759,19 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2024-03-14T23:00:37.409592</t>
+          <t>2024-03-15T21:00:54.285779</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
-        <v>4</v>
-      </c>
-      <c r="W23" t="n">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2879,14 +2867,12 @@
         <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
-      </c>
-      <c r="W24" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2978,16 +2964,16 @@
           <t>2024-03-14T23:00:33.828279</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
       <c r="U25" t="n">
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
-      </c>
-      <c r="W25" t="n">
         <v>4</v>
       </c>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3079,16 +3065,16 @@
           <t>2024-03-14T23:30:15.278114</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>5</v>
+      </c>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>4</v>
-      </c>
-      <c r="W26" t="n">
         <v>9</v>
       </c>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3184,14 +3170,12 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
-      </c>
-      <c r="W27" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3280,16 +3264,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -3383,17 +3367,15 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
-      </c>
-      <c r="W29" t="n">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3486,16 +3468,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -3585,21 +3567,19 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2024-03-14T23:30:20.499593</t>
+          <t>2024-03-15T22:30:16.080638</t>
         </is>
       </c>
       <c r="T31" t="n">
         <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
-        <v>3</v>
-      </c>
-      <c r="W31" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3645,7 +3625,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>onGoing</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3688,19 +3668,19 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:08.614004</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
+          <t>2024-03-15T19:00:37.316621</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>4</v>
+      </c>
       <c r="U32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>12</v>
-      </c>
-      <c r="W32" t="n">
-        <v>20</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3739,7 +3719,11 @@
       <c r="H33" t="b">
         <v>0</v>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Oceanography</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3785,21 +3769,19 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:11.431499</t>
+          <t>2024-03-15T19:00:33.601991</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>13</v>
-      </c>
-      <c r="W33" t="n">
-        <v>22</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3860,7 +3842,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Hakai Geospatial</t>
+          <t>Hakai Institute</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3888,21 +3870,19 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:13.679262</t>
+          <t>2024-03-15T19:30:18.784998</t>
         </is>
       </c>
       <c r="T34" t="n">
         <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>4</v>
       </c>
-      <c r="W34" t="n">
-        <v>7</v>
-      </c>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3941,7 +3921,11 @@
       <c r="H35" t="b">
         <v>0</v>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Geospatial</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3987,21 +3971,19 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:16.210539</t>
+          <t>2024-03-15T19:30:34.980201</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>8</v>
-      </c>
-      <c r="W35" t="n">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4040,7 +4022,11 @@
       <c r="H36" t="b">
         <v>0</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Nearshore</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4086,21 +4072,19 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:18.700538</t>
+          <t>2024-03-15T19:30:21.501824</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
-        <v>11</v>
-      </c>
-      <c r="W36" t="n">
-        <v>14</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4139,7 +4123,11 @@
       <c r="H37" t="b">
         <v>0</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Nearshore, Geospatial</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4185,21 +4173,19 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:20.816437</t>
+          <t>2024-03-15T20:00:52.318414</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>5</v>
       </c>
-      <c r="W37" t="n">
-        <v>10</v>
-      </c>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4238,7 +4224,11 @@
       <c r="H38" t="b">
         <v>0</v>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Geospatial, Airborne Coastal Observatory</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4284,20 +4274,20 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:23.912451</t>
+          <t>2024-03-15T20:00:21.618384</t>
         </is>
       </c>
       <c r="T38" t="n">
         <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W38" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4337,7 +4327,11 @@
       <c r="H39" t="b">
         <v>0</v>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Oceanography</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>onGoing</t>
@@ -4383,21 +4377,19 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:26.603839</t>
+          <t>2024-03-15T21:00:57.320476</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
         <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>12</v>
-      </c>
-      <c r="W39" t="n">
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4436,7 +4428,11 @@
       <c r="H40" t="b">
         <v>0</v>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Airborne Coastal Observatory</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4482,21 +4478,19 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:29.504133</t>
+          <t>2024-03-15T20:30:23.904982</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>9</v>
-      </c>
-      <c r="W40" t="n">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4535,7 +4529,11 @@
       <c r="H41" t="b">
         <v>0</v>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Airborne Coastal Observatory</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4581,21 +4579,19 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:32.426448</t>
+          <t>2024-03-15T23:30:20.502835</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
-        <v>10</v>
-      </c>
-      <c r="W41" t="n">
-        <v>14</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4634,7 +4630,11 @@
       <c r="H42" t="b">
         <v>0</v>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Geospatial, Airborne Coastal Observatory</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4680,21 +4680,19 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:34.611766</t>
+          <t>2024-03-15T23:30:23.489408</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
-        <v>9</v>
-      </c>
-      <c r="W42" t="n">
-        <v>12</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4733,7 +4731,11 @@
       <c r="H43" t="b">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Oceanography</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4779,20 +4781,20 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:36.293133</t>
+          <t>2024-03-15T23:30:17.533823</t>
         </is>
       </c>
       <c r="T43" t="n">
         <v>2</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>6</v>
       </c>
       <c r="W43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4885,13 +4887,13 @@
         <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V44" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W44" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -4981,16 +4983,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V45" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W45" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -5087,13 +5089,13 @@
         <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -5183,16 +5185,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V47" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W47" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -5282,16 +5284,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="W48" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -5381,16 +5383,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V49" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W49" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -5480,16 +5482,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V50" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W50" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -5579,16 +5581,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W51" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -5682,16 +5684,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U52" t="n">
         <v>3</v>
       </c>
       <c r="V52" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W52" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -5781,16 +5783,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U53" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V53" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="W53" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -5880,16 +5882,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W54" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -5982,13 +5984,13 @@
         <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V55" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W55" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -6078,16 +6080,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V56" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="W56" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -6177,16 +6179,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V57" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W57" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -6276,16 +6278,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V58" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W58" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -6378,13 +6380,13 @@
         <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V59" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W59" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -6477,16 +6479,16 @@
           <t>2024-02-05T18:10:12.317757</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr"/>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
-        <v>4</v>
-      </c>
-      <c r="W60" t="n">
         <v>5</v>
       </c>
+      <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6582,13 +6584,13 @@
         <v>2</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W61" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -6678,16 +6680,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U62" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V62" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W62" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -6777,16 +6779,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W63" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -6876,16 +6878,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V64" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W64" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -6979,16 +6981,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W65" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -7078,16 +7080,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V66" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="W66" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -7180,13 +7182,13 @@
         <v>1</v>
       </c>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V67" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W67" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -7276,16 +7278,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V68" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W68" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -7378,13 +7380,13 @@
         <v>2</v>
       </c>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="V69" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W69" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -7477,16 +7479,16 @@
           <t>2023-11-09T06:15:41.026397</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr"/>
+      <c r="T70" t="n">
+        <v>1</v>
+      </c>
       <c r="U70" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V70" t="n">
-        <v>9</v>
-      </c>
-      <c r="W70" t="n">
         <v>10</v>
       </c>
+      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7578,16 +7580,16 @@
           <t>2024-01-18T18:46:25.686597</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr"/>
+      <c r="T71" t="n">
+        <v>2</v>
+      </c>
       <c r="U71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V71" t="n">
-        <v>4</v>
-      </c>
-      <c r="W71" t="n">
         <v>6</v>
       </c>
+      <c r="W71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7676,16 +7678,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U72" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="V72" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W72" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -7775,16 +7777,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V73" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W73" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -7874,16 +7876,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U74" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V74" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W74" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -7977,13 +7979,13 @@
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
       <c r="V75" t="n">
         <v>2</v>
       </c>
-      <c r="W75" t="n">
-        <v>2</v>
-      </c>
+      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8076,13 +8078,13 @@
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
       <c r="V76" t="n">
         <v>3</v>
       </c>
-      <c r="W76" t="n">
-        <v>3</v>
-      </c>
+      <c r="W76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8178,13 +8180,13 @@
         <v>2</v>
       </c>
       <c r="U77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W77" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -8277,16 +8279,16 @@
           <t>2024-03-14T19:00:38.698999</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr"/>
+      <c r="T78" t="n">
+        <v>1</v>
+      </c>
       <c r="U78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V78" t="n">
-        <v>2</v>
-      </c>
-      <c r="W78" t="n">
         <v>3</v>
       </c>
+      <c r="W78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8378,16 +8380,16 @@
           <t>2024-03-14T19:00:44.318079</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr"/>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
       <c r="U79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V79" t="n">
-        <v>2</v>
-      </c>
-      <c r="W79" t="n">
         <v>3</v>
       </c>
+      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8479,16 +8481,16 @@
           <t>2024-03-14T19:30:37.998721</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr"/>
+      <c r="T80" t="n">
+        <v>2</v>
+      </c>
       <c r="U80" t="n">
         <v>2</v>
       </c>
       <c r="V80" t="n">
-        <v>2</v>
-      </c>
-      <c r="W80" t="n">
         <v>4</v>
       </c>
+      <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8580,16 +8582,16 @@
           <t>2024-03-14T19:31:05.183801</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr"/>
+      <c r="T81" t="n">
+        <v>1</v>
+      </c>
       <c r="U81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V81" t="n">
-        <v>5</v>
-      </c>
-      <c r="W81" t="n">
         <v>6</v>
       </c>
+      <c r="W81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -8628,7 +8630,11 @@
       <c r="H82" t="b">
         <v>0</v>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Oceanography</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8674,21 +8680,19 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>2023-11-09T06:16:14.601028</t>
+          <t>2024-03-15T19:30:32.284153</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V82" t="n">
-        <v>7</v>
-      </c>
-      <c r="W82" t="n">
-        <v>10</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8727,7 +8731,11 @@
       <c r="H83" t="b">
         <v>0</v>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Airborne Coastal Observatory</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8745,7 +8753,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Hakai Geospatial</t>
+          <t>Hakai Geosptatial</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -8773,20 +8781,20 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>2023-11-09T06:16:17.003215</t>
+          <t>2024-03-15T19:30:23.701698</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W83" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -8826,7 +8834,11 @@
       <c r="H84" t="b">
         <v>0</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Geospatial, Nearshore</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8872,7 +8884,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>2023-11-09T06:16:19.730216</t>
+          <t>2024-03-15T20:00:57.928311</t>
         </is>
       </c>
       <c r="T84" t="n">
@@ -8882,11 +8894,9 @@
         <v>2</v>
       </c>
       <c r="V84" t="n">
-        <v>8</v>
-      </c>
-      <c r="W84" t="n">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -8925,7 +8935,11 @@
       <c r="H85" t="b">
         <v>0</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Oceanography, Watersheds</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>completed</t>
@@ -8971,21 +8985,19 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>2023-11-09T06:16:22.126445</t>
+          <t>2024-03-15T20:00:38.090269</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U85" t="n">
         <v>2</v>
       </c>
       <c r="V85" t="n">
-        <v>5</v>
-      </c>
-      <c r="W85" t="n">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9074,17 +9086,17 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>2023-11-09T06:16:24.825983</t>
+          <t>2024-03-15T20:00:18.803297</t>
         </is>
       </c>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
       <c r="V86" t="n">
-        <v>9</v>
-      </c>
-      <c r="W86" t="n">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="W86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9173,7 +9185,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>2024-01-18T18:46:30.430168</t>
+          <t>2024-03-15T20:00:32.226378</t>
         </is>
       </c>
       <c r="T87" t="n">
@@ -9183,10 +9195,10 @@
         <v>2</v>
       </c>
       <c r="V87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -9226,7 +9238,11 @@
       <c r="H88" t="b">
         <v>0</v>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Geospatial</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr">
         <is>
           <t>completed</t>
@@ -9248,7 +9264,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -9272,21 +9288,19 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>2023-11-09T06:16:30.814109</t>
+          <t>2024-03-15T20:30:21.295190</t>
         </is>
       </c>
       <c r="T88" t="n">
         <v>1</v>
       </c>
       <c r="U88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V88" t="n">
-        <v>7</v>
-      </c>
-      <c r="W88" t="n">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9375,16 +9389,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U89" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V89" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W89" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -9477,16 +9491,16 @@
           <t>2023-11-09T06:16:38.779610</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr"/>
+      <c r="T90" t="n">
+        <v>2</v>
+      </c>
       <c r="U90" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="V90" t="n">
-        <v>12</v>
-      </c>
-      <c r="W90" t="n">
         <v>14</v>
       </c>
+      <c r="W90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9575,16 +9589,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V91" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="W91" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -9674,16 +9688,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U92" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V92" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W92" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -9773,16 +9787,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V93" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W93" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -9872,16 +9886,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U94" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V94" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W94" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -9971,16 +9985,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U95" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V95" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W95" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -10070,16 +10084,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U96" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V96" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W96" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -10173,16 +10187,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V97" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W97" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -10282,10 +10296,10 @@
         <v>2</v>
       </c>
       <c r="V98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W98" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -10375,16 +10389,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U99" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V99" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W99" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -10477,16 +10491,16 @@
           <t>2023-11-09T06:17:03.029321</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr"/>
+      <c r="T100" t="n">
+        <v>1</v>
+      </c>
       <c r="U100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V100" t="n">
-        <v>2</v>
-      </c>
-      <c r="W100" t="n">
         <v>3</v>
       </c>
+      <c r="W100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -10579,13 +10593,13 @@
         </is>
       </c>
       <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
+      <c r="U101" t="n">
+        <v>10</v>
+      </c>
       <c r="V101" t="n">
         <v>10</v>
       </c>
-      <c r="W101" t="n">
-        <v>10</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -10674,16 +10688,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U102" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V102" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W102" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -10773,16 +10787,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U103" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V103" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="W103" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -10872,16 +10886,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U104" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V104" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W104" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -10971,16 +10985,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U105" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V105" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W105" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -11070,16 +11084,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V106" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W106" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -11165,20 +11179,20 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>2024-01-18T18:46:35.540374</t>
+          <t>2024-03-15T21:30:16.100449</t>
         </is>
       </c>
       <c r="T107" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" t="n">
         <v>3</v>
       </c>
-      <c r="U107" t="n">
-        <v>1</v>
-      </c>
       <c r="V107" t="n">
+        <v>7</v>
+      </c>
+      <c r="W107" t="n">
         <v>3</v>
-      </c>
-      <c r="W107" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -11268,16 +11282,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U108" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V108" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W108" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -11367,16 +11381,16 @@
         </is>
       </c>
       <c r="T109" t="n">
+        <v>2</v>
+      </c>
+      <c r="U109" t="n">
+        <v>7</v>
+      </c>
+      <c r="V109" t="n">
+        <v>13</v>
+      </c>
+      <c r="W109" t="n">
         <v>4</v>
-      </c>
-      <c r="U109" t="n">
-        <v>2</v>
-      </c>
-      <c r="V109" t="n">
-        <v>7</v>
-      </c>
-      <c r="W109" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -11466,16 +11480,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U110" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V110" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="W110" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -11565,16 +11579,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U111" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V111" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W111" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -11664,16 +11678,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U112" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V112" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W112" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -11766,13 +11780,13 @@
         <v>1</v>
       </c>
       <c r="U113" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V113" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W113" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -11862,16 +11876,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U114" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V114" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W114" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -11961,16 +11975,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U115" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V115" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W115" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -12064,16 +12078,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V116" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W116" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -12163,16 +12177,16 @@
         </is>
       </c>
       <c r="T117" t="n">
+        <v>1</v>
+      </c>
+      <c r="U117" t="n">
+        <v>11</v>
+      </c>
+      <c r="V117" t="n">
+        <v>15</v>
+      </c>
+      <c r="W117" t="n">
         <v>3</v>
-      </c>
-      <c r="U117" t="n">
-        <v>1</v>
-      </c>
-      <c r="V117" t="n">
-        <v>11</v>
-      </c>
-      <c r="W117" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -12262,16 +12276,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U118" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V118" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W118" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -12364,13 +12378,13 @@
         <v>1</v>
       </c>
       <c r="U119" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V119" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W119" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -12463,16 +12477,16 @@
           <t>2024-01-18T18:46:53.880788</t>
         </is>
       </c>
-      <c r="T120" t="inlineStr"/>
+      <c r="T120" t="n">
+        <v>1</v>
+      </c>
       <c r="U120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V120" t="n">
-        <v>4</v>
-      </c>
-      <c r="W120" t="n">
         <v>5</v>
       </c>
+      <c r="W120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -12561,16 +12575,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U121" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V121" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W121" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -12660,16 +12674,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U122" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V122" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W122" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -12759,16 +12773,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U123" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V123" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W123" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -12861,16 +12875,16 @@
           <t>2023-11-09T06:18:00.431832</t>
         </is>
       </c>
-      <c r="T124" t="inlineStr"/>
+      <c r="T124" t="n">
+        <v>1</v>
+      </c>
       <c r="U124" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V124" t="n">
-        <v>11</v>
-      </c>
-      <c r="W124" t="n">
         <v>12</v>
       </c>
+      <c r="W124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -12959,16 +12973,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U125" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V125" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W125" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -13058,16 +13072,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V126" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W126" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -13157,16 +13171,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U127" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V127" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="W127" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -13256,16 +13270,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U128" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V128" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W128" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -13358,13 +13372,13 @@
         <v>1</v>
       </c>
       <c r="U129" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V129" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W129" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -13457,16 +13471,16 @@
           <t>2023-11-09T06:18:16.907286</t>
         </is>
       </c>
-      <c r="T130" t="inlineStr"/>
+      <c r="T130" t="n">
+        <v>1</v>
+      </c>
       <c r="U130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V130" t="n">
-        <v>2</v>
-      </c>
-      <c r="W130" t="n">
         <v>3</v>
       </c>
+      <c r="W130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -13555,16 +13569,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U131" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V131" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W131" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -13657,13 +13671,13 @@
         <v>1</v>
       </c>
       <c r="U132" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V132" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W132" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -13753,16 +13767,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V133" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W133" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -13856,16 +13870,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U134" t="n">
         <v>2</v>
       </c>
       <c r="V134" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W134" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -13955,16 +13969,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U135" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V135" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W135" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -14054,16 +14068,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U136" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V136" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W136" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -14153,16 +14167,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U137" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V137" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W137" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -14256,16 +14270,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U138" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V138" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W138" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -14358,13 +14372,13 @@
         <v>2</v>
       </c>
       <c r="U139" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="V139" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="W139" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -14458,16 +14472,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U140" t="n">
         <v>3</v>
       </c>
       <c r="V140" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W140" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -14557,16 +14571,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V141" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="W141" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -14656,16 +14670,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U142" t="n">
         <v>5</v>
       </c>
       <c r="V142" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W142" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -14755,16 +14769,16 @@
         </is>
       </c>
       <c r="T143" t="n">
+        <v>2</v>
+      </c>
+      <c r="U143" t="n">
+        <v>5</v>
+      </c>
+      <c r="V143" t="n">
+        <v>11</v>
+      </c>
+      <c r="W143" t="n">
         <v>4</v>
-      </c>
-      <c r="U143" t="n">
-        <v>2</v>
-      </c>
-      <c r="V143" t="n">
-        <v>5</v>
-      </c>
-      <c r="W143" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -14857,13 +14871,13 @@
         <v>1</v>
       </c>
       <c r="U144" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V144" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W144" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -14953,16 +14967,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U145" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="V145" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="W145" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -15055,13 +15069,13 @@
         <v>2</v>
       </c>
       <c r="U146" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V146" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W146" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -15151,16 +15165,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U147" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V147" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W147" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -15253,13 +15267,13 @@
         <v>1</v>
       </c>
       <c r="U148" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V148" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W148" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -15349,16 +15363,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U149" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V149" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W149" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -15448,16 +15462,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U150" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V150" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W150" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -15547,16 +15561,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U151" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V151" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W151" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -15646,16 +15660,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V152" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W152" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -15745,16 +15759,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U153" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V153" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W153" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -15844,16 +15858,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U154" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V154" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W154" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -15946,15 +15960,15 @@
           <t>2023-11-09T06:19:22.827972</t>
         </is>
       </c>
-      <c r="T155" t="n">
-        <v>1</v>
-      </c>
-      <c r="U155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="n">
+        <v>7</v>
+      </c>
       <c r="V155" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W155" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -15994,7 +16008,11 @@
       <c r="H156" t="b">
         <v>0</v>
       </c>
-      <c r="I156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Geospatial</t>
+        </is>
+      </c>
       <c r="J156" t="inlineStr">
         <is>
           <t>completed</t>
@@ -16040,21 +16058,19 @@
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>2023-11-09T06:19:26.918676</t>
+          <t>2024-03-15T20:00:48.927210</t>
         </is>
       </c>
       <c r="T156" t="n">
         <v>1</v>
       </c>
       <c r="U156" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V156" t="n">
-        <v>11</v>
-      </c>
-      <c r="W156" t="n">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="W156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -16093,7 +16109,11 @@
       <c r="H157" t="b">
         <v>0</v>
       </c>
-      <c r="I157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Geospatial</t>
+        </is>
+      </c>
       <c r="J157" t="inlineStr">
         <is>
           <t>completed</t>
@@ -16139,21 +16159,19 @@
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>2023-11-09T06:19:30.185131</t>
+          <t>2024-03-15T20:00:25.779159</t>
         </is>
       </c>
       <c r="T157" t="n">
         <v>1</v>
       </c>
       <c r="U157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V157" t="n">
-        <v>8</v>
-      </c>
-      <c r="W157" t="n">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="W157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -16192,7 +16210,11 @@
       <c r="H158" t="b">
         <v>0</v>
       </c>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Airborne Coastal Observatory</t>
+        </is>
+      </c>
       <c r="J158" t="inlineStr">
         <is>
           <t>completed</t>
@@ -16238,21 +16260,19 @@
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>2023-11-09T06:19:32.704113</t>
+          <t>2024-03-15T20:00:55.021319</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U158" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V158" t="n">
         <v>7</v>
       </c>
-      <c r="W158" t="n">
-        <v>10</v>
-      </c>
+      <c r="W158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -16337,20 +16357,20 @@
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>2023-11-09T06:19:34.880131</t>
+          <t>2024-03-15T20:01:00.678171</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U159" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V159" t="n">
         <v>7</v>
       </c>
       <c r="W159" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -16390,7 +16410,11 @@
       <c r="H160" t="b">
         <v>0</v>
       </c>
-      <c r="I160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Watersheds</t>
+        </is>
+      </c>
       <c r="J160" t="inlineStr">
         <is>
           <t>completed</t>
@@ -16408,7 +16432,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Hakai Institute - McGill University</t>
+          <t>Hakai Institute</t>
         </is>
       </c>
       <c r="N160" t="n">
@@ -16436,21 +16460,19 @@
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>2023-11-09T06:19:37.330607</t>
+          <t>2024-03-15T20:00:35.393581</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U160" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V160" t="n">
-        <v>11</v>
-      </c>
-      <c r="W160" t="n">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="W160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -16489,7 +16511,11 @@
       <c r="H161" t="b">
         <v>0</v>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Geospatial</t>
+        </is>
+      </c>
       <c r="J161" t="inlineStr">
         <is>
           <t>completed</t>
@@ -16535,21 +16561,19 @@
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>2023-11-09T06:19:40.314739</t>
+          <t>2024-03-15T20:00:28.917746</t>
         </is>
       </c>
       <c r="T161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U161" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V161" t="n">
-        <v>13</v>
-      </c>
-      <c r="W161" t="n">
-        <v>17</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="W161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -16588,7 +16612,11 @@
       <c r="H162" t="b">
         <v>0</v>
       </c>
-      <c r="I162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Watersheds</t>
+        </is>
+      </c>
       <c r="J162" t="inlineStr">
         <is>
           <t>completed</t>
@@ -16634,21 +16662,19 @@
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>2023-11-09T06:19:43.280522</t>
+          <t>2024-03-15T20:00:45.818633</t>
         </is>
       </c>
       <c r="T162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U162" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V162" t="n">
-        <v>10</v>
-      </c>
-      <c r="W162" t="n">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="W162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -16687,7 +16713,11 @@
       <c r="H163" t="b">
         <v>0</v>
       </c>
-      <c r="I163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Oceanography</t>
+        </is>
+      </c>
       <c r="J163" t="inlineStr">
         <is>
           <t>historicalArchive</t>
@@ -16733,21 +16763,19 @@
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>2023-11-09T06:19:46.828170</t>
+          <t>2024-03-15T20:00:40.890275</t>
         </is>
       </c>
       <c r="T163" t="n">
         <v>1</v>
       </c>
       <c r="U163" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V163" t="n">
-        <v>12</v>
-      </c>
-      <c r="W163" t="n">
-        <v>19</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="W163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -16786,7 +16814,11 @@
       <c r="H164" t="b">
         <v>0</v>
       </c>
-      <c r="I164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Geospatial</t>
+        </is>
+      </c>
       <c r="J164" t="inlineStr">
         <is>
           <t>completed</t>
@@ -16832,21 +16864,19 @@
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>2023-11-09T06:19:51.615095</t>
+          <t>2024-03-15T19:30:30.020976</t>
         </is>
       </c>
       <c r="T164" t="n">
         <v>1</v>
       </c>
       <c r="U164" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V164" t="n">
-        <v>9</v>
-      </c>
-      <c r="W164" t="n">
-        <v>12</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="W164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -16935,16 +16965,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U165" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V165" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W165" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -17037,13 +17067,13 @@
         <v>1</v>
       </c>
       <c r="U166" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V166" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W166" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -17136,13 +17166,13 @@
         <v>1</v>
       </c>
       <c r="U167" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V167" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W167" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -17228,16 +17258,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U168" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V168" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="W168" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -17327,16 +17357,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U169" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V169" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W169" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -17429,13 +17459,13 @@
         <v>2</v>
       </c>
       <c r="U170" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V170" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W170" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -17528,15 +17558,15 @@
           <t>2023-11-09T06:20:09.029046</t>
         </is>
       </c>
-      <c r="T171" t="n">
-        <v>1</v>
-      </c>
-      <c r="U171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="n">
+        <v>11</v>
+      </c>
       <c r="V171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W171" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -17626,16 +17656,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U172" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V172" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W172" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -17728,13 +17758,13 @@
         <v>2</v>
       </c>
       <c r="U173" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V173" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W173" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -17824,16 +17854,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U174" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V174" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W174" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -17923,16 +17953,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U175" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V175" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W175" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -18022,16 +18052,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U176" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V176" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W176" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -18121,16 +18151,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U177" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V177" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W177" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -18220,16 +18250,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U178" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V178" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W178" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -18322,13 +18352,13 @@
         <v>2</v>
       </c>
       <c r="U179" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V179" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W179" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -18418,16 +18448,16 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U180" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V180" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W180" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -18517,16 +18547,16 @@
         </is>
       </c>
       <c r="T181" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U181" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V181" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W181" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -18619,13 +18649,13 @@
         <v>1</v>
       </c>
       <c r="U182" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V182" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W182" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -18715,16 +18745,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U183" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V183" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W183" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -18814,16 +18844,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U184" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V184" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W184" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -18916,16 +18946,16 @@
           <t>2024-03-14T21:00:37.791377</t>
         </is>
       </c>
-      <c r="T185" t="inlineStr"/>
+      <c r="T185" t="n">
+        <v>3</v>
+      </c>
       <c r="U185" t="n">
         <v>3</v>
       </c>
       <c r="V185" t="n">
-        <v>3</v>
-      </c>
-      <c r="W185" t="n">
         <v>6</v>
       </c>
+      <c r="W185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -19017,16 +19047,16 @@
           <t>2024-03-14T20:30:31.893189</t>
         </is>
       </c>
-      <c r="T186" t="inlineStr"/>
+      <c r="T186" t="n">
+        <v>3</v>
+      </c>
       <c r="U186" t="n">
         <v>3</v>
       </c>
       <c r="V186" t="n">
-        <v>3</v>
-      </c>
-      <c r="W186" t="n">
         <v>6</v>
       </c>
+      <c r="W186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -19122,13 +19152,13 @@
         <v>1</v>
       </c>
       <c r="U187" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V187" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W187" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -19218,16 +19248,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U188" t="n">
         <v>2</v>
       </c>
       <c r="V188" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W188" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -19320,16 +19350,16 @@
           <t>2024-03-14T20:30:46.582816</t>
         </is>
       </c>
-      <c r="T189" t="inlineStr"/>
+      <c r="T189" t="n">
+        <v>2</v>
+      </c>
       <c r="U189" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V189" t="n">
-        <v>5</v>
-      </c>
-      <c r="W189" t="n">
         <v>7</v>
       </c>
+      <c r="W189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -19421,16 +19451,16 @@
           <t>2024-03-14T20:30:55.490116</t>
         </is>
       </c>
-      <c r="T190" t="inlineStr"/>
+      <c r="T190" t="n">
+        <v>2</v>
+      </c>
       <c r="U190" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V190" t="n">
-        <v>5</v>
-      </c>
-      <c r="W190" t="n">
         <v>7</v>
       </c>
+      <c r="W190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -19522,16 +19552,16 @@
           <t>2024-03-14T20:30:34.616762</t>
         </is>
       </c>
-      <c r="T191" t="inlineStr"/>
+      <c r="T191" t="n">
+        <v>1</v>
+      </c>
       <c r="U191" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V191" t="n">
-        <v>4</v>
-      </c>
-      <c r="W191" t="n">
         <v>5</v>
       </c>
+      <c r="W191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -19620,16 +19650,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V192" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W192" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -19719,16 +19749,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U193" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="V193" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="W193" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -19818,16 +19848,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V194" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W194" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -19920,16 +19950,16 @@
           <t>2024-03-14T20:30:20.984920</t>
         </is>
       </c>
-      <c r="T195" t="inlineStr"/>
+      <c r="T195" t="n">
+        <v>2</v>
+      </c>
       <c r="U195" t="n">
         <v>2</v>
       </c>
       <c r="V195" t="n">
-        <v>2</v>
-      </c>
-      <c r="W195" t="n">
         <v>4</v>
       </c>
+      <c r="W195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -20021,16 +20051,16 @@
           <t>2024-03-14T20:30:40.923051</t>
         </is>
       </c>
-      <c r="T196" t="inlineStr"/>
+      <c r="T196" t="n">
+        <v>3</v>
+      </c>
       <c r="U196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V196" t="n">
-        <v>4</v>
-      </c>
-      <c r="W196" t="n">
         <v>7</v>
       </c>
+      <c r="W196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -20122,16 +20152,16 @@
           <t>2024-03-14T20:30:43.632475</t>
         </is>
       </c>
-      <c r="T197" t="inlineStr"/>
+      <c r="T197" t="n">
+        <v>3</v>
+      </c>
       <c r="U197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V197" t="n">
-        <v>4</v>
-      </c>
-      <c r="W197" t="n">
         <v>7</v>
       </c>
+      <c r="W197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -20223,16 +20253,16 @@
           <t>2024-03-14T20:30:26.507021</t>
         </is>
       </c>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>1</v>
+      </c>
       <c r="U198" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V198" t="n">
-        <v>5</v>
-      </c>
-      <c r="W198" t="n">
         <v>6</v>
       </c>
+      <c r="W198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -20324,16 +20354,16 @@
           <t>2024-03-14T20:00:22.026653</t>
         </is>
       </c>
-      <c r="T199" t="inlineStr"/>
+      <c r="T199" t="n">
+        <v>6</v>
+      </c>
       <c r="U199" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V199" t="n">
-        <v>2</v>
-      </c>
-      <c r="W199" t="n">
         <v>8</v>
       </c>
+      <c r="W199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -20422,16 +20452,16 @@
         </is>
       </c>
       <c r="T200" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U200" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V200" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W200" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -20524,16 +20554,16 @@
           <t>2024-03-14T20:00:38.424770</t>
         </is>
       </c>
-      <c r="T201" t="inlineStr"/>
+      <c r="T201" t="n">
+        <v>2</v>
+      </c>
       <c r="U201" t="n">
         <v>2</v>
       </c>
       <c r="V201" t="n">
-        <v>2</v>
-      </c>
-      <c r="W201" t="n">
         <v>4</v>
       </c>
+      <c r="W201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -20625,16 +20655,16 @@
           <t>2024-03-14T20:00:30.597332</t>
         </is>
       </c>
-      <c r="T202" t="inlineStr"/>
+      <c r="T202" t="n">
+        <v>2</v>
+      </c>
       <c r="U202" t="n">
         <v>2</v>
       </c>
       <c r="V202" t="n">
-        <v>2</v>
-      </c>
-      <c r="W202" t="n">
         <v>4</v>
       </c>
+      <c r="W202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -20726,16 +20756,16 @@
           <t>2024-03-14T20:00:24.731608</t>
         </is>
       </c>
-      <c r="T203" t="inlineStr"/>
+      <c r="T203" t="n">
+        <v>2</v>
+      </c>
       <c r="U203" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V203" t="n">
-        <v>4</v>
-      </c>
-      <c r="W203" t="n">
         <v>6</v>
       </c>
+      <c r="W203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -20827,16 +20857,16 @@
           <t>2024-03-14T20:00:33.017880</t>
         </is>
       </c>
-      <c r="T204" t="inlineStr"/>
+      <c r="T204" t="n">
+        <v>2</v>
+      </c>
       <c r="U204" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V204" t="n">
-        <v>4</v>
-      </c>
-      <c r="W204" t="n">
         <v>6</v>
       </c>
+      <c r="W204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -20929,16 +20959,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U205" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V205" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="W205" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -21032,16 +21062,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U206" t="n">
         <v>2</v>
       </c>
       <c r="V206" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W206" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -21134,13 +21164,13 @@
         <v>1</v>
       </c>
       <c r="U207" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V207" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W207" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -21233,16 +21263,16 @@
           <t>2024-03-14T19:30:34.423785</t>
         </is>
       </c>
-      <c r="T208" t="inlineStr"/>
+      <c r="T208" t="n">
+        <v>1</v>
+      </c>
       <c r="U208" t="n">
         <v>1</v>
       </c>
       <c r="V208" t="n">
-        <v>1</v>
-      </c>
-      <c r="W208" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="W208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -21334,15 +21364,15 @@
           <t>2024-03-14T19:30:49.280197</t>
         </is>
       </c>
-      <c r="T209" t="n">
-        <v>1</v>
-      </c>
-      <c r="U209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="n">
+        <v>3</v>
+      </c>
       <c r="V209" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W209" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -21439,13 +21469,13 @@
         <v>1</v>
       </c>
       <c r="U210" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V210" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W210" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -21538,13 +21568,13 @@
         <v>1</v>
       </c>
       <c r="U211" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V211" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W211" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -21634,16 +21664,16 @@
         </is>
       </c>
       <c r="T212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U212" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V212" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W212" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -21736,16 +21766,16 @@
           <t>2024-03-14T19:30:57.531816</t>
         </is>
       </c>
-      <c r="T213" t="inlineStr"/>
+      <c r="T213" t="n">
+        <v>7</v>
+      </c>
       <c r="U213" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V213" t="n">
-        <v>3</v>
-      </c>
-      <c r="W213" t="n">
         <v>10</v>
       </c>
+      <c r="W213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -21841,13 +21871,13 @@
         <v>1</v>
       </c>
       <c r="U214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V214" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W214" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -21947,10 +21977,10 @@
         <v>1</v>
       </c>
       <c r="V215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -22043,16 +22073,16 @@
           <t>2024-03-14T18:30:29.597676</t>
         </is>
       </c>
-      <c r="T216" t="inlineStr"/>
+      <c r="T216" t="n">
+        <v>1</v>
+      </c>
       <c r="U216" t="n">
         <v>1</v>
       </c>
       <c r="V216" t="n">
-        <v>1</v>
-      </c>
-      <c r="W216" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="W216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -22141,18 +22171,20 @@
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>2024-03-14T19:30:17.583708</t>
-        </is>
-      </c>
-      <c r="T217" t="inlineStr"/>
+          <t>2024-03-15T15:00:34.916244</t>
+        </is>
+      </c>
+      <c r="T217" t="n">
+        <v>1</v>
+      </c>
       <c r="U217" t="n">
         <v>2</v>
       </c>
       <c r="V217" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W217" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -22245,15 +22277,118 @@
           <t>2024-03-15T14:30:16.526958</t>
         </is>
       </c>
-      <c r="T218" t="inlineStr"/>
+      <c r="T218" t="n">
+        <v>1</v>
+      </c>
       <c r="U218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V218" t="n">
-        <v>2</v>
-      </c>
-      <c r="W218" t="n">
         <v>3</v>
+      </c>
+      <c r="W218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>0c4f898c-e175-4c61-9290-e232dc866c86</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ca-cioos_b8483c9e-81e6-4e1a-b09f-2d66f8fee9a2</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Hakai Institute</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Spatial extent of surface canopy kelp (Nereocystis luetkeana) derived from fixed-wing surveys (2023), Denman Island to south Quadra Island, British Columbia, Canada</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="H219" t="b">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Airborne Coastal Observatory, Nearshore, Geospatial</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>Hakai Institute</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>{'type': 'Polygon', 'coordinates': [[[-125.3, 50.02], [-125.1, 50.05], [-125.1, 49.9], [-124.8, 49.71], [-124.7, 49.56], [-124.8, 49.55], [-124.9, 49.64], [-125.2, 49.9], [-125.2, 49.9], [-125.3, 50.02]]]}</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[{'max': '0.0', 'min': '0.0'}]</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>macroalgalCanopyCoverAndComposition</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>2024-03-15T17:00:31.426259</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>2024-03-15T17:00:31.426266</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>1</v>
+      </c>
+      <c r="U219" t="n">
+        <v>3</v>
+      </c>
+      <c r="V219" t="n">
+        <v>5</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -526,22 +526,22 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>INFO</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>WARNING</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>sum</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>ERROR</t>
         </is>
       </c>
     </row>
@@ -635,16 +635,16 @@
           <t>2024-03-14T19:30:43.788899</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
         <v>4</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>5</v>
       </c>
-      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -736,16 +736,16 @@
           <t>2024-03-14T19:31:01.305403</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
         <v>4</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>6</v>
       </c>
-      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -837,16 +837,16 @@
           <t>2024-03-15T20:30:16.716891</t>
         </is>
       </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
         <v>4</v>
       </c>
-      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -938,16 +938,16 @@
           <t>2024-03-15T20:30:29.197619</t>
         </is>
       </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
         <v>2</v>
       </c>
       <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
         <v>4</v>
       </c>
-      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1039,16 +1039,16 @@
           <t>2024-03-14T17:30:27.306180</t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
         <v>4</v>
       </c>
-      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
         <v>3</v>
       </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
       <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
         <v>6</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
         <v>3</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>6</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1346,16 +1346,16 @@
           <t>2024-03-14T18:30:24.982757</t>
         </is>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
         <v>4</v>
       </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
       <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
         <v>6</v>
       </c>
-      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1447,16 +1447,16 @@
           <t>2024-03-14T19:30:54.426502</t>
         </is>
       </c>
-      <c r="T10" t="n">
-        <v>2</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
         <v>4</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>6</v>
       </c>
-      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1548,16 +1548,16 @@
           <t>2024-03-15T21:00:34.988844</t>
         </is>
       </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
         <v>3</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>4</v>
       </c>
-      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1649,16 +1649,16 @@
           <t>2024-03-14T21:00:46.279277</t>
         </is>
       </c>
-      <c r="T12" t="n">
-        <v>2</v>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
         <v>3</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>5</v>
       </c>
-      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1750,16 +1750,16 @@
           <t>2024-03-14T21:00:40.498095</t>
         </is>
       </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
         <v>2</v>
       </c>
       <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
         <v>4</v>
       </c>
-      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1851,16 +1851,16 @@
           <t>2024-03-14T21:00:43.286909</t>
         </is>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
         <v>5</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>4</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>9</v>
       </c>
-      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1952,16 +1952,16 @@
           <t>2024-03-15T20:30:18.878382</t>
         </is>
       </c>
-      <c r="T15" t="n">
-        <v>2</v>
-      </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
         <v>5</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>7</v>
       </c>
-      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2053,16 +2053,16 @@
           <t>2024-03-14T21:30:20.314692</t>
         </is>
       </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
         <v>3</v>
       </c>
-      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2154,16 +2154,16 @@
           <t>2024-03-14T21:30:22.612231</t>
         </is>
       </c>
-      <c r="T17" t="n">
-        <v>2</v>
-      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
         <v>2</v>
       </c>
       <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
         <v>4</v>
       </c>
-      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2255,16 +2255,16 @@
           <t>2024-03-15T21:00:49.907550</t>
         </is>
       </c>
-      <c r="T18" t="n">
-        <v>1</v>
-      </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
         <v>3</v>
       </c>
-      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2356,16 +2356,16 @@
           <t>2024-03-14T22:00:22.177109</t>
         </is>
       </c>
-      <c r="T19" t="n">
-        <v>2</v>
-      </c>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
         <v>2</v>
       </c>
       <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
         <v>4</v>
       </c>
-      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2457,16 +2457,16 @@
           <t>2024-03-15T21:00:44.016887</t>
         </is>
       </c>
-      <c r="T20" t="n">
-        <v>1</v>
-      </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
         <v>3</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>4</v>
       </c>
-      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2559,16 +2559,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
         <v>3</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>6</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2661,16 +2661,16 @@
           <t>2024-03-15T21:00:38.288990</t>
         </is>
       </c>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
         <v>3</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>4</v>
       </c>
-      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2762,16 +2762,16 @@
           <t>2024-03-15T21:00:54.285779</t>
         </is>
       </c>
-      <c r="T23" t="n">
-        <v>2</v>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
         <v>4</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>6</v>
       </c>
-      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2863,16 +2863,16 @@
           <t>2024-03-14T23:00:40.134970</t>
         </is>
       </c>
-      <c r="T24" t="n">
-        <v>1</v>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
         <v>3</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>4</v>
       </c>
-      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2964,16 +2964,16 @@
           <t>2024-03-14T23:00:33.828279</t>
         </is>
       </c>
-      <c r="T25" t="n">
-        <v>2</v>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
         <v>2</v>
       </c>
       <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
         <v>4</v>
       </c>
-      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3065,16 +3065,16 @@
           <t>2024-03-14T23:30:15.278114</t>
         </is>
       </c>
-      <c r="T26" t="n">
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="n">
         <v>5</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>4</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>9</v>
       </c>
-      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3166,16 +3166,16 @@
           <t>2024-03-14T23:00:42.877625</t>
         </is>
       </c>
-      <c r="T27" t="n">
-        <v>1</v>
-      </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
         <v>3</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>4</v>
       </c>
-      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3264,16 +3264,16 @@
         </is>
       </c>
       <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
         <v>3</v>
       </c>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
       <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="n">
         <v>6</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -3366,16 +3366,16 @@
           <t>2024-03-14T23:30:23.288687</t>
         </is>
       </c>
-      <c r="T29" t="n">
-        <v>2</v>
-      </c>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
         <v>3</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>5</v>
       </c>
-      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3468,16 +3468,16 @@
         </is>
       </c>
       <c r="T30" t="n">
+        <v>2</v>
+      </c>
+      <c r="U30" t="n">
         <v>3</v>
       </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
       <c r="V30" t="n">
+        <v>2</v>
+      </c>
+      <c r="W30" t="n">
         <v>7</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -3570,16 +3570,16 @@
           <t>2024-03-15T22:30:16.080638</t>
         </is>
       </c>
-      <c r="T31" t="n">
-        <v>1</v>
-      </c>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
         <v>3</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>4</v>
       </c>
-      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3671,16 +3671,16 @@
           <t>2024-03-15T19:00:37.316621</t>
         </is>
       </c>
-      <c r="T32" t="n">
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="n">
         <v>4</v>
       </c>
-      <c r="U32" t="n">
-        <v>2</v>
-      </c>
       <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
         <v>6</v>
       </c>
-      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3772,16 +3772,16 @@
           <t>2024-03-15T19:00:33.601991</t>
         </is>
       </c>
-      <c r="T33" t="n">
-        <v>2</v>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
         <v>2</v>
       </c>
       <c r="V33" t="n">
+        <v>2</v>
+      </c>
+      <c r="W33" t="n">
         <v>4</v>
       </c>
-      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3873,16 +3873,16 @@
           <t>2024-03-15T19:30:18.784998</t>
         </is>
       </c>
-      <c r="T34" t="n">
-        <v>1</v>
-      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
         <v>3</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>4</v>
       </c>
-      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3974,16 +3974,16 @@
           <t>2024-03-15T19:30:34.980201</t>
         </is>
       </c>
-      <c r="T35" t="n">
-        <v>1</v>
-      </c>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
         <v>4</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>5</v>
       </c>
-      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4075,16 +4075,16 @@
           <t>2024-03-15T19:30:21.501824</t>
         </is>
       </c>
-      <c r="T36" t="n">
-        <v>2</v>
-      </c>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
         <v>3</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>5</v>
       </c>
-      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4176,16 +4176,16 @@
           <t>2024-03-15T20:00:52.318414</t>
         </is>
       </c>
-      <c r="T37" t="n">
-        <v>2</v>
-      </c>
+      <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
         <v>3</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>5</v>
       </c>
-      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4278,16 +4278,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
         <v>3</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>6</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4380,16 +4380,16 @@
           <t>2024-03-15T21:00:57.320476</t>
         </is>
       </c>
-      <c r="T39" t="n">
-        <v>2</v>
-      </c>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
         <v>2</v>
       </c>
       <c r="V39" t="n">
+        <v>2</v>
+      </c>
+      <c r="W39" t="n">
         <v>4</v>
       </c>
-      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4481,16 +4481,16 @@
           <t>2024-03-15T20:30:23.904982</t>
         </is>
       </c>
-      <c r="T40" t="n">
-        <v>4</v>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
         <v>4</v>
       </c>
       <c r="V40" t="n">
+        <v>4</v>
+      </c>
+      <c r="W40" t="n">
         <v>8</v>
       </c>
-      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4582,16 +4582,16 @@
           <t>2024-03-15T23:30:20.502835</t>
         </is>
       </c>
-      <c r="T41" t="n">
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="n">
         <v>3</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>4</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>7</v>
       </c>
-      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4683,16 +4683,16 @@
           <t>2024-03-15T23:30:23.489408</t>
         </is>
       </c>
-      <c r="T42" t="n">
-        <v>2</v>
-      </c>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
         <v>3</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>5</v>
       </c>
-      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4785,16 +4785,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
         <v>3</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>6</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4887,13 +4887,13 @@
         <v>1</v>
       </c>
       <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
         <v>7</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>9</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -4983,16 +4983,16 @@
         </is>
       </c>
       <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="n">
         <v>4</v>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>9</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>15</v>
-      </c>
-      <c r="W45" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -5089,13 +5089,13 @@
         <v>1</v>
       </c>
       <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
         <v>3</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>5</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -5185,16 +5185,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
         <v>11</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>14</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -5284,16 +5284,16 @@
         </is>
       </c>
       <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
         <v>10</v>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>5</v>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>16</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -5383,16 +5383,16 @@
         </is>
       </c>
       <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
         <v>4</v>
       </c>
-      <c r="U49" t="n">
+      <c r="V49" t="n">
         <v>9</v>
       </c>
-      <c r="V49" t="n">
+      <c r="W49" t="n">
         <v>14</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -5482,16 +5482,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
         <v>10</v>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>13</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -5581,16 +5581,16 @@
         </is>
       </c>
       <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
         <v>4</v>
       </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
         <v>5</v>
       </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
         <v>10</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -5684,16 +5684,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
         <v>3</v>
       </c>
       <c r="V52" t="n">
+        <v>3</v>
+      </c>
+      <c r="W52" t="n">
         <v>7</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -5783,16 +5783,16 @@
         </is>
       </c>
       <c r="T53" t="n">
+        <v>2</v>
+      </c>
+      <c r="U53" t="n">
         <v>7</v>
       </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>10</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>19</v>
-      </c>
-      <c r="W53" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -5882,16 +5882,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
         <v>8</v>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>11</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -5984,13 +5984,13 @@
         <v>1</v>
       </c>
       <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
         <v>7</v>
       </c>
-      <c r="V55" t="n">
+      <c r="W55" t="n">
         <v>9</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -6080,16 +6080,16 @@
         </is>
       </c>
       <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
         <v>4</v>
       </c>
-      <c r="U56" t="n">
+      <c r="V56" t="n">
         <v>8</v>
       </c>
-      <c r="V56" t="n">
+      <c r="W56" t="n">
         <v>13</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -6179,16 +6179,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
         <v>9</v>
       </c>
-      <c r="V57" t="n">
+      <c r="W57" t="n">
         <v>12</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -6278,16 +6278,16 @@
         </is>
       </c>
       <c r="T58" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" t="n">
         <v>6</v>
       </c>
-      <c r="U58" t="n">
+      <c r="V58" t="n">
         <v>3</v>
       </c>
-      <c r="V58" t="n">
+      <c r="W58" t="n">
         <v>11</v>
-      </c>
-      <c r="W58" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -6380,13 +6380,13 @@
         <v>1</v>
       </c>
       <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
         <v>6</v>
       </c>
-      <c r="V59" t="n">
+      <c r="W59" t="n">
         <v>8</v>
-      </c>
-      <c r="W59" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -6479,16 +6479,16 @@
           <t>2024-02-05T18:10:12.317757</t>
         </is>
       </c>
-      <c r="T60" t="n">
-        <v>1</v>
-      </c>
+      <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
         <v>4</v>
       </c>
-      <c r="V60" t="n">
+      <c r="W60" t="n">
         <v>5</v>
       </c>
-      <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6584,13 +6584,13 @@
         <v>2</v>
       </c>
       <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
         <v>5</v>
       </c>
-      <c r="V61" t="n">
+      <c r="W61" t="n">
         <v>9</v>
-      </c>
-      <c r="W61" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -6680,16 +6680,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
         <v>7</v>
       </c>
-      <c r="V62" t="n">
+      <c r="W62" t="n">
         <v>10</v>
-      </c>
-      <c r="W62" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -6779,16 +6779,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
         <v>5</v>
       </c>
-      <c r="V63" t="n">
+      <c r="W63" t="n">
         <v>8</v>
-      </c>
-      <c r="W63" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -6878,16 +6878,16 @@
         </is>
       </c>
       <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="n">
         <v>4</v>
       </c>
-      <c r="U64" t="n">
+      <c r="V64" t="n">
         <v>7</v>
       </c>
-      <c r="V64" t="n">
+      <c r="W64" t="n">
         <v>12</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
         <v>4</v>
       </c>
-      <c r="V65" t="n">
+      <c r="W65" t="n">
         <v>7</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -7080,16 +7080,16 @@
         </is>
       </c>
       <c r="T66" t="n">
+        <v>2</v>
+      </c>
+      <c r="U66" t="n">
         <v>4</v>
       </c>
-      <c r="U66" t="n">
+      <c r="V66" t="n">
         <v>7</v>
       </c>
-      <c r="V66" t="n">
+      <c r="W66" t="n">
         <v>13</v>
-      </c>
-      <c r="W66" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -7182,13 +7182,13 @@
         <v>1</v>
       </c>
       <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
         <v>8</v>
       </c>
-      <c r="V67" t="n">
+      <c r="W67" t="n">
         <v>10</v>
-      </c>
-      <c r="W67" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -7278,16 +7278,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
         <v>10</v>
       </c>
-      <c r="V68" t="n">
+      <c r="W68" t="n">
         <v>13</v>
-      </c>
-      <c r="W68" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -7380,13 +7380,13 @@
         <v>2</v>
       </c>
       <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
         <v>17</v>
       </c>
-      <c r="V69" t="n">
+      <c r="W69" t="n">
         <v>21</v>
-      </c>
-      <c r="W69" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -7479,16 +7479,16 @@
           <t>2023-11-09T06:15:41.026397</t>
         </is>
       </c>
-      <c r="T70" t="n">
-        <v>1</v>
-      </c>
+      <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
         <v>9</v>
       </c>
-      <c r="V70" t="n">
+      <c r="W70" t="n">
         <v>10</v>
       </c>
-      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7580,16 +7580,16 @@
           <t>2024-01-18T18:46:25.686597</t>
         </is>
       </c>
-      <c r="T71" t="n">
-        <v>2</v>
-      </c>
+      <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
         <v>4</v>
       </c>
-      <c r="V71" t="n">
+      <c r="W71" t="n">
         <v>6</v>
       </c>
-      <c r="W71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7678,16 +7678,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
         <v>12</v>
       </c>
-      <c r="V72" t="n">
+      <c r="W72" t="n">
         <v>15</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -7777,16 +7777,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
         <v>6</v>
       </c>
-      <c r="V73" t="n">
+      <c r="W73" t="n">
         <v>9</v>
-      </c>
-      <c r="W73" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -7876,16 +7876,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
         <v>9</v>
       </c>
-      <c r="V74" t="n">
+      <c r="W74" t="n">
         <v>12</v>
-      </c>
-      <c r="W74" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -7979,13 +7979,13 @@
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="n">
-        <v>2</v>
-      </c>
+      <c r="U75" t="inlineStr"/>
       <c r="V75" t="n">
         <v>2</v>
       </c>
-      <c r="W75" t="inlineStr"/>
+      <c r="W75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8078,13 +8078,13 @@
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="n">
-        <v>3</v>
-      </c>
+      <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
         <v>3</v>
       </c>
-      <c r="W76" t="inlineStr"/>
+      <c r="W76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8180,13 +8180,13 @@
         <v>2</v>
       </c>
       <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
         <v>3</v>
       </c>
-      <c r="V77" t="n">
+      <c r="W77" t="n">
         <v>7</v>
-      </c>
-      <c r="W77" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -8279,16 +8279,16 @@
           <t>2024-03-14T19:00:38.698999</t>
         </is>
       </c>
-      <c r="T78" t="n">
-        <v>1</v>
-      </c>
+      <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V78" t="n">
+        <v>2</v>
+      </c>
+      <c r="W78" t="n">
         <v>3</v>
       </c>
-      <c r="W78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8380,16 +8380,16 @@
           <t>2024-03-14T19:00:44.318079</t>
         </is>
       </c>
-      <c r="T79" t="n">
-        <v>1</v>
-      </c>
+      <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V79" t="n">
+        <v>2</v>
+      </c>
+      <c r="W79" t="n">
         <v>3</v>
       </c>
-      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8481,16 +8481,16 @@
           <t>2024-03-14T19:30:37.998721</t>
         </is>
       </c>
-      <c r="T80" t="n">
-        <v>2</v>
-      </c>
+      <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
         <v>2</v>
       </c>
       <c r="V80" t="n">
+        <v>2</v>
+      </c>
+      <c r="W80" t="n">
         <v>4</v>
       </c>
-      <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8582,16 +8582,16 @@
           <t>2024-03-14T19:31:05.183801</t>
         </is>
       </c>
-      <c r="T81" t="n">
-        <v>1</v>
-      </c>
+      <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
         <v>5</v>
       </c>
-      <c r="V81" t="n">
+      <c r="W81" t="n">
         <v>6</v>
       </c>
-      <c r="W81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -8683,16 +8683,16 @@
           <t>2024-03-15T19:30:32.284153</t>
         </is>
       </c>
-      <c r="T82" t="n">
-        <v>2</v>
-      </c>
+      <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V82" t="n">
+        <v>1</v>
+      </c>
+      <c r="W82" t="n">
         <v>3</v>
       </c>
-      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8788,13 +8788,13 @@
         <v>1</v>
       </c>
       <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
         <v>3</v>
       </c>
-      <c r="V83" t="n">
+      <c r="W83" t="n">
         <v>5</v>
-      </c>
-      <c r="W83" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -8887,16 +8887,16 @@
           <t>2024-03-15T20:00:57.928311</t>
         </is>
       </c>
-      <c r="T84" t="n">
-        <v>2</v>
-      </c>
+      <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
         <v>2</v>
       </c>
       <c r="V84" t="n">
+        <v>2</v>
+      </c>
+      <c r="W84" t="n">
         <v>4</v>
       </c>
-      <c r="W84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -8988,16 +8988,16 @@
           <t>2024-03-15T20:00:38.090269</t>
         </is>
       </c>
-      <c r="T85" t="n">
-        <v>2</v>
-      </c>
+      <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
         <v>2</v>
       </c>
       <c r="V85" t="n">
+        <v>2</v>
+      </c>
+      <c r="W85" t="n">
         <v>4</v>
       </c>
-      <c r="W85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9090,13 +9090,13 @@
         </is>
       </c>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="n">
-        <v>2</v>
-      </c>
+      <c r="U86" t="inlineStr"/>
       <c r="V86" t="n">
         <v>2</v>
       </c>
-      <c r="W86" t="inlineStr"/>
+      <c r="W86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9192,13 +9192,13 @@
         <v>1</v>
       </c>
       <c r="U87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V87" t="n">
+        <v>2</v>
+      </c>
+      <c r="W87" t="n">
         <v>4</v>
-      </c>
-      <c r="W87" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -9291,16 +9291,16 @@
           <t>2024-03-15T20:30:21.295190</t>
         </is>
       </c>
-      <c r="T88" t="n">
-        <v>1</v>
-      </c>
+      <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
         <v>3</v>
       </c>
-      <c r="V88" t="n">
+      <c r="W88" t="n">
         <v>4</v>
       </c>
-      <c r="W88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9389,16 +9389,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
         <v>7</v>
       </c>
-      <c r="V89" t="n">
+      <c r="W89" t="n">
         <v>10</v>
-      </c>
-      <c r="W89" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -9491,16 +9491,16 @@
           <t>2023-11-09T06:16:38.779610</t>
         </is>
       </c>
-      <c r="T90" t="n">
-        <v>2</v>
-      </c>
+      <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
         <v>12</v>
       </c>
-      <c r="V90" t="n">
+      <c r="W90" t="n">
         <v>14</v>
       </c>
-      <c r="W90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9589,16 +9589,16 @@
         </is>
       </c>
       <c r="T91" t="n">
+        <v>1</v>
+      </c>
+      <c r="U91" t="n">
         <v>8</v>
       </c>
-      <c r="U91" t="n">
+      <c r="V91" t="n">
         <v>7</v>
       </c>
-      <c r="V91" t="n">
+      <c r="W91" t="n">
         <v>16</v>
-      </c>
-      <c r="W91" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -9688,16 +9688,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
         <v>9</v>
       </c>
-      <c r="V92" t="n">
+      <c r="W92" t="n">
         <v>12</v>
-      </c>
-      <c r="W92" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -9787,16 +9787,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
         <v>5</v>
       </c>
-      <c r="V93" t="n">
+      <c r="W93" t="n">
         <v>8</v>
-      </c>
-      <c r="W93" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -9886,16 +9886,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
         <v>8</v>
       </c>
-      <c r="V94" t="n">
+      <c r="W94" t="n">
         <v>11</v>
-      </c>
-      <c r="W94" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -9985,16 +9985,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
         <v>8</v>
       </c>
-      <c r="V95" t="n">
+      <c r="W95" t="n">
         <v>11</v>
-      </c>
-      <c r="W95" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -10084,16 +10084,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
         <v>8</v>
       </c>
-      <c r="V96" t="n">
+      <c r="W96" t="n">
         <v>11</v>
-      </c>
-      <c r="W96" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -10187,16 +10187,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
         <v>4</v>
       </c>
-      <c r="V97" t="n">
+      <c r="W97" t="n">
         <v>7</v>
-      </c>
-      <c r="W97" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -10290,16 +10290,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U98" t="n">
         <v>2</v>
       </c>
       <c r="V98" t="n">
+        <v>2</v>
+      </c>
+      <c r="W98" t="n">
         <v>5</v>
-      </c>
-      <c r="W98" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -10389,16 +10389,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
         <v>10</v>
       </c>
-      <c r="V99" t="n">
+      <c r="W99" t="n">
         <v>13</v>
-      </c>
-      <c r="W99" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -10491,16 +10491,16 @@
           <t>2023-11-09T06:17:03.029321</t>
         </is>
       </c>
-      <c r="T100" t="n">
-        <v>1</v>
-      </c>
+      <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V100" t="n">
+        <v>2</v>
+      </c>
+      <c r="W100" t="n">
         <v>3</v>
       </c>
-      <c r="W100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="T101" t="inlineStr"/>
-      <c r="U101" t="n">
-        <v>10</v>
-      </c>
+      <c r="U101" t="inlineStr"/>
       <c r="V101" t="n">
         <v>10</v>
       </c>
-      <c r="W101" t="inlineStr"/>
+      <c r="W101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -10688,16 +10688,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
         <v>9</v>
       </c>
-      <c r="V102" t="n">
+      <c r="W102" t="n">
         <v>12</v>
-      </c>
-      <c r="W102" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -10787,16 +10787,16 @@
         </is>
       </c>
       <c r="T103" t="n">
+        <v>2</v>
+      </c>
+      <c r="U103" t="n">
         <v>6</v>
       </c>
-      <c r="U103" t="n">
+      <c r="V103" t="n">
         <v>10</v>
       </c>
-      <c r="V103" t="n">
+      <c r="W103" t="n">
         <v>18</v>
-      </c>
-      <c r="W103" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -10886,16 +10886,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
         <v>11</v>
       </c>
-      <c r="V104" t="n">
+      <c r="W104" t="n">
         <v>14</v>
-      </c>
-      <c r="W104" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -10985,16 +10985,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U105" t="n">
+        <v>2</v>
+      </c>
+      <c r="V105" t="n">
         <v>11</v>
       </c>
-      <c r="V105" t="n">
+      <c r="W105" t="n">
         <v>14</v>
-      </c>
-      <c r="W105" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
         <v>4</v>
       </c>
-      <c r="V106" t="n">
+      <c r="W106" t="n">
         <v>7</v>
-      </c>
-      <c r="W106" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -11183,16 +11183,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
         <v>3</v>
       </c>
-      <c r="V107" t="n">
+      <c r="W107" t="n">
         <v>7</v>
-      </c>
-      <c r="W107" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -11282,16 +11282,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U108" t="n">
+        <v>2</v>
+      </c>
+      <c r="V108" t="n">
         <v>6</v>
       </c>
-      <c r="V108" t="n">
+      <c r="W108" t="n">
         <v>9</v>
-      </c>
-      <c r="W108" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -11381,16 +11381,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U109" t="n">
+        <v>2</v>
+      </c>
+      <c r="V109" t="n">
         <v>7</v>
       </c>
-      <c r="V109" t="n">
+      <c r="W109" t="n">
         <v>13</v>
-      </c>
-      <c r="W109" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -11480,16 +11480,16 @@
         </is>
       </c>
       <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
         <v>6</v>
       </c>
-      <c r="U110" t="n">
+      <c r="V110" t="n">
         <v>4</v>
       </c>
-      <c r="V110" t="n">
+      <c r="W110" t="n">
         <v>11</v>
-      </c>
-      <c r="W110" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -11579,16 +11579,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U111" t="n">
+        <v>2</v>
+      </c>
+      <c r="V111" t="n">
         <v>6</v>
       </c>
-      <c r="V111" t="n">
+      <c r="W111" t="n">
         <v>9</v>
-      </c>
-      <c r="W111" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -11678,16 +11678,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U112" t="n">
+        <v>2</v>
+      </c>
+      <c r="V112" t="n">
         <v>7</v>
       </c>
-      <c r="V112" t="n">
+      <c r="W112" t="n">
         <v>10</v>
-      </c>
-      <c r="W112" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -11780,13 +11780,13 @@
         <v>1</v>
       </c>
       <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
         <v>10</v>
       </c>
-      <c r="V113" t="n">
+      <c r="W113" t="n">
         <v>12</v>
-      </c>
-      <c r="W113" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -11876,16 +11876,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U114" t="n">
+        <v>2</v>
+      </c>
+      <c r="V114" t="n">
         <v>9</v>
       </c>
-      <c r="V114" t="n">
+      <c r="W114" t="n">
         <v>12</v>
-      </c>
-      <c r="W114" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -11975,16 +11975,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U115" t="n">
+        <v>2</v>
+      </c>
+      <c r="V115" t="n">
         <v>7</v>
       </c>
-      <c r="V115" t="n">
+      <c r="W115" t="n">
         <v>10</v>
-      </c>
-      <c r="W115" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -12078,16 +12078,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U116" t="n">
+        <v>2</v>
+      </c>
+      <c r="V116" t="n">
         <v>4</v>
       </c>
-      <c r="V116" t="n">
+      <c r="W116" t="n">
         <v>7</v>
-      </c>
-      <c r="W116" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -12177,16 +12177,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U117" t="n">
+        <v>1</v>
+      </c>
+      <c r="V117" t="n">
         <v>11</v>
       </c>
-      <c r="V117" t="n">
+      <c r="W117" t="n">
         <v>15</v>
-      </c>
-      <c r="W117" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -12276,16 +12276,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U118" t="n">
+        <v>2</v>
+      </c>
+      <c r="V118" t="n">
         <v>8</v>
       </c>
-      <c r="V118" t="n">
+      <c r="W118" t="n">
         <v>11</v>
-      </c>
-      <c r="W118" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -12378,13 +12378,13 @@
         <v>1</v>
       </c>
       <c r="U119" t="n">
+        <v>1</v>
+      </c>
+      <c r="V119" t="n">
         <v>8</v>
       </c>
-      <c r="V119" t="n">
+      <c r="W119" t="n">
         <v>10</v>
-      </c>
-      <c r="W119" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -12477,16 +12477,16 @@
           <t>2024-01-18T18:46:53.880788</t>
         </is>
       </c>
-      <c r="T120" t="n">
-        <v>1</v>
-      </c>
+      <c r="T120" t="inlineStr"/>
       <c r="U120" t="n">
+        <v>1</v>
+      </c>
+      <c r="V120" t="n">
         <v>4</v>
       </c>
-      <c r="V120" t="n">
+      <c r="W120" t="n">
         <v>5</v>
       </c>
-      <c r="W120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -12575,16 +12575,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U121" t="n">
+        <v>2</v>
+      </c>
+      <c r="V121" t="n">
         <v>9</v>
       </c>
-      <c r="V121" t="n">
+      <c r="W121" t="n">
         <v>12</v>
-      </c>
-      <c r="W121" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -12674,16 +12674,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U122" t="n">
+        <v>2</v>
+      </c>
+      <c r="V122" t="n">
         <v>9</v>
       </c>
-      <c r="V122" t="n">
+      <c r="W122" t="n">
         <v>12</v>
-      </c>
-      <c r="W122" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -12773,16 +12773,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U123" t="n">
+        <v>2</v>
+      </c>
+      <c r="V123" t="n">
         <v>8</v>
       </c>
-      <c r="V123" t="n">
+      <c r="W123" t="n">
         <v>11</v>
-      </c>
-      <c r="W123" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -12875,16 +12875,16 @@
           <t>2023-11-09T06:18:00.431832</t>
         </is>
       </c>
-      <c r="T124" t="n">
-        <v>1</v>
-      </c>
+      <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
+        <v>1</v>
+      </c>
+      <c r="V124" t="n">
         <v>11</v>
       </c>
-      <c r="V124" t="n">
+      <c r="W124" t="n">
         <v>12</v>
       </c>
-      <c r="W124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -12973,16 +12973,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U125" t="n">
+        <v>2</v>
+      </c>
+      <c r="V125" t="n">
         <v>7</v>
       </c>
-      <c r="V125" t="n">
+      <c r="W125" t="n">
         <v>10</v>
-      </c>
-      <c r="W125" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -13072,16 +13072,16 @@
         </is>
       </c>
       <c r="T126" t="n">
+        <v>2</v>
+      </c>
+      <c r="U126" t="n">
         <v>4</v>
       </c>
-      <c r="U126" t="n">
+      <c r="V126" t="n">
         <v>5</v>
       </c>
-      <c r="V126" t="n">
+      <c r="W126" t="n">
         <v>11</v>
-      </c>
-      <c r="W126" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -13171,16 +13171,16 @@
         </is>
       </c>
       <c r="T127" t="n">
+        <v>2</v>
+      </c>
+      <c r="U127" t="n">
         <v>5</v>
       </c>
-      <c r="U127" t="n">
+      <c r="V127" t="n">
         <v>8</v>
       </c>
-      <c r="V127" t="n">
+      <c r="W127" t="n">
         <v>15</v>
-      </c>
-      <c r="W127" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -13270,16 +13270,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U128" t="n">
+        <v>2</v>
+      </c>
+      <c r="V128" t="n">
         <v>9</v>
       </c>
-      <c r="V128" t="n">
+      <c r="W128" t="n">
         <v>12</v>
-      </c>
-      <c r="W128" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -13372,13 +13372,13 @@
         <v>1</v>
       </c>
       <c r="U129" t="n">
+        <v>1</v>
+      </c>
+      <c r="V129" t="n">
         <v>5</v>
       </c>
-      <c r="V129" t="n">
+      <c r="W129" t="n">
         <v>7</v>
-      </c>
-      <c r="W129" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -13471,16 +13471,16 @@
           <t>2023-11-09T06:18:16.907286</t>
         </is>
       </c>
-      <c r="T130" t="n">
-        <v>1</v>
-      </c>
+      <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V130" t="n">
+        <v>2</v>
+      </c>
+      <c r="W130" t="n">
         <v>3</v>
       </c>
-      <c r="W130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -13569,16 +13569,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U131" t="n">
+        <v>2</v>
+      </c>
+      <c r="V131" t="n">
         <v>11</v>
       </c>
-      <c r="V131" t="n">
+      <c r="W131" t="n">
         <v>14</v>
-      </c>
-      <c r="W131" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -13671,13 +13671,13 @@
         <v>1</v>
       </c>
       <c r="U132" t="n">
+        <v>1</v>
+      </c>
+      <c r="V132" t="n">
         <v>7</v>
       </c>
-      <c r="V132" t="n">
+      <c r="W132" t="n">
         <v>9</v>
-      </c>
-      <c r="W132" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -13767,16 +13767,16 @@
         </is>
       </c>
       <c r="T133" t="n">
+        <v>2</v>
+      </c>
+      <c r="U133" t="n">
         <v>4</v>
       </c>
-      <c r="U133" t="n">
+      <c r="V133" t="n">
         <v>5</v>
       </c>
-      <c r="V133" t="n">
+      <c r="W133" t="n">
         <v>11</v>
-      </c>
-      <c r="W133" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -13870,16 +13870,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U134" t="n">
         <v>2</v>
       </c>
       <c r="V134" t="n">
+        <v>2</v>
+      </c>
+      <c r="W134" t="n">
         <v>5</v>
-      </c>
-      <c r="W134" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -13969,16 +13969,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U135" t="n">
+        <v>2</v>
+      </c>
+      <c r="V135" t="n">
         <v>7</v>
       </c>
-      <c r="V135" t="n">
+      <c r="W135" t="n">
         <v>10</v>
-      </c>
-      <c r="W135" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -14068,16 +14068,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U136" t="n">
+        <v>2</v>
+      </c>
+      <c r="V136" t="n">
         <v>8</v>
       </c>
-      <c r="V136" t="n">
+      <c r="W136" t="n">
         <v>11</v>
-      </c>
-      <c r="W136" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -14167,16 +14167,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U137" t="n">
+        <v>2</v>
+      </c>
+      <c r="V137" t="n">
         <v>8</v>
       </c>
-      <c r="V137" t="n">
+      <c r="W137" t="n">
         <v>11</v>
-      </c>
-      <c r="W137" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -14270,16 +14270,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U138" t="n">
+        <v>2</v>
+      </c>
+      <c r="V138" t="n">
         <v>11</v>
       </c>
-      <c r="V138" t="n">
+      <c r="W138" t="n">
         <v>14</v>
-      </c>
-      <c r="W138" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -14372,13 +14372,13 @@
         <v>2</v>
       </c>
       <c r="U139" t="n">
+        <v>2</v>
+      </c>
+      <c r="V139" t="n">
         <v>13</v>
       </c>
-      <c r="V139" t="n">
+      <c r="W139" t="n">
         <v>17</v>
-      </c>
-      <c r="W139" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -14472,16 +14472,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U140" t="n">
         <v>3</v>
       </c>
       <c r="V140" t="n">
+        <v>3</v>
+      </c>
+      <c r="W140" t="n">
         <v>7</v>
-      </c>
-      <c r="W140" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -14571,16 +14571,16 @@
         </is>
       </c>
       <c r="T141" t="n">
+        <v>1</v>
+      </c>
+      <c r="U141" t="n">
         <v>5</v>
       </c>
-      <c r="U141" t="n">
+      <c r="V141" t="n">
         <v>6</v>
       </c>
-      <c r="V141" t="n">
+      <c r="W141" t="n">
         <v>12</v>
-      </c>
-      <c r="W141" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -14670,16 +14670,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U142" t="n">
         <v>5</v>
       </c>
       <c r="V142" t="n">
+        <v>5</v>
+      </c>
+      <c r="W142" t="n">
         <v>11</v>
-      </c>
-      <c r="W142" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -14769,16 +14769,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U143" t="n">
+        <v>2</v>
+      </c>
+      <c r="V143" t="n">
         <v>5</v>
       </c>
-      <c r="V143" t="n">
+      <c r="W143" t="n">
         <v>11</v>
-      </c>
-      <c r="W143" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -14871,13 +14871,13 @@
         <v>1</v>
       </c>
       <c r="U144" t="n">
+        <v>1</v>
+      </c>
+      <c r="V144" t="n">
         <v>15</v>
       </c>
-      <c r="V144" t="n">
+      <c r="W144" t="n">
         <v>17</v>
-      </c>
-      <c r="W144" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -14967,16 +14967,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U145" t="n">
+        <v>2</v>
+      </c>
+      <c r="V145" t="n">
         <v>24</v>
       </c>
-      <c r="V145" t="n">
+      <c r="W145" t="n">
         <v>27</v>
-      </c>
-      <c r="W145" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -15069,13 +15069,13 @@
         <v>2</v>
       </c>
       <c r="U146" t="n">
+        <v>2</v>
+      </c>
+      <c r="V146" t="n">
         <v>11</v>
       </c>
-      <c r="V146" t="n">
+      <c r="W146" t="n">
         <v>15</v>
-      </c>
-      <c r="W146" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -15165,16 +15165,16 @@
         </is>
       </c>
       <c r="T147" t="n">
+        <v>1</v>
+      </c>
+      <c r="U147" t="n">
         <v>4</v>
       </c>
-      <c r="U147" t="n">
+      <c r="V147" t="n">
         <v>9</v>
       </c>
-      <c r="V147" t="n">
+      <c r="W147" t="n">
         <v>14</v>
-      </c>
-      <c r="W147" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -15267,13 +15267,13 @@
         <v>1</v>
       </c>
       <c r="U148" t="n">
+        <v>1</v>
+      </c>
+      <c r="V148" t="n">
         <v>10</v>
       </c>
-      <c r="V148" t="n">
+      <c r="W148" t="n">
         <v>12</v>
-      </c>
-      <c r="W148" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -15363,16 +15363,16 @@
         </is>
       </c>
       <c r="T149" t="n">
+        <v>1</v>
+      </c>
+      <c r="U149" t="n">
         <v>4</v>
       </c>
-      <c r="U149" t="n">
+      <c r="V149" t="n">
         <v>7</v>
       </c>
-      <c r="V149" t="n">
+      <c r="W149" t="n">
         <v>12</v>
-      </c>
-      <c r="W149" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -15462,16 +15462,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U150" t="n">
+        <v>2</v>
+      </c>
+      <c r="V150" t="n">
         <v>9</v>
       </c>
-      <c r="V150" t="n">
+      <c r="W150" t="n">
         <v>12</v>
-      </c>
-      <c r="W150" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -15561,16 +15561,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U151" t="n">
+        <v>2</v>
+      </c>
+      <c r="V151" t="n">
         <v>10</v>
       </c>
-      <c r="V151" t="n">
+      <c r="W151" t="n">
         <v>13</v>
-      </c>
-      <c r="W151" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -15660,16 +15660,16 @@
         </is>
       </c>
       <c r="T152" t="n">
+        <v>2</v>
+      </c>
+      <c r="U152" t="n">
         <v>3</v>
       </c>
-      <c r="U152" t="n">
+      <c r="V152" t="n">
         <v>4</v>
       </c>
-      <c r="V152" t="n">
+      <c r="W152" t="n">
         <v>9</v>
-      </c>
-      <c r="W152" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -15759,16 +15759,16 @@
         </is>
       </c>
       <c r="T153" t="n">
+        <v>1</v>
+      </c>
+      <c r="U153" t="n">
         <v>3</v>
       </c>
-      <c r="U153" t="n">
+      <c r="V153" t="n">
         <v>7</v>
       </c>
-      <c r="V153" t="n">
+      <c r="W153" t="n">
         <v>11</v>
-      </c>
-      <c r="W153" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -15858,16 +15858,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U154" t="n">
+        <v>2</v>
+      </c>
+      <c r="V154" t="n">
         <v>8</v>
       </c>
-      <c r="V154" t="n">
+      <c r="W154" t="n">
         <v>11</v>
-      </c>
-      <c r="W154" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -15960,15 +15960,15 @@
           <t>2023-11-09T06:19:22.827972</t>
         </is>
       </c>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="n">
+      <c r="T155" t="n">
+        <v>1</v>
+      </c>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="n">
         <v>7</v>
       </c>
-      <c r="V155" t="n">
+      <c r="W155" t="n">
         <v>8</v>
-      </c>
-      <c r="W155" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -16061,16 +16061,16 @@
           <t>2024-03-15T20:00:48.927210</t>
         </is>
       </c>
-      <c r="T156" t="n">
-        <v>1</v>
-      </c>
+      <c r="T156" t="inlineStr"/>
       <c r="U156" t="n">
+        <v>1</v>
+      </c>
+      <c r="V156" t="n">
         <v>7</v>
       </c>
-      <c r="V156" t="n">
+      <c r="W156" t="n">
         <v>8</v>
       </c>
-      <c r="W156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -16162,16 +16162,16 @@
           <t>2024-03-15T20:00:25.779159</t>
         </is>
       </c>
-      <c r="T157" t="n">
-        <v>1</v>
-      </c>
+      <c r="T157" t="inlineStr"/>
       <c r="U157" t="n">
+        <v>1</v>
+      </c>
+      <c r="V157" t="n">
         <v>4</v>
       </c>
-      <c r="V157" t="n">
+      <c r="W157" t="n">
         <v>5</v>
       </c>
-      <c r="W157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -16263,16 +16263,16 @@
           <t>2024-03-15T20:00:55.021319</t>
         </is>
       </c>
-      <c r="T158" t="n">
-        <v>2</v>
-      </c>
+      <c r="T158" t="inlineStr"/>
       <c r="U158" t="n">
+        <v>2</v>
+      </c>
+      <c r="V158" t="n">
         <v>5</v>
       </c>
-      <c r="V158" t="n">
+      <c r="W158" t="n">
         <v>7</v>
       </c>
-      <c r="W158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -16361,16 +16361,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U159" t="n">
+        <v>2</v>
+      </c>
+      <c r="V159" t="n">
         <v>4</v>
       </c>
-      <c r="V159" t="n">
+      <c r="W159" t="n">
         <v>7</v>
-      </c>
-      <c r="W159" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -16463,16 +16463,16 @@
           <t>2024-03-15T20:00:35.393581</t>
         </is>
       </c>
-      <c r="T160" t="n">
-        <v>1</v>
-      </c>
+      <c r="T160" t="inlineStr"/>
       <c r="U160" t="n">
+        <v>1</v>
+      </c>
+      <c r="V160" t="n">
         <v>5</v>
       </c>
-      <c r="V160" t="n">
+      <c r="W160" t="n">
         <v>6</v>
       </c>
-      <c r="W160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -16564,16 +16564,16 @@
           <t>2024-03-15T20:00:28.917746</t>
         </is>
       </c>
-      <c r="T161" t="n">
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="n">
         <v>3</v>
       </c>
-      <c r="U161" t="n">
+      <c r="V161" t="n">
         <v>5</v>
       </c>
-      <c r="V161" t="n">
+      <c r="W161" t="n">
         <v>8</v>
       </c>
-      <c r="W161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -16665,16 +16665,16 @@
           <t>2024-03-15T20:00:45.818633</t>
         </is>
       </c>
-      <c r="T162" t="n">
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="n">
         <v>3</v>
       </c>
-      <c r="U162" t="n">
+      <c r="V162" t="n">
         <v>5</v>
       </c>
-      <c r="V162" t="n">
+      <c r="W162" t="n">
         <v>8</v>
       </c>
-      <c r="W162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -16766,16 +16766,16 @@
           <t>2024-03-15T20:00:40.890275</t>
         </is>
       </c>
-      <c r="T163" t="n">
-        <v>1</v>
-      </c>
+      <c r="T163" t="inlineStr"/>
       <c r="U163" t="n">
+        <v>1</v>
+      </c>
+      <c r="V163" t="n">
         <v>3</v>
       </c>
-      <c r="V163" t="n">
+      <c r="W163" t="n">
         <v>4</v>
       </c>
-      <c r="W163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -16867,16 +16867,16 @@
           <t>2024-03-15T19:30:30.020976</t>
         </is>
       </c>
-      <c r="T164" t="n">
-        <v>1</v>
-      </c>
+      <c r="T164" t="inlineStr"/>
       <c r="U164" t="n">
+        <v>1</v>
+      </c>
+      <c r="V164" t="n">
         <v>4</v>
       </c>
-      <c r="V164" t="n">
+      <c r="W164" t="n">
         <v>5</v>
       </c>
-      <c r="W164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -16965,16 +16965,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U165" t="n">
+        <v>2</v>
+      </c>
+      <c r="V165" t="n">
         <v>7</v>
       </c>
-      <c r="V165" t="n">
+      <c r="W165" t="n">
         <v>10</v>
-      </c>
-      <c r="W165" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -17067,13 +17067,13 @@
         <v>1</v>
       </c>
       <c r="U166" t="n">
+        <v>1</v>
+      </c>
+      <c r="V166" t="n">
         <v>9</v>
       </c>
-      <c r="V166" t="n">
+      <c r="W166" t="n">
         <v>11</v>
-      </c>
-      <c r="W166" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -17166,13 +17166,13 @@
         <v>1</v>
       </c>
       <c r="U167" t="n">
+        <v>1</v>
+      </c>
+      <c r="V167" t="n">
         <v>5</v>
       </c>
-      <c r="V167" t="n">
+      <c r="W167" t="n">
         <v>7</v>
-      </c>
-      <c r="W167" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -17258,16 +17258,16 @@
         </is>
       </c>
       <c r="T168" t="n">
+        <v>2</v>
+      </c>
+      <c r="U168" t="n">
         <v>10</v>
       </c>
-      <c r="U168" t="n">
+      <c r="V168" t="n">
         <v>9</v>
       </c>
-      <c r="V168" t="n">
+      <c r="W168" t="n">
         <v>21</v>
-      </c>
-      <c r="W168" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -17357,16 +17357,16 @@
         </is>
       </c>
       <c r="T169" t="n">
+        <v>1</v>
+      </c>
+      <c r="U169" t="n">
         <v>4</v>
       </c>
-      <c r="U169" t="n">
+      <c r="V169" t="n">
         <v>7</v>
       </c>
-      <c r="V169" t="n">
+      <c r="W169" t="n">
         <v>12</v>
-      </c>
-      <c r="W169" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -17459,13 +17459,13 @@
         <v>2</v>
       </c>
       <c r="U170" t="n">
+        <v>2</v>
+      </c>
+      <c r="V170" t="n">
         <v>6</v>
       </c>
-      <c r="V170" t="n">
+      <c r="W170" t="n">
         <v>10</v>
-      </c>
-      <c r="W170" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -17558,15 +17558,15 @@
           <t>2023-11-09T06:20:09.029046</t>
         </is>
       </c>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="n">
+      <c r="T171" t="n">
+        <v>1</v>
+      </c>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="n">
         <v>11</v>
       </c>
-      <c r="V171" t="n">
+      <c r="W171" t="n">
         <v>12</v>
-      </c>
-      <c r="W171" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -17656,16 +17656,16 @@
         </is>
       </c>
       <c r="T172" t="n">
+        <v>1</v>
+      </c>
+      <c r="U172" t="n">
         <v>3</v>
       </c>
-      <c r="U172" t="n">
+      <c r="V172" t="n">
         <v>6</v>
       </c>
-      <c r="V172" t="n">
+      <c r="W172" t="n">
         <v>10</v>
-      </c>
-      <c r="W172" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -17758,13 +17758,13 @@
         <v>2</v>
       </c>
       <c r="U173" t="n">
+        <v>2</v>
+      </c>
+      <c r="V173" t="n">
         <v>9</v>
       </c>
-      <c r="V173" t="n">
+      <c r="W173" t="n">
         <v>13</v>
-      </c>
-      <c r="W173" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -17854,16 +17854,16 @@
         </is>
       </c>
       <c r="T174" t="n">
+        <v>1</v>
+      </c>
+      <c r="U174" t="n">
         <v>4</v>
       </c>
-      <c r="U174" t="n">
+      <c r="V174" t="n">
         <v>7</v>
       </c>
-      <c r="V174" t="n">
+      <c r="W174" t="n">
         <v>12</v>
-      </c>
-      <c r="W174" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -17953,16 +17953,16 @@
         </is>
       </c>
       <c r="T175" t="n">
+        <v>1</v>
+      </c>
+      <c r="U175" t="n">
         <v>3</v>
       </c>
-      <c r="U175" t="n">
+      <c r="V175" t="n">
         <v>7</v>
       </c>
-      <c r="V175" t="n">
+      <c r="W175" t="n">
         <v>11</v>
-      </c>
-      <c r="W175" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -18052,16 +18052,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U176" t="n">
+        <v>1</v>
+      </c>
+      <c r="V176" t="n">
         <v>8</v>
       </c>
-      <c r="V176" t="n">
+      <c r="W176" t="n">
         <v>11</v>
-      </c>
-      <c r="W176" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -18151,16 +18151,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U177" t="n">
+        <v>2</v>
+      </c>
+      <c r="V177" t="n">
         <v>9</v>
       </c>
-      <c r="V177" t="n">
+      <c r="W177" t="n">
         <v>12</v>
-      </c>
-      <c r="W177" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -18250,16 +18250,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U178" t="n">
+        <v>2</v>
+      </c>
+      <c r="V178" t="n">
         <v>9</v>
       </c>
-      <c r="V178" t="n">
+      <c r="W178" t="n">
         <v>12</v>
-      </c>
-      <c r="W178" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -18349,16 +18349,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U179" t="n">
+        <v>2</v>
+      </c>
+      <c r="V179" t="n">
         <v>7</v>
       </c>
-      <c r="V179" t="n">
+      <c r="W179" t="n">
         <v>10</v>
-      </c>
-      <c r="W179" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -18448,16 +18448,16 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U180" t="n">
+        <v>2</v>
+      </c>
+      <c r="V180" t="n">
         <v>5</v>
       </c>
-      <c r="V180" t="n">
+      <c r="W180" t="n">
         <v>8</v>
-      </c>
-      <c r="W180" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -18547,16 +18547,16 @@
         </is>
       </c>
       <c r="T181" t="n">
+        <v>2</v>
+      </c>
+      <c r="U181" t="n">
         <v>5</v>
       </c>
-      <c r="U181" t="n">
+      <c r="V181" t="n">
         <v>3</v>
       </c>
-      <c r="V181" t="n">
+      <c r="W181" t="n">
         <v>10</v>
-      </c>
-      <c r="W181" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -18649,13 +18649,13 @@
         <v>1</v>
       </c>
       <c r="U182" t="n">
+        <v>1</v>
+      </c>
+      <c r="V182" t="n">
         <v>11</v>
       </c>
-      <c r="V182" t="n">
+      <c r="W182" t="n">
         <v>13</v>
-      </c>
-      <c r="W182" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -18745,16 +18745,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U183" t="n">
+        <v>2</v>
+      </c>
+      <c r="V183" t="n">
         <v>7</v>
       </c>
-      <c r="V183" t="n">
+      <c r="W183" t="n">
         <v>10</v>
-      </c>
-      <c r="W183" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="T184" t="n">
+        <v>1</v>
+      </c>
+      <c r="U184" t="n">
         <v>4</v>
       </c>
-      <c r="U184" t="n">
+      <c r="V184" t="n">
         <v>9</v>
       </c>
-      <c r="V184" t="n">
+      <c r="W184" t="n">
         <v>14</v>
-      </c>
-      <c r="W184" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -18946,16 +18946,16 @@
           <t>2024-03-14T21:00:37.791377</t>
         </is>
       </c>
-      <c r="T185" t="n">
-        <v>3</v>
-      </c>
+      <c r="T185" t="inlineStr"/>
       <c r="U185" t="n">
         <v>3</v>
       </c>
       <c r="V185" t="n">
+        <v>3</v>
+      </c>
+      <c r="W185" t="n">
         <v>6</v>
       </c>
-      <c r="W185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -19047,16 +19047,16 @@
           <t>2024-03-14T20:30:31.893189</t>
         </is>
       </c>
-      <c r="T186" t="n">
-        <v>3</v>
-      </c>
+      <c r="T186" t="inlineStr"/>
       <c r="U186" t="n">
         <v>3</v>
       </c>
       <c r="V186" t="n">
+        <v>3</v>
+      </c>
+      <c r="W186" t="n">
         <v>6</v>
       </c>
-      <c r="W186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -19152,13 +19152,13 @@
         <v>1</v>
       </c>
       <c r="U187" t="n">
+        <v>1</v>
+      </c>
+      <c r="V187" t="n">
         <v>4</v>
       </c>
-      <c r="V187" t="n">
+      <c r="W187" t="n">
         <v>6</v>
-      </c>
-      <c r="W187" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -19248,16 +19248,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U188" t="n">
         <v>2</v>
       </c>
       <c r="V188" t="n">
+        <v>2</v>
+      </c>
+      <c r="W188" t="n">
         <v>5</v>
-      </c>
-      <c r="W188" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -19350,16 +19350,16 @@
           <t>2024-03-14T20:30:46.582816</t>
         </is>
       </c>
-      <c r="T189" t="n">
-        <v>2</v>
-      </c>
+      <c r="T189" t="inlineStr"/>
       <c r="U189" t="n">
+        <v>2</v>
+      </c>
+      <c r="V189" t="n">
         <v>5</v>
       </c>
-      <c r="V189" t="n">
+      <c r="W189" t="n">
         <v>7</v>
       </c>
-      <c r="W189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -19451,16 +19451,16 @@
           <t>2024-03-14T20:30:55.490116</t>
         </is>
       </c>
-      <c r="T190" t="n">
-        <v>2</v>
-      </c>
+      <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
+        <v>2</v>
+      </c>
+      <c r="V190" t="n">
         <v>5</v>
       </c>
-      <c r="V190" t="n">
+      <c r="W190" t="n">
         <v>7</v>
       </c>
-      <c r="W190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -19552,16 +19552,16 @@
           <t>2024-03-14T20:30:34.616762</t>
         </is>
       </c>
-      <c r="T191" t="n">
-        <v>1</v>
-      </c>
+      <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
+        <v>1</v>
+      </c>
+      <c r="V191" t="n">
         <v>4</v>
       </c>
-      <c r="V191" t="n">
+      <c r="W191" t="n">
         <v>5</v>
       </c>
-      <c r="W191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -19650,16 +19650,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U192" t="n">
+        <v>2</v>
+      </c>
+      <c r="V192" t="n">
         <v>3</v>
       </c>
-      <c r="V192" t="n">
+      <c r="W192" t="n">
         <v>6</v>
-      </c>
-      <c r="W192" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -19749,16 +19749,16 @@
         </is>
       </c>
       <c r="T193" t="n">
+        <v>2</v>
+      </c>
+      <c r="U193" t="n">
         <v>11</v>
       </c>
-      <c r="U193" t="n">
+      <c r="V193" t="n">
         <v>4</v>
       </c>
-      <c r="V193" t="n">
+      <c r="W193" t="n">
         <v>17</v>
-      </c>
-      <c r="W193" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -19848,16 +19848,16 @@
         </is>
       </c>
       <c r="T194" t="n">
+        <v>1</v>
+      </c>
+      <c r="U194" t="n">
         <v>3</v>
       </c>
-      <c r="U194" t="n">
-        <v>2</v>
-      </c>
       <c r="V194" t="n">
+        <v>2</v>
+      </c>
+      <c r="W194" t="n">
         <v>6</v>
-      </c>
-      <c r="W194" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -19950,16 +19950,16 @@
           <t>2024-03-14T20:30:20.984920</t>
         </is>
       </c>
-      <c r="T195" t="n">
-        <v>2</v>
-      </c>
+      <c r="T195" t="inlineStr"/>
       <c r="U195" t="n">
         <v>2</v>
       </c>
       <c r="V195" t="n">
+        <v>2</v>
+      </c>
+      <c r="W195" t="n">
         <v>4</v>
       </c>
-      <c r="W195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -20051,16 +20051,16 @@
           <t>2024-03-14T20:30:40.923051</t>
         </is>
       </c>
-      <c r="T196" t="n">
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="n">
         <v>3</v>
       </c>
-      <c r="U196" t="n">
+      <c r="V196" t="n">
         <v>4</v>
       </c>
-      <c r="V196" t="n">
+      <c r="W196" t="n">
         <v>7</v>
       </c>
-      <c r="W196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -20152,16 +20152,16 @@
           <t>2024-03-14T20:30:43.632475</t>
         </is>
       </c>
-      <c r="T197" t="n">
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="n">
         <v>3</v>
       </c>
-      <c r="U197" t="n">
+      <c r="V197" t="n">
         <v>4</v>
       </c>
-      <c r="V197" t="n">
+      <c r="W197" t="n">
         <v>7</v>
       </c>
-      <c r="W197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -20253,16 +20253,16 @@
           <t>2024-03-14T20:30:26.507021</t>
         </is>
       </c>
-      <c r="T198" t="n">
-        <v>1</v>
-      </c>
+      <c r="T198" t="inlineStr"/>
       <c r="U198" t="n">
+        <v>1</v>
+      </c>
+      <c r="V198" t="n">
         <v>5</v>
       </c>
-      <c r="V198" t="n">
+      <c r="W198" t="n">
         <v>6</v>
       </c>
-      <c r="W198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -20354,16 +20354,16 @@
           <t>2024-03-14T20:00:22.026653</t>
         </is>
       </c>
-      <c r="T199" t="n">
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="n">
         <v>6</v>
       </c>
-      <c r="U199" t="n">
-        <v>2</v>
-      </c>
       <c r="V199" t="n">
+        <v>2</v>
+      </c>
+      <c r="W199" t="n">
         <v>8</v>
       </c>
-      <c r="W199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -20452,16 +20452,16 @@
         </is>
       </c>
       <c r="T200" t="n">
+        <v>2</v>
+      </c>
+      <c r="U200" t="n">
         <v>5</v>
       </c>
-      <c r="U200" t="n">
+      <c r="V200" t="n">
         <v>3</v>
       </c>
-      <c r="V200" t="n">
+      <c r="W200" t="n">
         <v>10</v>
-      </c>
-      <c r="W200" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -20554,16 +20554,16 @@
           <t>2024-03-14T20:00:38.424770</t>
         </is>
       </c>
-      <c r="T201" t="n">
-        <v>2</v>
-      </c>
+      <c r="T201" t="inlineStr"/>
       <c r="U201" t="n">
         <v>2</v>
       </c>
       <c r="V201" t="n">
+        <v>2</v>
+      </c>
+      <c r="W201" t="n">
         <v>4</v>
       </c>
-      <c r="W201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -20655,16 +20655,16 @@
           <t>2024-03-14T20:00:30.597332</t>
         </is>
       </c>
-      <c r="T202" t="n">
-        <v>2</v>
-      </c>
+      <c r="T202" t="inlineStr"/>
       <c r="U202" t="n">
         <v>2</v>
       </c>
       <c r="V202" t="n">
+        <v>2</v>
+      </c>
+      <c r="W202" t="n">
         <v>4</v>
       </c>
-      <c r="W202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -20756,16 +20756,16 @@
           <t>2024-03-14T20:00:24.731608</t>
         </is>
       </c>
-      <c r="T203" t="n">
-        <v>2</v>
-      </c>
+      <c r="T203" t="inlineStr"/>
       <c r="U203" t="n">
+        <v>2</v>
+      </c>
+      <c r="V203" t="n">
         <v>4</v>
       </c>
-      <c r="V203" t="n">
+      <c r="W203" t="n">
         <v>6</v>
       </c>
-      <c r="W203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -20857,16 +20857,16 @@
           <t>2024-03-14T20:00:33.017880</t>
         </is>
       </c>
-      <c r="T204" t="n">
-        <v>2</v>
-      </c>
+      <c r="T204" t="inlineStr"/>
       <c r="U204" t="n">
+        <v>2</v>
+      </c>
+      <c r="V204" t="n">
         <v>4</v>
       </c>
-      <c r="V204" t="n">
+      <c r="W204" t="n">
         <v>6</v>
       </c>
-      <c r="W204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -20959,16 +20959,16 @@
         </is>
       </c>
       <c r="T205" t="n">
+        <v>1</v>
+      </c>
+      <c r="U205" t="n">
         <v>9</v>
       </c>
-      <c r="U205" t="n">
+      <c r="V205" t="n">
         <v>4</v>
       </c>
-      <c r="V205" t="n">
+      <c r="W205" t="n">
         <v>14</v>
-      </c>
-      <c r="W205" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -21062,16 +21062,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U206" t="n">
         <v>2</v>
       </c>
       <c r="V206" t="n">
+        <v>2</v>
+      </c>
+      <c r="W206" t="n">
         <v>5</v>
-      </c>
-      <c r="W206" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -21164,13 +21164,13 @@
         <v>1</v>
       </c>
       <c r="U207" t="n">
+        <v>1</v>
+      </c>
+      <c r="V207" t="n">
         <v>4</v>
       </c>
-      <c r="V207" t="n">
+      <c r="W207" t="n">
         <v>6</v>
-      </c>
-      <c r="W207" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -21263,16 +21263,16 @@
           <t>2024-03-14T19:30:34.423785</t>
         </is>
       </c>
-      <c r="T208" t="n">
-        <v>1</v>
-      </c>
+      <c r="T208" t="inlineStr"/>
       <c r="U208" t="n">
         <v>1</v>
       </c>
       <c r="V208" t="n">
-        <v>2</v>
-      </c>
-      <c r="W208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="W208" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -21364,15 +21364,15 @@
           <t>2024-03-14T19:30:49.280197</t>
         </is>
       </c>
-      <c r="T209" t="inlineStr"/>
-      <c r="U209" t="n">
+      <c r="T209" t="n">
+        <v>1</v>
+      </c>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="n">
         <v>3</v>
       </c>
-      <c r="V209" t="n">
+      <c r="W209" t="n">
         <v>4</v>
-      </c>
-      <c r="W209" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -21469,13 +21469,13 @@
         <v>1</v>
       </c>
       <c r="U210" t="n">
+        <v>1</v>
+      </c>
+      <c r="V210" t="n">
         <v>5</v>
       </c>
-      <c r="V210" t="n">
+      <c r="W210" t="n">
         <v>7</v>
-      </c>
-      <c r="W210" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -21568,13 +21568,13 @@
         <v>1</v>
       </c>
       <c r="U211" t="n">
+        <v>1</v>
+      </c>
+      <c r="V211" t="n">
         <v>4</v>
       </c>
-      <c r="V211" t="n">
+      <c r="W211" t="n">
         <v>6</v>
-      </c>
-      <c r="W211" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -21664,16 +21664,16 @@
         </is>
       </c>
       <c r="T212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U212" t="n">
+        <v>2</v>
+      </c>
+      <c r="V212" t="n">
         <v>5</v>
       </c>
-      <c r="V212" t="n">
+      <c r="W212" t="n">
         <v>8</v>
-      </c>
-      <c r="W212" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -21766,16 +21766,16 @@
           <t>2024-03-14T19:30:57.531816</t>
         </is>
       </c>
-      <c r="T213" t="n">
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="n">
         <v>7</v>
       </c>
-      <c r="U213" t="n">
+      <c r="V213" t="n">
         <v>3</v>
       </c>
-      <c r="V213" t="n">
+      <c r="W213" t="n">
         <v>10</v>
       </c>
-      <c r="W213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -21871,13 +21871,13 @@
         <v>1</v>
       </c>
       <c r="U214" t="n">
+        <v>1</v>
+      </c>
+      <c r="V214" t="n">
         <v>4</v>
       </c>
-      <c r="V214" t="n">
+      <c r="W214" t="n">
         <v>6</v>
-      </c>
-      <c r="W214" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -21977,10 +21977,10 @@
         <v>1</v>
       </c>
       <c r="V215" t="n">
+        <v>1</v>
+      </c>
+      <c r="W215" t="n">
         <v>3</v>
-      </c>
-      <c r="W215" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -22073,16 +22073,16 @@
           <t>2024-03-14T18:30:29.597676</t>
         </is>
       </c>
-      <c r="T216" t="n">
-        <v>1</v>
-      </c>
+      <c r="T216" t="inlineStr"/>
       <c r="U216" t="n">
         <v>1</v>
       </c>
       <c r="V216" t="n">
-        <v>2</v>
-      </c>
-      <c r="W216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="W216" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -22178,13 +22178,13 @@
         <v>1</v>
       </c>
       <c r="U217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V217" t="n">
+        <v>2</v>
+      </c>
+      <c r="W217" t="n">
         <v>4</v>
-      </c>
-      <c r="W217" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -22277,16 +22277,16 @@
           <t>2024-03-15T14:30:16.526958</t>
         </is>
       </c>
-      <c r="T218" t="n">
-        <v>1</v>
-      </c>
+      <c r="T218" t="inlineStr"/>
       <c r="U218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V218" t="n">
+        <v>2</v>
+      </c>
+      <c r="W218" t="n">
         <v>3</v>
       </c>
-      <c r="W218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -22382,13 +22382,13 @@
         <v>1</v>
       </c>
       <c r="U219" t="n">
+        <v>1</v>
+      </c>
+      <c r="V219" t="n">
         <v>3</v>
       </c>
-      <c r="V219" t="n">
+      <c r="W219" t="n">
         <v>5</v>
-      </c>
-      <c r="W219" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -22274,7 +22274,7 @@
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>2024-03-15T14:30:16.526958</t>
+          <t>2024-03-18T13:30:16.477210</t>
         </is>
       </c>
       <c r="T218" t="inlineStr"/>

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -640,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="n">
         <v>4</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -842,10 +842,10 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -943,10 +943,10 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1044,10 +1044,10 @@
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1147,10 +1147,10 @@
         <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1250,10 +1250,10 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1550,13 +1550,13 @@
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W11" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1755,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1856,10 +1856,10 @@
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2058,10 +2058,10 @@
         <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2361,10 +2361,10 @@
         <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2969,10 +2969,10 @@
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -3471,10 +3471,10 @@
         <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
         <v>7</v>
@@ -3676,10 +3676,10 @@
         <v>4</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -3777,10 +3777,10 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -4080,10 +4080,10 @@
         <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4284,10 +4284,10 @@
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -4791,10 +4791,10 @@
         <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -4890,10 +4890,10 @@
         <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W44" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -4989,10 +4989,10 @@
         <v>4</v>
       </c>
       <c r="V45" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W45" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -5089,13 +5089,13 @@
         <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>3</v>
       </c>
       <c r="W46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -5191,10 +5191,10 @@
         <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W47" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -5290,10 +5290,10 @@
         <v>10</v>
       </c>
       <c r="V48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -5389,10 +5389,10 @@
         <v>4</v>
       </c>
       <c r="V49" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W49" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -5488,10 +5488,10 @@
         <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W50" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -5587,10 +5587,10 @@
         <v>4</v>
       </c>
       <c r="V51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W51" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -5687,13 +5687,13 @@
         <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>3</v>
       </c>
       <c r="W52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -5786,13 +5786,13 @@
         <v>2</v>
       </c>
       <c r="U53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V53" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W53" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
@@ -5888,10 +5888,10 @@
         <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W54" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -5987,10 +5987,10 @@
         <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W55" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -6086,10 +6086,10 @@
         <v>4</v>
       </c>
       <c r="V56" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -6185,10 +6185,10 @@
         <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W57" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -6281,13 +6281,13 @@
         <v>2</v>
       </c>
       <c r="U58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V58" t="n">
         <v>3</v>
       </c>
       <c r="W58" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -6383,10 +6383,10 @@
         <v>1</v>
       </c>
       <c r="V59" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W59" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -6584,13 +6584,13 @@
         <v>2</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V61" t="n">
         <v>5</v>
       </c>
       <c r="W61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -6686,10 +6686,10 @@
         <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W62" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -6785,10 +6785,10 @@
         <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W63" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -6884,10 +6884,10 @@
         <v>4</v>
       </c>
       <c r="V64" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W64" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -6984,13 +6984,13 @@
         <v>1</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V65" t="n">
         <v>4</v>
       </c>
       <c r="W65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -7086,10 +7086,10 @@
         <v>4</v>
       </c>
       <c r="V66" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -7185,10 +7185,10 @@
         <v>1</v>
       </c>
       <c r="V67" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W67" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -7284,10 +7284,10 @@
         <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W68" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -7380,13 +7380,13 @@
         <v>2</v>
       </c>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V69" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -7481,13 +7481,13 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V70" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W70" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -7684,10 +7684,10 @@
         <v>2</v>
       </c>
       <c r="V72" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
@@ -7783,10 +7783,10 @@
         <v>2</v>
       </c>
       <c r="V73" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W73" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -7882,10 +7882,10 @@
         <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W74" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -7981,10 +7981,10 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -8080,10 +8080,10 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -8183,10 +8183,10 @@
         <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -8483,13 +8483,13 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -8587,10 +8587,10 @@
         <v>1</v>
       </c>
       <c r="V81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -8788,10 +8788,10 @@
         <v>1</v>
       </c>
       <c r="U83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W83" t="n">
         <v>5</v>
@@ -8892,10 +8892,10 @@
         <v>2</v>
       </c>
       <c r="V84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -8993,10 +8993,10 @@
         <v>2</v>
       </c>
       <c r="V85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -9090,12 +9090,14 @@
         </is>
       </c>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
       <c r="V86" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W86" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -9195,10 +9197,10 @@
         <v>1</v>
       </c>
       <c r="V87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -9296,10 +9298,10 @@
         <v>1</v>
       </c>
       <c r="V88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -9395,10 +9397,10 @@
         <v>2</v>
       </c>
       <c r="V89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -9493,13 +9495,13 @@
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W90" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -9595,10 +9597,10 @@
         <v>8</v>
       </c>
       <c r="V91" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W91" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -9694,10 +9696,10 @@
         <v>2</v>
       </c>
       <c r="V92" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W92" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
@@ -9793,10 +9795,10 @@
         <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W93" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -9892,10 +9894,10 @@
         <v>2</v>
       </c>
       <c r="V94" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W94" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -9991,10 +9993,10 @@
         <v>2</v>
       </c>
       <c r="V95" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="W95" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -10090,10 +10092,10 @@
         <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="W96" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
@@ -10190,13 +10192,13 @@
         <v>1</v>
       </c>
       <c r="U97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V97" t="n">
         <v>4</v>
       </c>
       <c r="W97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -10293,13 +10295,13 @@
         <v>1</v>
       </c>
       <c r="U98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V98" t="n">
         <v>2</v>
       </c>
       <c r="W98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -10395,10 +10397,10 @@
         <v>2</v>
       </c>
       <c r="V99" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="W99" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
@@ -10593,12 +10595,14 @@
         </is>
       </c>
       <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
       <c r="V101" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W101" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
@@ -10694,10 +10698,10 @@
         <v>2</v>
       </c>
       <c r="V102" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W102" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
@@ -10793,10 +10797,10 @@
         <v>6</v>
       </c>
       <c r="V103" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W103" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
@@ -10892,10 +10896,10 @@
         <v>2</v>
       </c>
       <c r="V104" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="W104" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105">
@@ -10991,10 +10995,10 @@
         <v>2</v>
       </c>
       <c r="V105" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W105" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
@@ -11090,10 +11094,10 @@
         <v>2</v>
       </c>
       <c r="V106" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W106" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
@@ -11189,10 +11193,10 @@
         <v>1</v>
       </c>
       <c r="V107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W107" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
@@ -11288,10 +11292,10 @@
         <v>2</v>
       </c>
       <c r="V108" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W108" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -11387,10 +11391,10 @@
         <v>2</v>
       </c>
       <c r="V109" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W109" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
@@ -11483,13 +11487,13 @@
         <v>1</v>
       </c>
       <c r="U110" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W110" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
@@ -11585,10 +11589,10 @@
         <v>2</v>
       </c>
       <c r="V111" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W111" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
@@ -11684,10 +11688,10 @@
         <v>2</v>
       </c>
       <c r="V112" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W112" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
@@ -11783,10 +11787,10 @@
         <v>1</v>
       </c>
       <c r="V113" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W113" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -11879,13 +11883,13 @@
         <v>1</v>
       </c>
       <c r="U114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V114" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W114" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115">
@@ -11981,10 +11985,10 @@
         <v>2</v>
       </c>
       <c r="V115" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W115" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
@@ -12081,13 +12085,13 @@
         <v>1</v>
       </c>
       <c r="U116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V116" t="n">
         <v>4</v>
       </c>
       <c r="W116" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
@@ -12183,10 +12187,10 @@
         <v>1</v>
       </c>
       <c r="V117" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W117" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118">
@@ -12282,10 +12286,10 @@
         <v>2</v>
       </c>
       <c r="V118" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W118" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119">
@@ -12381,10 +12385,10 @@
         <v>1</v>
       </c>
       <c r="V119" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="W119" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -12581,10 +12585,10 @@
         <v>2</v>
       </c>
       <c r="V121" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W121" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">
@@ -12677,13 +12681,13 @@
         <v>1</v>
       </c>
       <c r="U122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V122" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W122" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
@@ -12779,10 +12783,10 @@
         <v>2</v>
       </c>
       <c r="V123" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W123" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
@@ -12877,13 +12881,13 @@
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V124" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W124" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -12979,10 +12983,10 @@
         <v>2</v>
       </c>
       <c r="V125" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W125" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -13075,13 +13079,13 @@
         <v>2</v>
       </c>
       <c r="U126" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V126" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W126" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127">
@@ -13177,10 +13181,10 @@
         <v>5</v>
       </c>
       <c r="V127" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128">
@@ -13276,10 +13280,10 @@
         <v>2</v>
       </c>
       <c r="V128" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W128" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
@@ -13375,10 +13379,10 @@
         <v>1</v>
       </c>
       <c r="V129" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W129" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
@@ -13575,10 +13579,10 @@
         <v>2</v>
       </c>
       <c r="V131" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W131" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
@@ -13674,10 +13678,10 @@
         <v>1</v>
       </c>
       <c r="V132" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W132" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133">
@@ -13770,13 +13774,13 @@
         <v>2</v>
       </c>
       <c r="U133" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V133" t="n">
         <v>5</v>
       </c>
       <c r="W133" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134">
@@ -13873,13 +13877,13 @@
         <v>1</v>
       </c>
       <c r="U134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V134" t="n">
         <v>2</v>
       </c>
       <c r="W134" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
@@ -13975,10 +13979,10 @@
         <v>2</v>
       </c>
       <c r="V135" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W135" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
@@ -14074,10 +14078,10 @@
         <v>2</v>
       </c>
       <c r="V136" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W136" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
@@ -14173,10 +14177,10 @@
         <v>2</v>
       </c>
       <c r="V137" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W137" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
@@ -14273,13 +14277,13 @@
         <v>1</v>
       </c>
       <c r="U138" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V138" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W138" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139">
@@ -14375,10 +14379,10 @@
         <v>2</v>
       </c>
       <c r="V139" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="W139" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140">
@@ -14577,10 +14581,10 @@
         <v>5</v>
       </c>
       <c r="V141" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W141" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
@@ -14676,10 +14680,10 @@
         <v>5</v>
       </c>
       <c r="V142" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W142" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
@@ -14775,10 +14779,10 @@
         <v>2</v>
       </c>
       <c r="V143" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W143" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -14874,10 +14878,10 @@
         <v>1</v>
       </c>
       <c r="V144" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W144" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
@@ -14973,10 +14977,10 @@
         <v>2</v>
       </c>
       <c r="V145" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="W145" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146">
@@ -15072,10 +15076,10 @@
         <v>2</v>
       </c>
       <c r="V146" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W146" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
@@ -15171,10 +15175,10 @@
         <v>4</v>
       </c>
       <c r="V147" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W147" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
@@ -15270,10 +15274,10 @@
         <v>1</v>
       </c>
       <c r="V148" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="W148" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
@@ -15369,10 +15373,10 @@
         <v>4</v>
       </c>
       <c r="V149" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W149" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -15468,10 +15472,10 @@
         <v>2</v>
       </c>
       <c r="V150" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W150" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151">
@@ -15567,10 +15571,10 @@
         <v>2</v>
       </c>
       <c r="V151" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="W151" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152">
@@ -15663,13 +15667,13 @@
         <v>2</v>
       </c>
       <c r="U152" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V152" t="n">
         <v>4</v>
       </c>
       <c r="W152" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -15765,10 +15769,10 @@
         <v>3</v>
       </c>
       <c r="V153" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W153" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154">
@@ -15864,10 +15868,10 @@
         <v>2</v>
       </c>
       <c r="V154" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W154" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
@@ -15963,12 +15967,14 @@
       <c r="T155" t="n">
         <v>1</v>
       </c>
-      <c r="U155" t="inlineStr"/>
+      <c r="U155" t="n">
+        <v>4</v>
+      </c>
       <c r="V155" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W155" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156">
@@ -16066,10 +16072,10 @@
         <v>1</v>
       </c>
       <c r="V156" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W156" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157">
@@ -16167,10 +16173,10 @@
         <v>1</v>
       </c>
       <c r="V157" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W157" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -16367,10 +16373,10 @@
         <v>2</v>
       </c>
       <c r="V159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W159" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -16569,10 +16575,10 @@
         <v>3</v>
       </c>
       <c r="V161" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W161" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
@@ -16670,10 +16676,10 @@
         <v>3</v>
       </c>
       <c r="V162" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W162" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
@@ -16771,10 +16777,10 @@
         <v>1</v>
       </c>
       <c r="V163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W163" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
@@ -16872,10 +16878,10 @@
         <v>1</v>
       </c>
       <c r="V164" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W164" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165">
@@ -16971,10 +16977,10 @@
         <v>2</v>
       </c>
       <c r="V165" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W165" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
@@ -17070,10 +17076,10 @@
         <v>1</v>
       </c>
       <c r="V166" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W166" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
@@ -17169,10 +17175,10 @@
         <v>1</v>
       </c>
       <c r="V167" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W167" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
@@ -17264,10 +17270,10 @@
         <v>10</v>
       </c>
       <c r="V168" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W168" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169">
@@ -17363,10 +17369,10 @@
         <v>4</v>
       </c>
       <c r="V169" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="W169" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170">
@@ -17459,13 +17465,13 @@
         <v>2</v>
       </c>
       <c r="U170" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V170" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W170" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -17561,12 +17567,14 @@
       <c r="T171" t="n">
         <v>1</v>
       </c>
-      <c r="U171" t="inlineStr"/>
+      <c r="U171" t="n">
+        <v>4</v>
+      </c>
       <c r="V171" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W171" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172">
@@ -17659,13 +17667,13 @@
         <v>1</v>
       </c>
       <c r="U172" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V172" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W172" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -17761,10 +17769,10 @@
         <v>2</v>
       </c>
       <c r="V173" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W173" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174">
@@ -17860,10 +17868,10 @@
         <v>4</v>
       </c>
       <c r="V174" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W174" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175">
@@ -17959,10 +17967,10 @@
         <v>3</v>
       </c>
       <c r="V175" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W175" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176">
@@ -18058,10 +18066,10 @@
         <v>1</v>
       </c>
       <c r="V176" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W176" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
@@ -18157,10 +18165,10 @@
         <v>2</v>
       </c>
       <c r="V177" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W177" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178">
@@ -18256,10 +18264,10 @@
         <v>2</v>
       </c>
       <c r="V178" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W178" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179">
@@ -18355,10 +18363,10 @@
         <v>2</v>
       </c>
       <c r="V179" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W179" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180">
@@ -18454,10 +18462,10 @@
         <v>2</v>
       </c>
       <c r="V180" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W180" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
@@ -18550,13 +18558,13 @@
         <v>2</v>
       </c>
       <c r="U181" t="n">
+        <v>9</v>
+      </c>
+      <c r="V181" t="n">
         <v>5</v>
       </c>
-      <c r="V181" t="n">
-        <v>3</v>
-      </c>
       <c r="W181" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182">
@@ -18652,10 +18660,10 @@
         <v>1</v>
       </c>
       <c r="V182" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="W182" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183">
@@ -18751,10 +18759,10 @@
         <v>2</v>
       </c>
       <c r="V183" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W183" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184">
@@ -18850,10 +18858,10 @@
         <v>4</v>
       </c>
       <c r="V184" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W184" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -19052,10 +19060,10 @@
         <v>3</v>
       </c>
       <c r="V186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W186" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
@@ -19155,10 +19163,10 @@
         <v>1</v>
       </c>
       <c r="V187" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W187" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
@@ -19355,10 +19363,10 @@
         <v>2</v>
       </c>
       <c r="V189" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W189" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
@@ -19456,10 +19464,10 @@
         <v>2</v>
       </c>
       <c r="V190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W190" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191">
@@ -19656,10 +19664,10 @@
         <v>2</v>
       </c>
       <c r="V192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W192" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
@@ -19755,10 +19763,10 @@
         <v>11</v>
       </c>
       <c r="V193" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W193" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
@@ -20056,10 +20064,10 @@
         <v>3</v>
       </c>
       <c r="V196" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W196" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
@@ -20157,10 +20165,10 @@
         <v>3</v>
       </c>
       <c r="V197" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W197" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198">
@@ -20761,10 +20769,10 @@
         <v>2</v>
       </c>
       <c r="V203" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W203" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
@@ -20962,13 +20970,13 @@
         <v>1</v>
       </c>
       <c r="U205" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V205" t="n">
         <v>4</v>
       </c>
       <c r="W205" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206">
@@ -21268,10 +21276,10 @@
         <v>1</v>
       </c>
       <c r="V208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W208" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
@@ -21369,10 +21377,10 @@
       </c>
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W209" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210">
@@ -21472,10 +21480,10 @@
         <v>1</v>
       </c>
       <c r="V210" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W210" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211">
@@ -21571,10 +21579,10 @@
         <v>1</v>
       </c>
       <c r="V211" t="n">
+        <v>2</v>
+      </c>
+      <c r="W211" t="n">
         <v>4</v>
-      </c>
-      <c r="W211" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="212">
@@ -21670,10 +21678,10 @@
         <v>2</v>
       </c>
       <c r="V212" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W212" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
@@ -21771,10 +21779,10 @@
         <v>7</v>
       </c>
       <c r="V213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W213" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214">
@@ -21871,13 +21879,13 @@
         <v>1</v>
       </c>
       <c r="U214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V214" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W214" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215">
@@ -22181,10 +22189,10 @@
         <v>1</v>
       </c>
       <c r="V217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W217" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -22282,10 +22290,10 @@
         <v>1</v>
       </c>
       <c r="V218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W218" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219">
@@ -22385,10 +22393,10 @@
         <v>1</v>
       </c>
       <c r="V219" t="n">
+        <v>1</v>
+      </c>
+      <c r="W219" t="n">
         <v>3</v>
-      </c>
-      <c r="W219" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -640,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
         <v>3</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
         <v>2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -841,11 +841,9 @@
       <c r="U4" t="n">
         <v>2</v>
       </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -940,11 +938,9 @@
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
         <v>3</v>
       </c>
@@ -1041,11 +1037,9 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
         <v>3</v>
       </c>
@@ -1147,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1250,10 +1244,10 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1348,10 +1342,10 @@
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -1452,10 +1446,10 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1550,10 +1544,10 @@
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
+        <v>6</v>
+      </c>
+      <c r="V11" t="n">
         <v>5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>6</v>
       </c>
       <c r="W11" t="n">
         <v>11</v>
@@ -1654,10 +1648,10 @@
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1752,11 +1746,9 @@
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
         <v>3</v>
       </c>
@@ -1853,10 +1845,10 @@
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
         <v>8</v>
@@ -1957,10 +1949,10 @@
         <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2055,11 +2047,9 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
         <v>2</v>
       </c>
@@ -2156,10 +2146,10 @@
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
         <v>4</v>
@@ -2260,10 +2250,10 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
         <v>2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2358,11 +2348,9 @@
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
         <v>3</v>
       </c>
@@ -2462,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
         <v>3</v>
-      </c>
-      <c r="W20" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2562,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
         <v>2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>6</v>
@@ -2666,10 +2654,10 @@
         <v>1</v>
       </c>
       <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
         <v>3</v>
-      </c>
-      <c r="W22" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2764,10 +2752,10 @@
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
@@ -2868,10 +2856,10 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" t="n">
         <v>3</v>
-      </c>
-      <c r="W24" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2966,11 +2954,9 @@
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
         <v>3</v>
       </c>
@@ -3070,10 +3056,10 @@
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -3171,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="V27" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" t="n">
         <v>3</v>
-      </c>
-      <c r="W27" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -3267,10 +3253,10 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
         <v>6</v>
@@ -3371,10 +3357,10 @@
         <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -3471,11 +3457,9 @@
         <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>4</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="n">
         <v>7</v>
       </c>
@@ -3575,10 +3559,10 @@
         <v>1</v>
       </c>
       <c r="V31" t="n">
+        <v>2</v>
+      </c>
+      <c r="W31" t="n">
         <v>3</v>
-      </c>
-      <c r="W31" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -3675,11 +3659,9 @@
       <c r="U32" t="n">
         <v>4</v>
       </c>
-      <c r="V32" t="n">
-        <v>1</v>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -3774,11 +3756,9 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
         <v>3</v>
       </c>
@@ -3875,10 +3855,10 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
         <v>4</v>
@@ -3979,10 +3959,10 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
+        <v>3</v>
+      </c>
+      <c r="W35" t="n">
         <v>4</v>
-      </c>
-      <c r="W35" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -4077,10 +4057,10 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
         <v>4</v>
@@ -4178,10 +4158,10 @@
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
         <v>2</v>
-      </c>
-      <c r="V37" t="n">
-        <v>3</v>
       </c>
       <c r="W37" t="n">
         <v>5</v>
@@ -4284,10 +4264,10 @@
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -4385,10 +4365,10 @@
         <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -4483,10 +4463,10 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W40" t="n">
         <v>8</v>
@@ -4584,10 +4564,10 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
         <v>3</v>
-      </c>
-      <c r="V41" t="n">
-        <v>4</v>
       </c>
       <c r="W41" t="n">
         <v>7</v>
@@ -4685,10 +4665,10 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
         <v>2</v>
-      </c>
-      <c r="V42" t="n">
-        <v>3</v>
       </c>
       <c r="W42" t="n">
         <v>5</v>
@@ -4788,10 +4768,10 @@
         <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W43" t="n">
         <v>7</v>
@@ -4887,10 +4867,10 @@
         <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W44" t="n">
         <v>13</v>
@@ -4986,10 +4966,10 @@
         <v>2</v>
       </c>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W45" t="n">
         <v>21</v>
@@ -5092,10 +5072,10 @@
         <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -5188,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W47" t="n">
         <v>18</v>
@@ -5287,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W48" t="n">
         <v>18</v>
@@ -5389,10 +5369,10 @@
         <v>4</v>
       </c>
       <c r="V49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W49" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -5485,10 +5465,10 @@
         <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W50" t="n">
         <v>19</v>
@@ -5584,10 +5564,10 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W51" t="n">
         <v>13</v>
@@ -5690,10 +5670,10 @@
         <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -5789,10 +5769,10 @@
         <v>9</v>
       </c>
       <c r="V53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W53" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -5885,10 +5865,10 @@
         <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W54" t="n">
         <v>15</v>
@@ -5984,10 +5964,10 @@
         <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W55" t="n">
         <v>14</v>
@@ -6083,10 +6063,10 @@
         <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W56" t="n">
         <v>15</v>
@@ -6185,10 +6165,10 @@
         <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W57" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -6281,10 +6261,10 @@
         <v>2</v>
       </c>
       <c r="U58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W58" t="n">
         <v>13</v>
@@ -6380,10 +6360,10 @@
         <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W59" t="n">
         <v>13</v>
@@ -6481,10 +6461,10 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W60" t="n">
         <v>5</v>
@@ -6587,10 +6567,10 @@
         <v>3</v>
       </c>
       <c r="V61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -6686,10 +6666,10 @@
         <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W62" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -6785,10 +6765,10 @@
         <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -6881,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="U64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W64" t="n">
         <v>14</v>
@@ -6987,10 +6967,10 @@
         <v>3</v>
       </c>
       <c r="V65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -7086,10 +7066,10 @@
         <v>4</v>
       </c>
       <c r="V66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W66" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -7185,10 +7165,10 @@
         <v>1</v>
       </c>
       <c r="V67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W67" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -7281,10 +7261,10 @@
         <v>1</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V68" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W68" t="n">
         <v>19</v>
@@ -7380,10 +7360,10 @@
         <v>2</v>
       </c>
       <c r="U69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W69" t="n">
         <v>23</v>
@@ -7481,10 +7461,10 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W70" t="n">
         <v>18</v>
@@ -7582,10 +7562,10 @@
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W71" t="n">
         <v>6</v>
@@ -7684,10 +7664,10 @@
         <v>2</v>
       </c>
       <c r="V72" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W72" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -7780,10 +7760,10 @@
         <v>1</v>
       </c>
       <c r="U73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W73" t="n">
         <v>13</v>
@@ -7879,10 +7859,10 @@
         <v>1</v>
       </c>
       <c r="U74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V74" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W74" t="n">
         <v>16</v>
@@ -7980,12 +7960,8 @@
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="n">
-        <v>1</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1</v>
-      </c>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8078,9 +8054,11 @@
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
       <c r="V76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W76" t="n">
         <v>2</v>
@@ -8183,10 +8161,10 @@
         <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -8281,10 +8259,10 @@
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W78" t="n">
         <v>3</v>
@@ -8382,10 +8360,10 @@
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W79" t="n">
         <v>3</v>
@@ -8483,10 +8461,10 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W80" t="n">
         <v>10</v>
@@ -8587,10 +8565,10 @@
         <v>1</v>
       </c>
       <c r="V81" t="n">
+        <v>5</v>
+      </c>
+      <c r="W81" t="n">
         <v>6</v>
-      </c>
-      <c r="W81" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -8687,11 +8665,9 @@
       <c r="U82" t="n">
         <v>2</v>
       </c>
-      <c r="V82" t="n">
-        <v>1</v>
-      </c>
+      <c r="V82" t="inlineStr"/>
       <c r="W82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -8791,10 +8767,10 @@
         <v>2</v>
       </c>
       <c r="V83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -8891,11 +8867,9 @@
       <c r="U84" t="n">
         <v>2</v>
       </c>
-      <c r="V84" t="n">
-        <v>1</v>
-      </c>
+      <c r="V84" t="inlineStr"/>
       <c r="W84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -8990,11 +8964,9 @@
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>2</v>
-      </c>
-      <c r="V85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="V85" t="inlineStr"/>
       <c r="W85" t="n">
         <v>3</v>
       </c>
@@ -9091,10 +9063,10 @@
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W86" t="n">
         <v>11</v>
@@ -9194,11 +9166,9 @@
         <v>1</v>
       </c>
       <c r="U87" t="n">
-        <v>1</v>
-      </c>
-      <c r="V87" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="V87" t="inlineStr"/>
       <c r="W87" t="n">
         <v>3</v>
       </c>
@@ -9295,10 +9265,10 @@
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W88" t="n">
         <v>5</v>
@@ -9394,10 +9364,10 @@
         <v>1</v>
       </c>
       <c r="U89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V89" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W89" t="n">
         <v>12</v>
@@ -9495,10 +9465,10 @@
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V90" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W90" t="n">
         <v>20</v>
@@ -9594,10 +9564,10 @@
         <v>1</v>
       </c>
       <c r="U91" t="n">
+        <v>9</v>
+      </c>
+      <c r="V91" t="n">
         <v>8</v>
-      </c>
-      <c r="V91" t="n">
-        <v>9</v>
       </c>
       <c r="W91" t="n">
         <v>18</v>
@@ -9693,10 +9663,10 @@
         <v>1</v>
       </c>
       <c r="U92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W92" t="n">
         <v>16</v>
@@ -9795,10 +9765,10 @@
         <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
@@ -9894,10 +9864,10 @@
         <v>2</v>
       </c>
       <c r="V94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W94" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -9990,10 +9960,10 @@
         <v>1</v>
       </c>
       <c r="U95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W95" t="n">
         <v>16</v>
@@ -10092,10 +10062,10 @@
         <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W96" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -10195,10 +10165,10 @@
         <v>3</v>
       </c>
       <c r="V97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -10298,10 +10268,10 @@
         <v>3</v>
       </c>
       <c r="V98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -10397,10 +10367,10 @@
         <v>2</v>
       </c>
       <c r="V99" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W99" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
@@ -10495,10 +10465,10 @@
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W100" t="n">
         <v>3</v>
@@ -10596,10 +10566,10 @@
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V101" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W101" t="n">
         <v>21</v>
@@ -10698,10 +10668,10 @@
         <v>2</v>
       </c>
       <c r="V102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W102" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -10797,10 +10767,10 @@
         <v>6</v>
       </c>
       <c r="V103" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W103" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
@@ -10896,10 +10866,10 @@
         <v>2</v>
       </c>
       <c r="V104" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W104" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
@@ -10992,10 +10962,10 @@
         <v>1</v>
       </c>
       <c r="U105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W105" t="n">
         <v>16</v>
@@ -11091,10 +11061,10 @@
         <v>1</v>
       </c>
       <c r="U106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V106" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W106" t="n">
         <v>9</v>
@@ -11193,10 +11163,10 @@
         <v>1</v>
       </c>
       <c r="V107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W107" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -11289,10 +11259,10 @@
         <v>1</v>
       </c>
       <c r="U108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V108" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W108" t="n">
         <v>11</v>
@@ -11388,10 +11358,10 @@
         <v>4</v>
       </c>
       <c r="U109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W109" t="n">
         <v>17</v>
@@ -11487,10 +11457,10 @@
         <v>1</v>
       </c>
       <c r="U110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W110" t="n">
         <v>16</v>
@@ -11586,10 +11556,10 @@
         <v>1</v>
       </c>
       <c r="U111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V111" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W111" t="n">
         <v>11</v>
@@ -11688,10 +11658,10 @@
         <v>2</v>
       </c>
       <c r="V112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W112" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
@@ -11787,10 +11757,10 @@
         <v>1</v>
       </c>
       <c r="V113" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W113" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114">
@@ -11883,10 +11853,10 @@
         <v>1</v>
       </c>
       <c r="U114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V114" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W114" t="n">
         <v>17</v>
@@ -11982,10 +11952,10 @@
         <v>1</v>
       </c>
       <c r="U115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V115" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W115" t="n">
         <v>12</v>
@@ -12088,10 +12058,10 @@
         <v>3</v>
       </c>
       <c r="V116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W116" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -12187,10 +12157,10 @@
         <v>1</v>
       </c>
       <c r="V117" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W117" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -12283,10 +12253,10 @@
         <v>1</v>
       </c>
       <c r="U118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V118" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W118" t="n">
         <v>17</v>
@@ -12385,10 +12355,10 @@
         <v>1</v>
       </c>
       <c r="V119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W119" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -12486,10 +12456,10 @@
         <v>1</v>
       </c>
       <c r="V120" t="n">
+        <v>3</v>
+      </c>
+      <c r="W120" t="n">
         <v>4</v>
-      </c>
-      <c r="W120" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -12585,10 +12555,10 @@
         <v>2</v>
       </c>
       <c r="V121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W121" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
@@ -12681,10 +12651,10 @@
         <v>1</v>
       </c>
       <c r="U122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W122" t="n">
         <v>17</v>
@@ -12783,10 +12753,10 @@
         <v>2</v>
       </c>
       <c r="V123" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W123" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -12881,10 +12851,10 @@
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V124" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W124" t="n">
         <v>18</v>
@@ -12983,10 +12953,10 @@
         <v>2</v>
       </c>
       <c r="V125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W125" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
@@ -13079,10 +13049,10 @@
         <v>2</v>
       </c>
       <c r="U126" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V126" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W126" t="n">
         <v>17</v>
@@ -13181,10 +13151,10 @@
         <v>5</v>
       </c>
       <c r="V127" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W127" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
@@ -13277,10 +13247,10 @@
         <v>1</v>
       </c>
       <c r="U128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V128" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W128" t="n">
         <v>16</v>
@@ -13379,10 +13349,10 @@
         <v>1</v>
       </c>
       <c r="V129" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W129" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -13480,10 +13450,10 @@
         <v>1</v>
       </c>
       <c r="V130" t="n">
+        <v>1</v>
+      </c>
+      <c r="W130" t="n">
         <v>2</v>
-      </c>
-      <c r="W130" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -13576,10 +13546,10 @@
         <v>1</v>
       </c>
       <c r="U131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W131" t="n">
         <v>16</v>
@@ -13678,10 +13648,10 @@
         <v>1</v>
       </c>
       <c r="V132" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
@@ -13774,10 +13744,10 @@
         <v>2</v>
       </c>
       <c r="U133" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V133" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W133" t="n">
         <v>13</v>
@@ -13877,10 +13847,10 @@
         <v>1</v>
       </c>
       <c r="U134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W134" t="n">
         <v>6</v>
@@ -13979,10 +13949,10 @@
         <v>2</v>
       </c>
       <c r="V135" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W135" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
@@ -14075,10 +14045,10 @@
         <v>1</v>
       </c>
       <c r="U136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W136" t="n">
         <v>15</v>
@@ -14174,10 +14144,10 @@
         <v>1</v>
       </c>
       <c r="U137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V137" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W137" t="n">
         <v>15</v>
@@ -14277,10 +14247,10 @@
         <v>1</v>
       </c>
       <c r="U138" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V138" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W138" t="n">
         <v>20</v>
@@ -14376,10 +14346,10 @@
         <v>2</v>
       </c>
       <c r="U139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V139" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W139" t="n">
         <v>21</v>
@@ -14479,10 +14449,10 @@
         <v>1</v>
       </c>
       <c r="U140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W140" t="n">
         <v>7</v>
@@ -14578,10 +14548,10 @@
         <v>1</v>
       </c>
       <c r="U141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V141" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W141" t="n">
         <v>16</v>
@@ -14677,10 +14647,10 @@
         <v>1</v>
       </c>
       <c r="U142" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W142" t="n">
         <v>13</v>
@@ -14776,10 +14746,10 @@
         <v>4</v>
       </c>
       <c r="U143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W143" t="n">
         <v>13</v>
@@ -14878,10 +14848,10 @@
         <v>1</v>
       </c>
       <c r="V144" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W144" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145">
@@ -14974,10 +14944,10 @@
         <v>1</v>
       </c>
       <c r="U145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V145" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W145" t="n">
         <v>31</v>
@@ -15073,10 +15043,10 @@
         <v>2</v>
       </c>
       <c r="U146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V146" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W146" t="n">
         <v>19</v>
@@ -15175,10 +15145,10 @@
         <v>4</v>
       </c>
       <c r="V147" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W147" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148">
@@ -15274,10 +15244,10 @@
         <v>1</v>
       </c>
       <c r="V148" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W148" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
@@ -15370,10 +15340,10 @@
         <v>1</v>
       </c>
       <c r="U149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V149" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W149" t="n">
         <v>14</v>
@@ -15472,10 +15442,10 @@
         <v>2</v>
       </c>
       <c r="V150" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W150" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
@@ -15568,10 +15538,10 @@
         <v>1</v>
       </c>
       <c r="U151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V151" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W151" t="n">
         <v>17</v>
@@ -15667,10 +15637,10 @@
         <v>2</v>
       </c>
       <c r="U152" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W152" t="n">
         <v>11</v>
@@ -15769,10 +15739,10 @@
         <v>3</v>
       </c>
       <c r="V153" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W153" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
@@ -15868,10 +15838,10 @@
         <v>2</v>
       </c>
       <c r="V154" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W154" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155">
@@ -15968,10 +15938,10 @@
         <v>1</v>
       </c>
       <c r="U155" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V155" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W155" t="n">
         <v>17</v>
@@ -16069,10 +16039,10 @@
       </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V156" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W156" t="n">
         <v>11</v>
@@ -16173,10 +16143,10 @@
         <v>1</v>
       </c>
       <c r="V157" t="n">
+        <v>5</v>
+      </c>
+      <c r="W157" t="n">
         <v>6</v>
-      </c>
-      <c r="W157" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -16274,10 +16244,10 @@
         <v>2</v>
       </c>
       <c r="V158" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W158" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
@@ -16370,10 +16340,10 @@
         <v>1</v>
       </c>
       <c r="U159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V159" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W159" t="n">
         <v>8</v>
@@ -16471,10 +16441,10 @@
       </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V160" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W160" t="n">
         <v>6</v>
@@ -16575,10 +16545,10 @@
         <v>3</v>
       </c>
       <c r="V161" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W161" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -16676,10 +16646,10 @@
         <v>3</v>
       </c>
       <c r="V162" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W162" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
@@ -16774,10 +16744,10 @@
       </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W163" t="n">
         <v>5</v>
@@ -16875,10 +16845,10 @@
       </c>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V164" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W164" t="n">
         <v>6</v>
@@ -16974,10 +16944,10 @@
         <v>1</v>
       </c>
       <c r="U165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V165" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W165" t="n">
         <v>12</v>
@@ -17076,10 +17046,10 @@
         <v>1</v>
       </c>
       <c r="V166" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W166" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167">
@@ -17172,10 +17142,10 @@
         <v>1</v>
       </c>
       <c r="U167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V167" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W167" t="n">
         <v>9</v>
@@ -17267,10 +17237,10 @@
         <v>2</v>
       </c>
       <c r="U168" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V168" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W168" t="n">
         <v>25</v>
@@ -17366,10 +17336,10 @@
         <v>1</v>
       </c>
       <c r="U169" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V169" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W169" t="n">
         <v>20</v>
@@ -17465,10 +17435,10 @@
         <v>2</v>
       </c>
       <c r="U170" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V170" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W170" t="n">
         <v>14</v>
@@ -17568,10 +17538,10 @@
         <v>1</v>
       </c>
       <c r="U171" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V171" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W171" t="n">
         <v>20</v>
@@ -17667,10 +17637,10 @@
         <v>1</v>
       </c>
       <c r="U172" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V172" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W172" t="n">
         <v>14</v>
@@ -17766,10 +17736,10 @@
         <v>2</v>
       </c>
       <c r="U173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V173" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W173" t="n">
         <v>17</v>
@@ -17865,10 +17835,10 @@
         <v>1</v>
       </c>
       <c r="U174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V174" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W174" t="n">
         <v>14</v>
@@ -17967,10 +17937,10 @@
         <v>3</v>
       </c>
       <c r="V175" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W175" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176">
@@ -18063,10 +18033,10 @@
         <v>2</v>
       </c>
       <c r="U176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V176" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W176" t="n">
         <v>15</v>
@@ -18162,10 +18132,10 @@
         <v>1</v>
       </c>
       <c r="U177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V177" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W177" t="n">
         <v>16</v>
@@ -18264,10 +18234,10 @@
         <v>2</v>
       </c>
       <c r="V178" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W178" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179">
@@ -18363,10 +18333,10 @@
         <v>2</v>
       </c>
       <c r="V179" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W179" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180">
@@ -18462,10 +18432,10 @@
         <v>2</v>
       </c>
       <c r="V180" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W180" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
@@ -18558,10 +18528,10 @@
         <v>2</v>
       </c>
       <c r="U181" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V181" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W181" t="n">
         <v>16</v>
@@ -18660,10 +18630,10 @@
         <v>1</v>
       </c>
       <c r="V182" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W182" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
@@ -18756,10 +18726,10 @@
         <v>1</v>
       </c>
       <c r="U183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V183" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W183" t="n">
         <v>12</v>
@@ -18855,10 +18825,10 @@
         <v>1</v>
       </c>
       <c r="U184" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V184" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W184" t="n">
         <v>18</v>
@@ -18956,10 +18926,10 @@
       </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W185" t="n">
         <v>6</v>
@@ -19060,10 +19030,10 @@
         <v>3</v>
       </c>
       <c r="V186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W186" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187">
@@ -19160,10 +19130,10 @@
         <v>1</v>
       </c>
       <c r="U187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V187" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W187" t="n">
         <v>7</v>
@@ -19259,10 +19229,10 @@
         <v>1</v>
       </c>
       <c r="U188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W188" t="n">
         <v>5</v>
@@ -19363,10 +19333,10 @@
         <v>2</v>
       </c>
       <c r="V189" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W189" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
@@ -19464,10 +19434,10 @@
         <v>2</v>
       </c>
       <c r="V190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W190" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191">
@@ -19565,10 +19535,10 @@
         <v>1</v>
       </c>
       <c r="V191" t="n">
+        <v>3</v>
+      </c>
+      <c r="W191" t="n">
         <v>4</v>
-      </c>
-      <c r="W191" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="192">
@@ -19661,10 +19631,10 @@
         <v>1</v>
       </c>
       <c r="U192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W192" t="n">
         <v>7</v>
@@ -19763,10 +19733,10 @@
         <v>11</v>
       </c>
       <c r="V193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W193" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194">
@@ -19859,10 +19829,10 @@
         <v>1</v>
       </c>
       <c r="U194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W194" t="n">
         <v>6</v>
@@ -19963,10 +19933,10 @@
         <v>2</v>
       </c>
       <c r="V195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -20064,10 +20034,10 @@
         <v>3</v>
       </c>
       <c r="V196" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W196" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
@@ -20162,10 +20132,10 @@
       </c>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W197" t="n">
         <v>6</v>
@@ -20266,10 +20236,10 @@
         <v>1</v>
       </c>
       <c r="V198" t="n">
+        <v>4</v>
+      </c>
+      <c r="W198" t="n">
         <v>5</v>
-      </c>
-      <c r="W198" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="199">
@@ -20364,10 +20334,10 @@
       </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W199" t="n">
         <v>8</v>
@@ -20463,10 +20433,10 @@
         <v>2</v>
       </c>
       <c r="U200" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W200" t="n">
         <v>10</v>
@@ -20567,10 +20537,10 @@
         <v>2</v>
       </c>
       <c r="V201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W201" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -20665,10 +20635,10 @@
       </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W202" t="n">
         <v>4</v>
@@ -20769,10 +20739,10 @@
         <v>2</v>
       </c>
       <c r="V203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W203" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204">
@@ -20867,10 +20837,10 @@
       </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V204" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W204" t="n">
         <v>6</v>
@@ -20970,10 +20940,10 @@
         <v>1</v>
       </c>
       <c r="U205" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V205" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W205" t="n">
         <v>16</v>
@@ -21076,10 +21046,10 @@
         <v>2</v>
       </c>
       <c r="V206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W206" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207">
@@ -21175,10 +21145,10 @@
         <v>1</v>
       </c>
       <c r="V207" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W207" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
@@ -21273,10 +21243,10 @@
       </c>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W208" t="n">
         <v>4</v>
@@ -21375,9 +21345,11 @@
       <c r="T209" t="n">
         <v>1</v>
       </c>
-      <c r="U209" t="inlineStr"/>
+      <c r="U209" t="n">
+        <v>1</v>
+      </c>
       <c r="V209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W209" t="n">
         <v>5</v>
@@ -21477,10 +21449,10 @@
         <v>1</v>
       </c>
       <c r="U210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V210" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W210" t="n">
         <v>9</v>
@@ -21576,10 +21548,10 @@
         <v>1</v>
       </c>
       <c r="U211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W211" t="n">
         <v>4</v>
@@ -21675,10 +21647,10 @@
         <v>1</v>
       </c>
       <c r="U212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V212" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W212" t="n">
         <v>9</v>
@@ -21779,10 +21751,10 @@
         <v>7</v>
       </c>
       <c r="V213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W213" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214">
@@ -21879,10 +21851,10 @@
         <v>1</v>
       </c>
       <c r="U214" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W214" t="n">
         <v>8</v>
@@ -21984,11 +21956,9 @@
       <c r="U215" t="n">
         <v>1</v>
       </c>
-      <c r="V215" t="n">
-        <v>1</v>
-      </c>
+      <c r="V215" t="inlineStr"/>
       <c r="W215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -22083,11 +22053,9 @@
       </c>
       <c r="T216" t="inlineStr"/>
       <c r="U216" t="n">
-        <v>1</v>
-      </c>
-      <c r="V216" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="V216" t="inlineStr"/>
       <c r="W216" t="n">
         <v>2</v>
       </c>
@@ -22188,11 +22156,9 @@
       <c r="U217" t="n">
         <v>1</v>
       </c>
-      <c r="V217" t="n">
-        <v>1</v>
-      </c>
+      <c r="V217" t="inlineStr"/>
       <c r="W217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -22290,10 +22256,10 @@
         <v>1</v>
       </c>
       <c r="V218" t="n">
+        <v>2</v>
+      </c>
+      <c r="W218" t="n">
         <v>3</v>
-      </c>
-      <c r="W218" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="219">
@@ -22390,11 +22356,9 @@
         <v>1</v>
       </c>
       <c r="U219" t="n">
-        <v>1</v>
-      </c>
-      <c r="V219" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="V219" t="inlineStr"/>
       <c r="W219" t="n">
         <v>3</v>
       </c>

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W219"/>
+  <dimension ref="A1:W220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>2024-03-15T23:30:17.533823</t>
+          <t>2024-03-18T23:30:16.788577</t>
         </is>
       </c>
       <c r="T43" t="n">
@@ -4770,11 +4770,9 @@
       <c r="U43" t="n">
         <v>3</v>
       </c>
-      <c r="V43" t="n">
-        <v>3</v>
-      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -6155,7 +6153,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>2023-11-09T06:15:09.021532</t>
+          <t>2024-03-18T16:00:16.314039</t>
         </is>
       </c>
       <c r="T57" t="n">
@@ -6165,10 +6163,10 @@
         <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W57" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -21950,15 +21948,13 @@
           <t>2024-03-14T18:30:21.812205</t>
         </is>
       </c>
-      <c r="T215" t="n">
-        <v>1</v>
-      </c>
+      <c r="T215" t="inlineStr"/>
       <c r="U215" t="n">
         <v>1</v>
       </c>
       <c r="V215" t="inlineStr"/>
       <c r="W215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -22349,18 +22345,115 @@
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>2024-03-15T17:00:31.426266</t>
-        </is>
-      </c>
-      <c r="T219" t="n">
-        <v>1</v>
-      </c>
+          <t>2024-03-18T19:00:34.028381</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr"/>
       <c r="U219" t="n">
         <v>2</v>
       </c>
       <c r="V219" t="inlineStr"/>
       <c r="W219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>dbfe7219-b28e-457b-b2dd-c134753b5795</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ca-cioos_1755dc37-8d33-4158-8041-c22536fd5771</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Hakai Institute</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Hakai Bulk and Size-Fractionated Chlorophyll and Phaeopigment Concentrations Collected by Niskin Bottle, Provisional</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="H220" t="b">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>onGoing</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>Hakai Institute</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>2</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>{'type': 'Polygon', 'coordinates': [[[-128.5, 52.27], [-127.4, 52.21], [-127.2, 51.66], [-125.6, 51.13], [-124.8, 50.96], [-124.1, 50.43], [-124.7, 49.98], [-124.9, 49.8], [-126.7, 50.45], [-128.1, 51.37], [-128.4, 51.69], [-128.5, 52.27]]]}</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>[{'max': '650.0', 'min': '0.0'}]</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>particulateMatter</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>2024-03-18T20:00:17.526986</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>2024-03-18T20:00:17.526992</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
         <v>3</v>
+      </c>
+      <c r="U220" t="n">
+        <v>1</v>
+      </c>
+      <c r="V220" t="n">
+        <v>1</v>
+      </c>
+      <c r="W220" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/catalog_summary.xlsx
+++ b/catalog_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W220"/>
+  <dimension ref="A1:W221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4812,7 +4812,11 @@
       <c r="H44" t="b">
         <v>0</v>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Geospatial</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4858,7 +4862,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2023-11-09T06:14:38.219302</t>
+          <t>2024-03-19T16:00:18.505122</t>
         </is>
       </c>
       <c r="T44" t="n">
@@ -4868,10 +4872,10 @@
         <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W44" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -22456,6 +22460,109 @@
         <v>5</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>af3fdd4c-d452-498c-95c5-80c966647352</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ca-cioos_ba41d935-f293-447f-be3d-7098e569b431</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Hakai Institute</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Hakai Water Properties Vertical Profile Data Measured by Oceanographic Profilers, Research</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="H221" t="b">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Oceanography, Nearshore, Watersheds</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>onGoing</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Hakai Institute</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>2</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>{'type': 'Polygon', 'coordinates': [[[-128.5, 52.27], [-127.4, 52.21], [-127.2, 51.66], [-125.6, 51.13], [-124.8, 50.96], [-124.1, 50.43], [-124.7, 49.98], [-124.9, 49.8], [-126.7, 50.45], [-128.1, 51.37], [-128.4, 51.69], [-128.5, 52.27]]]}</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[{'max': '700.0', 'min': '1.0'}]</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>oxygen, subSurfaceSalinity, subSurfaceTemperature</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>2024-03-19T16:00:16.335903</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>2024-03-19T16:00:16.335909</t>
+        </is>
+      </c>
+      <c r="T221" t="n">
+        <v>1</v>
+      </c>
+      <c r="U221" t="n">
+        <v>1</v>
+      </c>
+      <c r="V221" t="n">
+        <v>2</v>
+      </c>
+      <c r="W221" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
